--- a/counts/ALS Mice/experimental/results/tg_1-tg_3/KEGG pathview.xlsx
+++ b/counts/ALS Mice/experimental/results/tg_1-tg_3/KEGG pathview.xlsx
@@ -62,114 +62,243 @@
     <t>mmu04514 Cell adhesion molecules (CAMs)</t>
   </si>
   <si>
+    <t>mmu04380 Osteoclast differentiation</t>
+  </si>
+  <si>
     <t>mmu04610 Complement and coagulation cascades</t>
   </si>
   <si>
-    <t>mmu04380 Osteoclast differentiation</t>
+    <t>mmu04630 Jak-STAT signaling pathway</t>
+  </si>
+  <si>
+    <t>mmu04650 Natural killer cell mediated cytotoxicity</t>
+  </si>
+  <si>
+    <t>mmu04142 Lysosome</t>
+  </si>
+  <si>
+    <t>mmu04612 Antigen processing and presentation</t>
+  </si>
+  <si>
+    <t>mmu04662 B cell receptor signaling pathway</t>
+  </si>
+  <si>
+    <t>mmu04623 Cytosolic DNA-sensing pathway</t>
   </si>
   <si>
     <t>mmu04620 Toll-like receptor signaling pathway</t>
   </si>
   <si>
-    <t>mmu04630 Jak-STAT signaling pathway</t>
-  </si>
-  <si>
-    <t>mmu04650 Natural killer cell mediated cytotoxicity</t>
+    <t>mmu04640 Hematopoietic cell lineage</t>
+  </si>
+  <si>
+    <t>mmu04210 Apoptosis</t>
+  </si>
+  <si>
+    <t>mmu04115 p53 signaling pathway</t>
+  </si>
+  <si>
+    <t>mmu04666 Fc gamma R-mediated phagocytosis</t>
   </si>
   <si>
     <t>mmu04062 Chemokine signaling pathway</t>
   </si>
   <si>
-    <t>mmu04142 Lysosome</t>
-  </si>
-  <si>
-    <t>mmu04662 B cell receptor signaling pathway</t>
+    <t>mmu00520 Amino sugar and nucleotide sugar metabolism</t>
+  </si>
+  <si>
+    <t>mmu00590 Arachidonic acid metabolism</t>
   </si>
   <si>
     <t>mmu04670 Leukocyte transendothelial migration</t>
   </si>
   <si>
-    <t>mmu04640 Hematopoietic cell lineage</t>
-  </si>
-  <si>
-    <t>mmu04612 Antigen processing and presentation</t>
+    <t>mmu00480 Glutathione metabolism</t>
+  </si>
+  <si>
+    <t>mmu04520 Adherens junction</t>
+  </si>
+  <si>
+    <t>mmu04622 RIG-I-like receptor signaling pathway</t>
+  </si>
+  <si>
+    <t>mmu00982 Drug metabolism - cytochrome P450</t>
+  </si>
+  <si>
+    <t>mmu04672 Intestinal immune network for IgA production</t>
   </si>
   <si>
     <t>mmu04810 Regulation of actin cytoskeleton</t>
   </si>
   <si>
-    <t>mmu04666 Fc gamma R-mediated phagocytosis</t>
-  </si>
-  <si>
-    <t>mmu04210 Apoptosis</t>
+    <t>mmu04660 T cell receptor signaling pathway</t>
+  </si>
+  <si>
+    <t>mmu00010 Glycolysis / Gluconeogenesis</t>
+  </si>
+  <si>
+    <t>mmu04910 Insulin signaling pathway</t>
+  </si>
+  <si>
+    <t>mmu03010 Ribosome</t>
+  </si>
+  <si>
+    <t>mmu04920 Adipocytokine signaling pathway</t>
+  </si>
+  <si>
+    <t>mmu00980 Metabolism of xenobiotics by cytochrome P450</t>
+  </si>
+  <si>
+    <t>mmu04621 NOD-like receptor signaling pathway</t>
+  </si>
+  <si>
+    <t>mmu04144 Endocytosis</t>
+  </si>
+  <si>
+    <t>mmu04510 Focal adhesion</t>
+  </si>
+  <si>
+    <t>mmu04110 Cell cycle</t>
+  </si>
+  <si>
+    <t>mmu04350 TGF-beta signaling pathway</t>
+  </si>
+  <si>
+    <t>mmu02010 ABC transporters</t>
+  </si>
+  <si>
+    <t>mmu03320 PPAR signaling pathway</t>
   </si>
   <si>
     <t>mmu04664 Fc epsilon RI signaling pathway</t>
   </si>
   <si>
-    <t>mmu00590 Arachidonic acid metabolism</t>
-  </si>
-  <si>
-    <t>mmu04510 Focal adhesion</t>
+    <t>mmu04512 ECM-receptor interaction</t>
+  </si>
+  <si>
+    <t>mmu04310 Wnt signaling pathway</t>
+  </si>
+  <si>
+    <t>mmu04120 Ubiquitin mediated proteolysis</t>
+  </si>
+  <si>
+    <t>mmu00561 Glycerolipid metabolism</t>
+  </si>
+  <si>
+    <t>mmu04146 Peroxisome</t>
+  </si>
+  <si>
+    <t>mmu04916 Melanogenesis</t>
+  </si>
+  <si>
+    <t>mmu04010 MAPK signaling pathway</t>
+  </si>
+  <si>
+    <t>mmu00240 Pyrimidine metabolism</t>
+  </si>
+  <si>
+    <t>mmu00330 Arginine and proline metabolism</t>
+  </si>
+  <si>
+    <t>mmu04370 VEGF signaling pathway</t>
+  </si>
+  <si>
+    <t>mmu04971 Gastric acid secretion</t>
+  </si>
+  <si>
+    <t>mmu04722 Neurotrophin signaling pathway</t>
+  </si>
+  <si>
+    <t>mmu04974 Protein digestion and absorption</t>
+  </si>
+  <si>
+    <t>mmu00260 Glycine, serine and threonine metabolism</t>
+  </si>
+  <si>
+    <t>mmu00562 Inositol phosphate metabolism</t>
+  </si>
+  <si>
+    <t>mmu00910 Nitrogen metabolism</t>
+  </si>
+  <si>
+    <t>mmu04070 Phosphatidylinositol signaling system</t>
+  </si>
+  <si>
+    <t>mmu04012 ErbB signaling pathway</t>
+  </si>
+  <si>
+    <t>mmu04530 Tight junction</t>
+  </si>
+  <si>
+    <t>mmu04730 Long-term depression</t>
+  </si>
+  <si>
+    <t>mmu04976 Bile secretion</t>
+  </si>
+  <si>
+    <t>mmu04270 Vascular smooth muscle contraction</t>
+  </si>
+  <si>
+    <t>mmu04260 Cardiac muscle contraction</t>
+  </si>
+  <si>
+    <t>mmu04141 Protein processing in endoplasmic reticulum</t>
+  </si>
+  <si>
+    <t>mmu04912 GnRH signaling pathway</t>
+  </si>
+  <si>
+    <t>mmu04720 Long-term potentiation</t>
+  </si>
+  <si>
+    <t>mmu04972 Pancreatic secretion</t>
+  </si>
+  <si>
+    <t>mmu04970 Salivary secretion</t>
+  </si>
+  <si>
+    <t>mmu00564 Glycerophospholipid metabolism</t>
+  </si>
+  <si>
+    <t>mmu00230 Purine metabolism</t>
+  </si>
+  <si>
+    <t>mmu04114 Oocyte meiosis</t>
   </si>
   <si>
     <t>mmu04020 Calcium signaling pathway</t>
   </si>
   <si>
-    <t>mmu04144 Endocytosis</t>
-  </si>
-  <si>
-    <t>mmu04010 MAPK signaling pathway</t>
-  </si>
-  <si>
-    <t>mmu04512 ECM-receptor interaction</t>
+    <t>mmu04360 Axon guidance</t>
+  </si>
+  <si>
+    <t>mmu04540 Gap junction</t>
+  </si>
+  <si>
+    <t>mmu04914 Progesterone-mediated oocyte maturation</t>
+  </si>
+  <si>
+    <t>mmu00100 Steroid biosynthesis</t>
   </si>
   <si>
     <t>mmu03008 Ribosome biogenesis in eukaryotes</t>
   </si>
   <si>
-    <t>mmu04141 Protein processing in endoplasmic reticulum</t>
-  </si>
-  <si>
     <t>mmu04740 Olfactory transduction</t>
   </si>
   <si>
-    <t>mmu03010 Ribosome</t>
-  </si>
-  <si>
-    <t>mmu04622 RIG-I-like receptor signaling pathway</t>
-  </si>
-  <si>
     <t>mmu04744 Phototransduction</t>
   </si>
   <si>
     <t>mmu00190 Oxidative phosphorylation</t>
   </si>
   <si>
-    <t>mmu04120 Ubiquitin mediated proteolysis</t>
-  </si>
-  <si>
     <t>mmu00670 One carbon pool by folate</t>
   </si>
   <si>
-    <t>mmu04110 Cell cycle</t>
-  </si>
-  <si>
-    <t>mmu04114 Oocyte meiosis</t>
-  </si>
-  <si>
-    <t>mmu04722 Neurotrophin signaling pathway</t>
-  </si>
-  <si>
     <t>mmu03015 mRNA surveillance pathway</t>
   </si>
   <si>
-    <t>mmu04672 Intestinal immune network for IgA production</t>
-  </si>
-  <si>
-    <t>mmu04974 Protein digestion and absorption</t>
-  </si>
-  <si>
     <t>mmu00072 Synthesis and degradation of ketone bodies</t>
   </si>
   <si>
@@ -188,12 +317,6 @@
     <t>mmu00830 Retinol metabolism</t>
   </si>
   <si>
-    <t>mmu03320 PPAR signaling pathway</t>
-  </si>
-  <si>
-    <t>mmu04270 Vascular smooth muscle contraction</t>
-  </si>
-  <si>
     <t>mmu03060 Protein export</t>
   </si>
   <si>
@@ -206,60 +329,21 @@
     <t>mmu03013 RNA transport</t>
   </si>
   <si>
-    <t>mmu00010 Glycolysis / Gluconeogenesis</t>
-  </si>
-  <si>
-    <t>mmu00230 Purine metabolism</t>
-  </si>
-  <si>
     <t>mmu00983 Drug metabolism - other enzymes</t>
   </si>
   <si>
-    <t>mmu04012 ErbB signaling pathway</t>
-  </si>
-  <si>
     <t>mmu00500 Starch and sucrose metabolism</t>
   </si>
   <si>
-    <t>mmu04972 Pancreatic secretion</t>
-  </si>
-  <si>
     <t>mmu04973 Carbohydrate digestion and absorption</t>
   </si>
   <si>
-    <t>mmu00240 Pyrimidine metabolism</t>
-  </si>
-  <si>
     <t>mmu03020 RNA polymerase</t>
   </si>
   <si>
-    <t>mmu04623 Cytosolic DNA-sensing pathway</t>
-  </si>
-  <si>
     <t>mmu03450 Non-homologous end-joining</t>
   </si>
   <si>
-    <t>mmu04914 Progesterone-mediated oocyte maturation</t>
-  </si>
-  <si>
-    <t>mmu04260 Cardiac muscle contraction</t>
-  </si>
-  <si>
-    <t>mmu04310 Wnt signaling pathway</t>
-  </si>
-  <si>
-    <t>mmu04520 Adherens junction</t>
-  </si>
-  <si>
-    <t>mmu04530 Tight junction</t>
-  </si>
-  <si>
-    <t>mmu04360 Axon guidance</t>
-  </si>
-  <si>
-    <t>mmu04660 T cell receptor signaling pathway</t>
-  </si>
-  <si>
     <t>mmu00591 Linoleic acid metabolism</t>
   </si>
   <si>
@@ -299,9 +383,6 @@
     <t>mmu00052 Galactose metabolism</t>
   </si>
   <si>
-    <t>mmu00561 Glycerolipid metabolism</t>
-  </si>
-  <si>
     <t>mmu00620 Pyruvate metabolism</t>
   </si>
   <si>
@@ -311,9 +392,6 @@
     <t>mmu00510 N-Glycan biosynthesis</t>
   </si>
   <si>
-    <t>mmu04621 NOD-like receptor signaling pathway</t>
-  </si>
-  <si>
     <t>mmu00053 Ascorbate and aldarate metabolism</t>
   </si>
   <si>
@@ -326,27 +404,12 @@
     <t>mmu00860 Porphyrin and chlorophyll metabolism</t>
   </si>
   <si>
-    <t>mmu00980 Metabolism of xenobiotics by cytochrome P450</t>
-  </si>
-  <si>
-    <t>mmu00982 Drug metabolism - cytochrome P450</t>
-  </si>
-  <si>
-    <t>mmu00260 Glycine, serine and threonine metabolism</t>
-  </si>
-  <si>
     <t>mmu00061 Fatty acid biosynthesis</t>
   </si>
   <si>
     <t>mmu00640 Propanoate metabolism</t>
   </si>
   <si>
-    <t>mmu04910 Insulin signaling pathway</t>
-  </si>
-  <si>
-    <t>mmu04920 Adipocytokine signaling pathway</t>
-  </si>
-  <si>
     <t>mmu00532 Glycosaminoglycan biosynthesis - chondroitin sulfate</t>
   </si>
   <si>
@@ -356,18 +419,12 @@
     <t>mmu03022 Basal transcription factors</t>
   </si>
   <si>
-    <t>mmu00564 Glycerophospholipid metabolism</t>
-  </si>
-  <si>
     <t>mmu00290 Valine, leucine and isoleucine biosynthesis</t>
   </si>
   <si>
     <t>mmu00970 Aminoacyl-tRNA biosynthesis</t>
   </si>
   <si>
-    <t>mmu04370 VEGF signaling pathway</t>
-  </si>
-  <si>
     <t>mmu00410 beta-Alanine metabolism</t>
   </si>
   <si>
@@ -386,51 +443,18 @@
     <t>mmu00750 Vitamin B6 metabolism</t>
   </si>
   <si>
-    <t>mmu04146 Peroxisome</t>
-  </si>
-  <si>
     <t>mmu00760 Nicotinate and nicotinamide metabolism</t>
   </si>
   <si>
-    <t>mmu00520 Amino sugar and nucleotide sugar metabolism</t>
-  </si>
-  <si>
-    <t>mmu00562 Inositol phosphate metabolism</t>
-  </si>
-  <si>
-    <t>mmu04070 Phosphatidylinositol signaling system</t>
-  </si>
-  <si>
-    <t>mmu04540 Gap junction</t>
-  </si>
-  <si>
     <t>mmu04742 Taste transduction</t>
   </si>
   <si>
-    <t>mmu04912 GnRH signaling pathway</t>
-  </si>
-  <si>
-    <t>mmu04916 Melanogenesis</t>
-  </si>
-  <si>
-    <t>mmu04970 Salivary secretion</t>
-  </si>
-  <si>
-    <t>mmu04971 Gastric acid secretion</t>
-  </si>
-  <si>
-    <t>mmu04976 Bile secretion</t>
-  </si>
-  <si>
     <t>mmu04962 Vasopressin-regulated water reabsorption</t>
   </si>
   <si>
     <t>mmu00020 Citrate cycle (TCA cycle)</t>
   </si>
   <si>
-    <t>mmu04350 TGF-beta signaling pathway</t>
-  </si>
-  <si>
     <t>mmu04964 Proximal tubule bicarbonate reclamation</t>
   </si>
   <si>
@@ -458,27 +482,15 @@
     <t>mmu00310 Lysine degradation</t>
   </si>
   <si>
-    <t>mmu04115 p53 signaling pathway</t>
-  </si>
-  <si>
     <t>mmu00450 Selenocompound metabolism</t>
   </si>
   <si>
-    <t>mmu00910 Nitrogen metabolism</t>
-  </si>
-  <si>
     <t>mmu04960 Aldosterone-regulated sodium reabsorption</t>
   </si>
   <si>
     <t>mmu00460 Cyanoamino acid metabolism</t>
   </si>
   <si>
-    <t>mmu04720 Long-term potentiation</t>
-  </si>
-  <si>
-    <t>mmu04730 Long-term depression</t>
-  </si>
-  <si>
     <t>mmu00601 Glycosphingolipid biosynthesis - lacto and neolacto series</t>
   </si>
   <si>
@@ -488,9 +500,6 @@
     <t>mmu00533 Glycosaminoglycan biosynthesis - keratan sulfate</t>
   </si>
   <si>
-    <t>mmu00330 Arginine and proline metabolism</t>
-  </si>
-  <si>
     <t>mmu00531 Glycosaminoglycan degradation</t>
   </si>
   <si>
@@ -503,9 +512,6 @@
     <t>mmu00511 Other glycan degradation</t>
   </si>
   <si>
-    <t>mmu00480 Glutathione metabolism</t>
-  </si>
-  <si>
     <t>mmu00790 Folate biosynthesis</t>
   </si>
   <si>
@@ -524,9 +530,6 @@
     <t>mmu00780 Biotin metabolism</t>
   </si>
   <si>
-    <t>mmu02010 ABC transporters</t>
-  </si>
-  <si>
     <t>mmu00604 Glycosphingolipid biosynthesis - ganglio series</t>
   </si>
   <si>
@@ -558,9 +561,6 @@
   </si>
   <si>
     <t>mmu04130 SNARE interactions in vesicular transport</t>
-  </si>
-  <si>
-    <t>mmu00100 Steroid biosynthesis</t>
   </si>
   <si>
     <t>mmu00130 Ubiquinone and other terpenoid-quinone biosynthesis</t>
@@ -685,46 +685,46 @@
         <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0021645548800009445</v>
+        <v>2.8334433763779085E-6</v>
       </c>
       <c r="C2" t="n">
-        <v>2.974182281735053</v>
+        <v>4.771222365560649</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0021645548800009475</v>
+        <v>2.833443376377905E-6</v>
       </c>
       <c r="E2" t="n">
-        <v>0.04978476224002179</v>
+        <v>2.1250825322834287E-4</v>
       </c>
       <c r="F2" t="n">
-        <v>38.0</v>
+        <v>56.0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.002164554880000944</v>
+        <v>2.8334433763779068E-6</v>
       </c>
       <c r="H2" t="n">
-        <v>0.242419146840848</v>
+        <v>9.436939132823443E-4</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.706771790220182</v>
+        <v>-3.661442162663987</v>
       </c>
       <c r="J2" t="n">
-        <v>0.24241914684084806</v>
+        <v>9.436939132823437E-4</v>
       </c>
       <c r="K2" t="n">
-        <v>0.9978354451199991</v>
+        <v>0.07077704349617578</v>
       </c>
       <c r="L2" t="n">
-        <v>17.0</v>
+        <v>13.0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.24241914684084803</v>
+        <v>9.436939132823444E-4</v>
       </c>
       <c r="N2" t="n">
-        <v>2.974182281735053</v>
+        <v>4.771222365560649</v>
       </c>
       <c r="O2" t="n">
-        <v>2.974182281735053</v>
+        <v>4.771222365560649</v>
       </c>
     </row>
     <row r="3">
@@ -732,46 +732,46 @@
         <v>15</v>
       </c>
       <c r="B3" t="n">
-        <v>0.00559808091314273</v>
+        <v>1.6991198245468595E-5</v>
       </c>
       <c r="C3" t="n">
-        <v>2.6601620786840297</v>
+        <v>4.399553665144085</v>
       </c>
       <c r="D3" t="n">
-        <v>0.005598080913142739</v>
+        <v>1.699119824546864E-5</v>
       </c>
       <c r="E3" t="n">
-        <v>0.06437793050114149</v>
+        <v>6.37169934205074E-4</v>
       </c>
       <c r="F3" t="n">
-        <v>24.0</v>
+        <v>40.0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.00559808091314273</v>
+        <v>1.699119824546858E-5</v>
       </c>
       <c r="H3" t="n">
-        <v>0.372429292731139</v>
+        <v>0.042894625325027726</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.32740323820712386</v>
+        <v>-1.8266032541875314</v>
       </c>
       <c r="J3" t="n">
-        <v>0.372429292731139</v>
+        <v>0.04289462532502775</v>
       </c>
       <c r="K3" t="n">
-        <v>0.9978354451199991</v>
+        <v>0.9999971665566236</v>
       </c>
       <c r="L3" t="n">
-        <v>24.0</v>
+        <v>12.0</v>
       </c>
       <c r="M3" t="n">
-        <v>0.372429292731139</v>
+        <v>0.042894625325027726</v>
       </c>
       <c r="N3" t="n">
-        <v>2.6601620786840297</v>
+        <v>4.399553665144085</v>
       </c>
       <c r="O3" t="n">
-        <v>2.6601620786840297</v>
+        <v>4.399553665144085</v>
       </c>
     </row>
     <row r="4">
@@ -779,46 +779,46 @@
         <v>16</v>
       </c>
       <c r="B4" t="n">
-        <v>0.02036380669180709</v>
+        <v>9.929212139581359E-5</v>
       </c>
       <c r="C4" t="n">
-        <v>2.1384494771989684</v>
+        <v>3.850267432394692</v>
       </c>
       <c r="D4" t="n">
-        <v>0.020363806691807113</v>
+        <v>9.929212139581381E-5</v>
       </c>
       <c r="E4" t="n">
-        <v>0.15131563756800506</v>
+        <v>0.0024823030348953452</v>
       </c>
       <c r="F4" t="n">
-        <v>18.0</v>
+        <v>56.0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02036380669180709</v>
+        <v>9.929212139581363E-5</v>
       </c>
       <c r="H4" t="n">
-        <v>0.39121750229652286</v>
+        <v>0.0429974764146657</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.27819194446017453</v>
+        <v>-1.7630328441037073</v>
       </c>
       <c r="J4" t="n">
-        <v>0.39121750229652286</v>
+        <v>0.042997476414665683</v>
       </c>
       <c r="K4" t="n">
-        <v>0.9978354451199991</v>
+        <v>0.9999971665566236</v>
       </c>
       <c r="L4" t="n">
-        <v>20.0</v>
+        <v>24.0</v>
       </c>
       <c r="M4" t="n">
-        <v>0.39121750229652286</v>
+        <v>0.0429974764146657</v>
       </c>
       <c r="N4" t="n">
-        <v>2.1384494771989684</v>
+        <v>3.850267432394692</v>
       </c>
       <c r="O4" t="n">
-        <v>2.1384494771989684</v>
+        <v>3.850267432394692</v>
       </c>
     </row>
     <row r="5">
@@ -826,46 +826,46 @@
         <v>17</v>
       </c>
       <c r="B5" t="n">
-        <v>0.026315763055305228</v>
+        <v>4.272568302515251E-4</v>
       </c>
       <c r="C5" t="n">
-        <v>1.9778524178510164</v>
+        <v>3.581152684132977</v>
       </c>
       <c r="D5" t="n">
-        <v>0.026315763055305228</v>
+        <v>4.2725683025152507E-4</v>
       </c>
       <c r="E5" t="n">
-        <v>0.15131563756800506</v>
+        <v>0.0073035380798492045</v>
       </c>
       <c r="F5" t="n">
-        <v>35.0</v>
+        <v>23.0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.026315763055305228</v>
+        <v>4.2725683025152507E-4</v>
       </c>
       <c r="H5" t="n">
-        <v>0.3946000510026756</v>
+        <v>0.056251429574039336</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.2710962820511405</v>
+        <v>-1.6143046804541665</v>
       </c>
       <c r="J5" t="n">
-        <v>0.39460005100267564</v>
+        <v>0.05625142957403937</v>
       </c>
       <c r="K5" t="n">
-        <v>0.9978354451199991</v>
+        <v>0.9999971665566236</v>
       </c>
       <c r="L5" t="n">
-        <v>12.0</v>
+        <v>29.0</v>
       </c>
       <c r="M5" t="n">
-        <v>0.3946000510026756</v>
+        <v>0.05625142957403933</v>
       </c>
       <c r="N5" t="n">
-        <v>1.9778524178510164</v>
+        <v>3.581152684132977</v>
       </c>
       <c r="O5" t="n">
-        <v>1.9778524178510164</v>
+        <v>3.581152684132977</v>
       </c>
     </row>
     <row r="6">
@@ -873,46 +873,46 @@
         <v>18</v>
       </c>
       <c r="B6" t="n">
-        <v>0.037314082815582454</v>
+        <v>5.740744654688627E-4</v>
       </c>
       <c r="C6" t="n">
-        <v>1.8416368995799601</v>
+        <v>3.4020838920899727</v>
       </c>
       <c r="D6" t="n">
-        <v>0.03731408281558247</v>
+        <v>5.740744654688634E-4</v>
       </c>
       <c r="E6" t="n">
-        <v>0.16410080358371898</v>
+        <v>0.0073035380798492045</v>
       </c>
       <c r="F6" t="n">
-        <v>18.0</v>
+        <v>35.0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03731408281558246</v>
+        <v>5.740744654688627E-4</v>
       </c>
       <c r="H6" t="n">
-        <v>0.48226176531027337</v>
+        <v>0.07557849535008587</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.044732943620548755</v>
+        <v>-1.4477282845871748</v>
       </c>
       <c r="J6" t="n">
-        <v>0.48226176531027337</v>
+        <v>0.07557849535008589</v>
       </c>
       <c r="K6" t="n">
-        <v>0.9978354451199991</v>
+        <v>0.9999971665566236</v>
       </c>
       <c r="L6" t="n">
-        <v>24.0</v>
+        <v>49.0</v>
       </c>
       <c r="M6" t="n">
-        <v>0.48226176531027337</v>
+        <v>0.07557849535008587</v>
       </c>
       <c r="N6" t="n">
-        <v>1.8416368995799601</v>
+        <v>3.4020838920899727</v>
       </c>
       <c r="O6" t="n">
-        <v>1.8416368995799601</v>
+        <v>3.4020838920899727</v>
       </c>
     </row>
     <row r="7">
@@ -920,46 +920,46 @@
         <v>19</v>
       </c>
       <c r="B7" t="n">
-        <v>0.042808905282709295</v>
+        <v>5.842830463879365E-4</v>
       </c>
       <c r="C7" t="n">
-        <v>1.7841303003271565</v>
+        <v>3.4712980108371707</v>
       </c>
       <c r="D7" t="n">
-        <v>0.042808905282709295</v>
+        <v>5.842830463879364E-4</v>
       </c>
       <c r="E7" t="n">
-        <v>0.16410080358371898</v>
+        <v>0.0073035380798492045</v>
       </c>
       <c r="F7" t="n">
-        <v>22.0</v>
+        <v>25.0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0428089052827093</v>
+        <v>5.842830463879366E-4</v>
       </c>
       <c r="H7" t="n">
-        <v>0.5350522385037293</v>
+        <v>0.1286156165535092</v>
       </c>
       <c r="I7" t="n">
-        <v>0.08954358024155014</v>
+        <v>-1.1759971386865222</v>
       </c>
       <c r="J7" t="n">
-        <v>0.5350522385037293</v>
+        <v>0.12861561655350917</v>
       </c>
       <c r="K7" t="n">
-        <v>0.9978354451199991</v>
+        <v>0.9999971665566236</v>
       </c>
       <c r="L7" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="M7" t="n">
-        <v>0.5350522385037293</v>
+        <v>0.1286156165535092</v>
       </c>
       <c r="N7" t="n">
-        <v>1.7841303003271565</v>
+        <v>3.4712980108371707</v>
       </c>
       <c r="O7" t="n">
-        <v>1.7841303003271565</v>
+        <v>3.4712980108371707</v>
       </c>
     </row>
     <row r="8">
@@ -967,46 +967,46 @@
         <v>20</v>
       </c>
       <c r="B8" t="n">
-        <v>0.05484425134342511</v>
+        <v>0.001196658141612077</v>
       </c>
       <c r="C8" t="n">
-        <v>1.6702894897038305</v>
+        <v>3.14128647746583</v>
       </c>
       <c r="D8" t="n">
-        <v>0.05484425134342511</v>
+        <v>0.0011966581416120758</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1802025401283968</v>
+        <v>0.012821337231557954</v>
       </c>
       <c r="F8" t="n">
-        <v>19.0</v>
+        <v>41.0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.05484425134342512</v>
+        <v>0.0011966581416120775</v>
       </c>
       <c r="H8" t="n">
-        <v>0.6193716905939924</v>
+        <v>0.13105378744335375</v>
       </c>
       <c r="I8" t="n">
-        <v>0.308502888989033</v>
+        <v>-1.1334208529818475</v>
       </c>
       <c r="J8" t="n">
-        <v>0.6193716905939924</v>
+        <v>0.13105378744335375</v>
       </c>
       <c r="K8" t="n">
-        <v>0.9978354451199991</v>
+        <v>0.9999971665566236</v>
       </c>
       <c r="L8" t="n">
-        <v>13.0</v>
+        <v>29.0</v>
       </c>
       <c r="M8" t="n">
-        <v>0.6193716905939924</v>
+        <v>0.13105378744335375</v>
       </c>
       <c r="N8" t="n">
-        <v>1.6702894897038305</v>
+        <v>3.14128647746583</v>
       </c>
       <c r="O8" t="n">
-        <v>1.6702894897038305</v>
+        <v>3.14128647746583</v>
       </c>
     </row>
     <row r="9">
@@ -1014,46 +1014,46 @@
         <v>21</v>
       </c>
       <c r="B9" t="n">
-        <v>0.08816813414505281</v>
+        <v>0.001880323260300986</v>
       </c>
       <c r="C9" t="n">
-        <v>1.3763647734065514</v>
+        <v>3.027248598828736</v>
       </c>
       <c r="D9" t="n">
-        <v>0.08816813414505278</v>
+        <v>0.0018803232603009827</v>
       </c>
       <c r="E9" t="n">
-        <v>0.24464731501973405</v>
+        <v>0.017628030565321712</v>
       </c>
       <c r="F9" t="n">
-        <v>23.0</v>
+        <v>29.0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.08816813414505283</v>
+        <v>0.0018803232603009856</v>
       </c>
       <c r="H9" t="n">
-        <v>0.7324064666441827</v>
+        <v>0.15615856386542362</v>
       </c>
       <c r="I9" t="n">
-        <v>0.6318445889406872</v>
+        <v>-1.026810840399498</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7324064666441827</v>
+        <v>0.15615856386542354</v>
       </c>
       <c r="K9" t="n">
-        <v>0.9978354451199991</v>
+        <v>0.9999971665566236</v>
       </c>
       <c r="L9" t="n">
-        <v>12.0</v>
+        <v>18.0</v>
       </c>
       <c r="M9" t="n">
-        <v>0.7324064666441827</v>
+        <v>0.15615856386542362</v>
       </c>
       <c r="N9" t="n">
-        <v>1.3763647734065514</v>
+        <v>3.027248598828736</v>
       </c>
       <c r="O9" t="n">
-        <v>1.3763647734065514</v>
+        <v>3.027248598828736</v>
       </c>
     </row>
     <row r="10">
@@ -1061,46 +1061,46 @@
         <v>22</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0997876162878468</v>
+        <v>0.004515704224588971</v>
       </c>
       <c r="C10" t="n">
-        <v>1.3104874140285687</v>
+        <v>2.738313036333773</v>
       </c>
       <c r="D10" t="n">
-        <v>0.09978761628784678</v>
+        <v>0.004515704224588979</v>
       </c>
       <c r="E10" t="n">
-        <v>0.24464731501973405</v>
+        <v>0.0376308685382415</v>
       </c>
       <c r="F10" t="n">
-        <v>19.0</v>
+        <v>22.0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0997876162878468</v>
+        <v>0.0045157042245889695</v>
       </c>
       <c r="H10" t="n">
-        <v>0.7484767000128747</v>
+        <v>0.15974747287546798</v>
       </c>
       <c r="I10" t="n">
-        <v>0.680503072040296</v>
+        <v>-1.0103869320772592</v>
       </c>
       <c r="J10" t="n">
-        <v>0.7484767000128747</v>
+        <v>0.15974747287546803</v>
       </c>
       <c r="K10" t="n">
-        <v>0.9978354451199991</v>
+        <v>0.9999971665566236</v>
       </c>
       <c r="L10" t="n">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="M10" t="n">
-        <v>0.7484767000128747</v>
+        <v>0.15974747287546798</v>
       </c>
       <c r="N10" t="n">
-        <v>1.3104874140285687</v>
+        <v>2.738313036333773</v>
       </c>
       <c r="O10" t="n">
-        <v>1.3104874140285687</v>
+        <v>2.738313036333773</v>
       </c>
     </row>
     <row r="11">
@@ -1108,46 +1108,46 @@
         <v>23</v>
       </c>
       <c r="B11" t="n">
-        <v>0.10636839783466699</v>
+        <v>0.0070097232517823006</v>
       </c>
       <c r="C11" t="n">
-        <v>1.2801214812305886</v>
+        <v>2.663388811515895</v>
       </c>
       <c r="D11" t="n">
-        <v>0.10636839783466699</v>
+        <v>0.007009723251782313</v>
       </c>
       <c r="E11" t="n">
-        <v>0.24464731501973405</v>
+        <v>0.052572924388367345</v>
       </c>
       <c r="F11" t="n">
-        <v>15.0</v>
+        <v>14.0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.10636839783466698</v>
+        <v>0.007009723251782299</v>
       </c>
       <c r="H11" t="n">
-        <v>0.7678530028156347</v>
+        <v>0.19899523707106884</v>
       </c>
       <c r="I11" t="n">
-        <v>0.7384739204100852</v>
+        <v>-0.8562084577473522</v>
       </c>
       <c r="J11" t="n">
-        <v>0.7678530028156347</v>
+        <v>0.19899523707106886</v>
       </c>
       <c r="K11" t="n">
-        <v>0.9978354451199991</v>
+        <v>0.9999971665566236</v>
       </c>
       <c r="L11" t="n">
-        <v>23.0</v>
+        <v>20.0</v>
       </c>
       <c r="M11" t="n">
-        <v>0.7678530028156347</v>
+        <v>0.19899523707106886</v>
       </c>
       <c r="N11" t="n">
-        <v>1.2801214812305886</v>
+        <v>2.663388811515895</v>
       </c>
       <c r="O11" t="n">
-        <v>1.2801214812305886</v>
+        <v>2.663388811515895</v>
       </c>
     </row>
     <row r="12">
@@ -1155,46 +1155,46 @@
         <v>24</v>
       </c>
       <c r="B12" t="n">
-        <v>0.15006216779187379</v>
+        <v>0.008709696340773341</v>
       </c>
       <c r="C12" t="n">
-        <v>1.0539159720547253</v>
+        <v>2.4387919150153294</v>
       </c>
       <c r="D12" t="n">
-        <v>0.15006216779187373</v>
+        <v>0.008709696340773346</v>
       </c>
       <c r="E12" t="n">
-        <v>0.31376635083755416</v>
+        <v>0.05938429323254554</v>
       </c>
       <c r="F12" t="n">
-        <v>19.0</v>
+        <v>35.0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.15006216779187379</v>
+        <v>0.008709696340773341</v>
       </c>
       <c r="H12" t="n">
-        <v>0.7800503458721973</v>
+        <v>0.22182225960968568</v>
       </c>
       <c r="I12" t="n">
-        <v>0.7811795185608702</v>
+        <v>-0.7815739655210661</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7800503458721972</v>
+        <v>0.22182225960968568</v>
       </c>
       <c r="K12" t="n">
-        <v>0.9978354451199991</v>
+        <v>0.9999971665566236</v>
       </c>
       <c r="L12" t="n">
-        <v>21.0</v>
+        <v>13.0</v>
       </c>
       <c r="M12" t="n">
-        <v>0.7800503458721973</v>
+        <v>0.22182225960968566</v>
       </c>
       <c r="N12" t="n">
-        <v>1.0539159720547253</v>
+        <v>2.4387919150153294</v>
       </c>
       <c r="O12" t="n">
-        <v>1.0539159720547253</v>
+        <v>2.4387919150153294</v>
       </c>
     </row>
     <row r="13">
@@ -1202,46 +1202,46 @@
         <v>25</v>
       </c>
       <c r="B13" t="n">
-        <v>0.17170905200785164</v>
+        <v>0.011672732139069397</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9599193709364058</v>
+        <v>2.3323008803174647</v>
       </c>
       <c r="D13" t="n">
-        <v>0.17170905200785153</v>
+        <v>0.011672732139069419</v>
       </c>
       <c r="E13" t="n">
-        <v>0.3291090163483821</v>
+        <v>0.07295457586918387</v>
       </c>
       <c r="F13" t="n">
-        <v>20.0</v>
+        <v>29.0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.17170905200785164</v>
+        <v>0.011672732139069398</v>
       </c>
       <c r="H13" t="n">
-        <v>0.8282909479921483</v>
+        <v>0.23819172171484834</v>
       </c>
       <c r="I13" t="n">
-        <v>0.9599193709364058</v>
+        <v>-0.7196756552804539</v>
       </c>
       <c r="J13" t="n">
-        <v>0.8282909479921483</v>
+        <v>0.23819172171484837</v>
       </c>
       <c r="K13" t="n">
-        <v>0.9978354451199991</v>
+        <v>0.9999971665566236</v>
       </c>
       <c r="L13" t="n">
         <v>20.0</v>
       </c>
       <c r="M13" t="n">
-        <v>0.8282909479921483</v>
+        <v>0.23819172171484837</v>
       </c>
       <c r="N13" t="n">
-        <v>0.9599193709364058</v>
+        <v>2.3323008803174647</v>
       </c>
       <c r="O13" t="n">
-        <v>0.9599193709364058</v>
+        <v>2.3323008803174647</v>
       </c>
     </row>
     <row r="14">
@@ -1249,46 +1249,46 @@
         <v>26</v>
       </c>
       <c r="B14" t="n">
-        <v>0.21994965412780265</v>
+        <v>0.021378141274964013</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7811795185608702</v>
+        <v>2.0833282929605828</v>
       </c>
       <c r="D14" t="n">
-        <v>0.2199496541278027</v>
+        <v>0.02137814127496405</v>
       </c>
       <c r="E14" t="n">
-        <v>0.3813843525171715</v>
+        <v>0.11583319158030235</v>
       </c>
       <c r="F14" t="n">
-        <v>21.0</v>
+        <v>26.0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.21994965412780265</v>
+        <v>0.02137814127496401</v>
       </c>
       <c r="H14" t="n">
-        <v>0.8499378322081262</v>
+        <v>0.2397228867217693</v>
       </c>
       <c r="I14" t="n">
-        <v>1.0539159720547253</v>
+        <v>-0.713348145511928</v>
       </c>
       <c r="J14" t="n">
-        <v>0.8499378322081262</v>
+        <v>0.23972288672176917</v>
       </c>
       <c r="K14" t="n">
-        <v>0.9978354451199991</v>
+        <v>0.9999971665566236</v>
       </c>
       <c r="L14" t="n">
-        <v>19.0</v>
+        <v>24.0</v>
       </c>
       <c r="M14" t="n">
-        <v>0.8499378322081262</v>
+        <v>0.23972288672176928</v>
       </c>
       <c r="N14" t="n">
-        <v>0.7811795185608702</v>
+        <v>2.0833282929605828</v>
       </c>
       <c r="O14" t="n">
-        <v>0.7811795185608702</v>
+        <v>2.0833282929605828</v>
       </c>
     </row>
     <row r="15">
@@ -1296,46 +1296,46 @@
         <v>27</v>
       </c>
       <c r="B15" t="n">
-        <v>0.23214699718436524</v>
+        <v>0.02162219576165643</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7384739204100852</v>
+        <v>2.0979048758747694</v>
       </c>
       <c r="D15" t="n">
-        <v>0.23214699718436527</v>
+        <v>0.02162219576165644</v>
       </c>
       <c r="E15" t="n">
-        <v>0.3813843525171715</v>
+        <v>0.11583319158030235</v>
       </c>
       <c r="F15" t="n">
-        <v>23.0</v>
+        <v>19.0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2321469971843652</v>
+        <v>0.021622195761656426</v>
       </c>
       <c r="H15" t="n">
-        <v>0.893631602165333</v>
+        <v>0.2956196041001026</v>
       </c>
       <c r="I15" t="n">
-        <v>1.2801214812305886</v>
+        <v>-0.5450529429653002</v>
       </c>
       <c r="J15" t="n">
-        <v>0.893631602165333</v>
+        <v>0.2956196041001026</v>
       </c>
       <c r="K15" t="n">
-        <v>0.9978354451199991</v>
+        <v>0.9999971665566236</v>
       </c>
       <c r="L15" t="n">
-        <v>15.0</v>
+        <v>12.0</v>
       </c>
       <c r="M15" t="n">
-        <v>0.893631602165333</v>
+        <v>0.2956196041001026</v>
       </c>
       <c r="N15" t="n">
-        <v>0.7384739204100852</v>
+        <v>2.0979048758747694</v>
       </c>
       <c r="O15" t="n">
-        <v>0.7384739204100852</v>
+        <v>2.0979048758747694</v>
       </c>
     </row>
     <row r="16">
@@ -1343,46 +1343,46 @@
         <v>28</v>
       </c>
       <c r="B16" t="n">
-        <v>0.25152329998712525</v>
+        <v>0.028432778877787432</v>
       </c>
       <c r="C16" t="n">
-        <v>0.680503072040296</v>
+        <v>1.9495073598192059</v>
       </c>
       <c r="D16" t="n">
-        <v>0.25152329998712525</v>
+        <v>0.02843277887778744</v>
       </c>
       <c r="E16" t="n">
-        <v>0.3846657041989873</v>
+        <v>0.13370024382084397</v>
       </c>
       <c r="F16" t="n">
-        <v>17.0</v>
+        <v>27.0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.25152329998712525</v>
+        <v>0.02843277887778744</v>
       </c>
       <c r="H16" t="n">
-        <v>0.9002123837121532</v>
+        <v>0.32214916085764084</v>
       </c>
       <c r="I16" t="n">
-        <v>1.3104874140285687</v>
+        <v>-0.4652317305469343</v>
       </c>
       <c r="J16" t="n">
-        <v>0.9002123837121532</v>
+        <v>0.3221491608576409</v>
       </c>
       <c r="K16" t="n">
-        <v>0.9978354451199991</v>
+        <v>0.9999971665566236</v>
       </c>
       <c r="L16" t="n">
-        <v>19.0</v>
+        <v>22.0</v>
       </c>
       <c r="M16" t="n">
-        <v>0.9002123837121532</v>
+        <v>0.3221491608576409</v>
       </c>
       <c r="N16" t="n">
-        <v>0.680503072040296</v>
+        <v>1.9495073598192059</v>
       </c>
       <c r="O16" t="n">
-        <v>0.680503072040296</v>
+        <v>1.9495073598192059</v>
       </c>
     </row>
     <row r="17">
@@ -1390,46 +1390,46 @@
         <v>29</v>
       </c>
       <c r="B17" t="n">
-        <v>0.26759353335581726</v>
+        <v>0.029915734606989285</v>
       </c>
       <c r="C17" t="n">
-        <v>0.6318445889406872</v>
+        <v>1.908033070554448</v>
       </c>
       <c r="D17" t="n">
-        <v>0.26759353335581726</v>
+        <v>0.02991573460698928</v>
       </c>
       <c r="E17" t="n">
-        <v>0.3846657041989873</v>
+        <v>0.13370024382084397</v>
       </c>
       <c r="F17" t="n">
-        <v>12.0</v>
+        <v>43.0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.26759353335581726</v>
+        <v>0.029915734606989288</v>
       </c>
       <c r="H17" t="n">
-        <v>0.9118318658549471</v>
+        <v>0.32314360449938606</v>
       </c>
       <c r="I17" t="n">
-        <v>1.3763647734065514</v>
+        <v>-0.4636064705261228</v>
       </c>
       <c r="J17" t="n">
-        <v>0.9118318658549471</v>
+        <v>0.32314360449938606</v>
       </c>
       <c r="K17" t="n">
-        <v>0.9978354451199991</v>
+        <v>0.9999971665566236</v>
       </c>
       <c r="L17" t="n">
-        <v>23.0</v>
+        <v>17.0</v>
       </c>
       <c r="M17" t="n">
-        <v>0.9118318658549471</v>
+        <v>0.32314360449938606</v>
       </c>
       <c r="N17" t="n">
-        <v>0.6318445889406872</v>
+        <v>1.908033070554448</v>
       </c>
       <c r="O17" t="n">
-        <v>0.6318445889406872</v>
+        <v>1.908033070554448</v>
       </c>
     </row>
     <row r="18">
@@ -1437,46 +1437,46 @@
         <v>30</v>
       </c>
       <c r="B18" t="n">
-        <v>0.38062830940600756</v>
+        <v>0.03041585715540295</v>
       </c>
       <c r="C18" t="n">
-        <v>0.308502888989033</v>
+        <v>2.0334454463007203</v>
       </c>
       <c r="D18" t="n">
-        <v>0.38062830940600756</v>
+        <v>0.03041585715540296</v>
       </c>
       <c r="E18" t="n">
-        <v>0.514967712725775</v>
+        <v>0.13370024382084397</v>
       </c>
       <c r="F18" t="n">
         <v>13.0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.38062830940600756</v>
+        <v>0.030415857155402952</v>
       </c>
       <c r="H18" t="n">
-        <v>0.9451557486565749</v>
+        <v>0.32396726647078333</v>
       </c>
       <c r="I18" t="n">
-        <v>1.6702894897038305</v>
+        <v>-0.46188006731213244</v>
       </c>
       <c r="J18" t="n">
-        <v>0.9451557486565749</v>
+        <v>0.32396726647078344</v>
       </c>
       <c r="K18" t="n">
-        <v>0.9978354451199991</v>
+        <v>0.9999971665566236</v>
       </c>
       <c r="L18" t="n">
-        <v>19.0</v>
+        <v>15.0</v>
       </c>
       <c r="M18" t="n">
-        <v>0.9451557486565749</v>
+        <v>0.32396726647078333</v>
       </c>
       <c r="N18" t="n">
-        <v>0.308502888989033</v>
+        <v>2.0334454463007203</v>
       </c>
       <c r="O18" t="n">
-        <v>0.308502888989033</v>
+        <v>2.0334454463007203</v>
       </c>
     </row>
     <row r="19">
@@ -1484,46 +1484,46 @@
         <v>31</v>
       </c>
       <c r="B19" t="n">
-        <v>0.46494776149627076</v>
+        <v>0.03378422614137878</v>
       </c>
       <c r="C19" t="n">
-        <v>0.08954358024155014</v>
+        <v>1.902921612466633</v>
       </c>
       <c r="D19" t="n">
-        <v>0.46494776149627076</v>
+        <v>0.03378422614137879</v>
       </c>
       <c r="E19" t="n">
-        <v>0.594099917467457</v>
+        <v>0.13370024382084397</v>
       </c>
       <c r="F19" t="n">
-        <v>10.0</v>
+        <v>18.0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.46494776149627076</v>
+        <v>0.033784226141378784</v>
       </c>
       <c r="H19" t="n">
-        <v>0.9571910947172907</v>
+        <v>0.3325714798654749</v>
       </c>
       <c r="I19" t="n">
-        <v>1.7841303003271565</v>
+        <v>-0.43577287685023397</v>
       </c>
       <c r="J19" t="n">
-        <v>0.9571910947172907</v>
+        <v>0.33257147986547486</v>
       </c>
       <c r="K19" t="n">
-        <v>0.9978354451199991</v>
+        <v>0.9999971665566236</v>
       </c>
       <c r="L19" t="n">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="M19" t="n">
-        <v>0.9571910947172907</v>
+        <v>0.33257147986547486</v>
       </c>
       <c r="N19" t="n">
-        <v>0.08954358024155014</v>
+        <v>1.902921612466633</v>
       </c>
       <c r="O19" t="n">
-        <v>0.08954358024155014</v>
+        <v>1.902921612466633</v>
       </c>
     </row>
     <row r="20">
@@ -1531,46 +1531,46 @@
         <v>32</v>
       </c>
       <c r="B20" t="n">
-        <v>0.5177382346897266</v>
+        <v>0.03387072843461379</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.044732943620548755</v>
+        <v>1.8532526699878462</v>
       </c>
       <c r="D20" t="n">
-        <v>0.5177382346897266</v>
+        <v>0.033870728434613806</v>
       </c>
       <c r="E20" t="n">
-        <v>0.6267357577823006</v>
+        <v>0.13370024382084397</v>
       </c>
       <c r="F20" t="n">
-        <v>24.0</v>
+        <v>39.0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5177382346897266</v>
+        <v>0.0338707284346138</v>
       </c>
       <c r="H20" t="n">
-        <v>0.9626859171844175</v>
+        <v>0.381190039861578</v>
       </c>
       <c r="I20" t="n">
-        <v>1.8416368995799601</v>
+        <v>-0.3043380773008904</v>
       </c>
       <c r="J20" t="n">
-        <v>0.9626859171844175</v>
+        <v>0.381190039861578</v>
       </c>
       <c r="K20" t="n">
-        <v>0.9978354451199991</v>
+        <v>0.9999971665566236</v>
       </c>
       <c r="L20" t="n">
-        <v>18.0</v>
+        <v>22.0</v>
       </c>
       <c r="M20" t="n">
-        <v>0.9626859171844175</v>
+        <v>0.381190039861578</v>
       </c>
       <c r="N20" t="n">
-        <v>-0.044732943620548755</v>
+        <v>1.8532526699878462</v>
       </c>
       <c r="O20" t="n">
-        <v>-0.044732943620548755</v>
+        <v>1.8532526699878462</v>
       </c>
     </row>
     <row r="21">
@@ -1578,46 +1578,46 @@
         <v>33</v>
       </c>
       <c r="B21" t="n">
-        <v>0.6053999489973244</v>
+        <v>0.04169080547709689</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.2710962820511405</v>
+        <v>1.853316693636629</v>
       </c>
       <c r="D21" t="n">
-        <v>0.6053999489973244</v>
+        <v>0.0416908054770969</v>
       </c>
       <c r="E21" t="n">
-        <v>0.6560966485083547</v>
+        <v>0.15634052053911338</v>
       </c>
       <c r="F21" t="n">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.6053999489973244</v>
+        <v>0.04169080547709688</v>
       </c>
       <c r="H21" t="n">
-        <v>0.9736842369446947</v>
+        <v>0.40237763985984865</v>
       </c>
       <c r="I21" t="n">
-        <v>1.9778524178510164</v>
+        <v>-0.24921750931820985</v>
       </c>
       <c r="J21" t="n">
-        <v>0.9736842369446947</v>
+        <v>0.40237763985984865</v>
       </c>
       <c r="K21" t="n">
-        <v>0.9978354451199991</v>
+        <v>0.9999971665566236</v>
       </c>
       <c r="L21" t="n">
-        <v>35.0</v>
+        <v>18.0</v>
       </c>
       <c r="M21" t="n">
-        <v>0.9736842369446947</v>
+        <v>0.40237763985984865</v>
       </c>
       <c r="N21" t="n">
-        <v>-0.2710962820511405</v>
+        <v>1.853316693636629</v>
       </c>
       <c r="O21" t="n">
-        <v>-0.2710962820511405</v>
+        <v>1.853316693636629</v>
       </c>
     </row>
     <row r="22">
@@ -1625,46 +1625,46 @@
         <v>34</v>
       </c>
       <c r="B22" t="n">
-        <v>0.6087824977034771</v>
+        <v>0.056243555127652785</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.27819194446017453</v>
+        <v>1.6314455165487978</v>
       </c>
       <c r="D22" t="n">
-        <v>0.6087824977034771</v>
+        <v>0.05624355512765281</v>
       </c>
       <c r="E22" t="n">
-        <v>0.6560966485083547</v>
+        <v>0.2008698397416172</v>
       </c>
       <c r="F22" t="n">
         <v>20.0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6087824977034771</v>
+        <v>0.056243555127652785</v>
       </c>
       <c r="H22" t="n">
-        <v>0.979636193308193</v>
+        <v>0.4173000639007685</v>
       </c>
       <c r="I22" t="n">
-        <v>2.1384494771989684</v>
+        <v>-0.21129810510703778</v>
       </c>
       <c r="J22" t="n">
-        <v>0.979636193308193</v>
+        <v>0.4173000639007685</v>
       </c>
       <c r="K22" t="n">
-        <v>0.9978354451199991</v>
+        <v>0.9999971665566236</v>
       </c>
       <c r="L22" t="n">
-        <v>18.0</v>
+        <v>12.0</v>
       </c>
       <c r="M22" t="n">
-        <v>0.979636193308193</v>
+        <v>0.4173000639007685</v>
       </c>
       <c r="N22" t="n">
-        <v>-0.27819194446017453</v>
+        <v>1.6314455165487978</v>
       </c>
       <c r="O22" t="n">
-        <v>-0.27819194446017453</v>
+        <v>1.6314455165487978</v>
       </c>
     </row>
     <row r="23">
@@ -1672,46 +1672,46 @@
         <v>35</v>
       </c>
       <c r="B23" t="n">
-        <v>0.627570707268861</v>
+        <v>0.06039823278627834</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.32740323820712386</v>
+        <v>1.5881529707199629</v>
       </c>
       <c r="D23" t="n">
-        <v>0.627570707268861</v>
+        <v>0.06039823278627832</v>
       </c>
       <c r="E23" t="n">
-        <v>0.6560966485083547</v>
+        <v>0.20590306631685792</v>
       </c>
       <c r="F23" t="n">
-        <v>24.0</v>
+        <v>20.0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.627570707268861</v>
+        <v>0.06039823278627834</v>
       </c>
       <c r="H23" t="n">
-        <v>0.9944019190868573</v>
+        <v>0.44019745132998567</v>
       </c>
       <c r="I23" t="n">
-        <v>2.6601620786840297</v>
+        <v>-0.15190165061330735</v>
       </c>
       <c r="J23" t="n">
-        <v>0.9944019190868573</v>
+        <v>0.44019745132998567</v>
       </c>
       <c r="K23" t="n">
-        <v>0.9978354451199991</v>
+        <v>0.9999971665566236</v>
       </c>
       <c r="L23" t="n">
-        <v>24.0</v>
+        <v>15.0</v>
       </c>
       <c r="M23" t="n">
-        <v>0.9944019190868573</v>
+        <v>0.44019745132998567</v>
       </c>
       <c r="N23" t="n">
-        <v>-0.32740323820712386</v>
+        <v>1.5881529707199629</v>
       </c>
       <c r="O23" t="n">
-        <v>-0.32740323820712386</v>
+        <v>1.5881529707199629</v>
       </c>
     </row>
     <row r="24">
@@ -1719,2490 +1719,2490 @@
         <v>36</v>
       </c>
       <c r="B24" t="n">
-        <v>0.7575808531591519</v>
+        <v>0.06369053924465683</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.706771790220182</v>
+        <v>1.6362528118838473</v>
       </c>
       <c r="D24" t="n">
-        <v>0.7575808531591519</v>
+        <v>0.06369053924465685</v>
       </c>
       <c r="E24" t="n">
-        <v>0.7575808531591519</v>
+        <v>0.20768654101518538</v>
       </c>
       <c r="F24" t="n">
-        <v>17.0</v>
+        <v>11.0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.7575808531591519</v>
+        <v>0.06369053924465683</v>
       </c>
       <c r="H24" t="n">
-        <v>0.9978354451199991</v>
+        <v>0.44662979566769967</v>
       </c>
       <c r="I24" t="n">
-        <v>2.974182281735053</v>
+        <v>-0.13615323944246488</v>
       </c>
       <c r="J24" t="n">
-        <v>0.9978354451199991</v>
+        <v>0.44662979566769967</v>
       </c>
       <c r="K24" t="n">
-        <v>0.9978354451199991</v>
+        <v>0.9999971665566236</v>
       </c>
       <c r="L24" t="n">
-        <v>38.0</v>
+        <v>10.0</v>
       </c>
       <c r="M24" t="n">
-        <v>0.9978354451199991</v>
+        <v>0.44662979566769967</v>
       </c>
       <c r="N24" t="n">
-        <v>-0.706771790220182</v>
+        <v>1.6362528118838473</v>
       </c>
       <c r="O24" t="n">
-        <v>-0.706771790220182</v>
+        <v>1.6362528118838473</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
         <v>37</v>
       </c>
-      <c r="B25" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C25" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D25" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E25" t="e">
-        <v>#N/A</v>
+      <c r="B25" t="n">
+        <v>0.07093183713703165</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.5163256382803236</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.0709318371370317</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.22166199105322407</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G25" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H25" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I25" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J25" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K25" t="e">
-        <v>#N/A</v>
+        <v>14.0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.07093183713703166</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.44674431309503165</v>
+      </c>
+      <c r="I25" t="n">
+        <v>-0.13522066599733867</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.44674431309503165</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.9999971665566236</v>
       </c>
       <c r="L25" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M25" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="N25" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O25" t="e">
-        <v>#N/A</v>
+        <v>14.0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.44674431309503165</v>
+      </c>
+      <c r="N25" t="n">
+        <v>1.5163256382803236</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1.5163256382803236</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
         <v>38</v>
       </c>
-      <c r="B26" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C26" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D26" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E26" t="e">
-        <v>#N/A</v>
+      <c r="B26" t="n">
+        <v>0.10728695831454924</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1.2481643817437542</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.10728695831454926</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.3218608749436478</v>
       </c>
       <c r="F26" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="G26" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H26" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I26" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J26" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K26" t="e">
-        <v>#N/A</v>
+        <v>57.0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.10728695831454925</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.46832522045969116</v>
+      </c>
+      <c r="I26" t="n">
+        <v>-0.07992628720569393</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.46832522045969116</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.9999971665566236</v>
       </c>
       <c r="L26" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="M26" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="N26" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O26" t="e">
-        <v>#N/A</v>
+        <v>27.0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.46832522045969116</v>
+      </c>
+      <c r="N26" t="n">
+        <v>1.2481643817437542</v>
+      </c>
+      <c r="O26" t="n">
+        <v>1.2481643817437542</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
         <v>39</v>
       </c>
-      <c r="B27" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C27" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D27" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E27" t="e">
-        <v>#N/A</v>
+      <c r="B27" t="n">
+        <v>0.1436012794945379</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1.077985423213834</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.1436012794945379</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.4142344600803978</v>
       </c>
       <c r="F27" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G27" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H27" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I27" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J27" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K27" t="e">
-        <v>#N/A</v>
+        <v>22.0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.1436012794945379</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.4724503916715563</v>
+      </c>
+      <c r="I27" t="n">
+        <v>-0.06982530221861719</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.4724503916715563</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.9999971665566236</v>
       </c>
       <c r="L27" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M27" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="N27" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O27" t="e">
-        <v>#N/A</v>
+        <v>14.0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.4724503916715563</v>
+      </c>
+      <c r="N27" t="n">
+        <v>1.077985423213834</v>
+      </c>
+      <c r="O27" t="n">
+        <v>1.077985423213834</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
         <v>40</v>
       </c>
-      <c r="B28" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C28" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D28" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E28" t="e">
-        <v>#N/A</v>
+      <c r="B28" t="n">
+        <v>0.17196880404271525</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.9792376933019011</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.17196880404271528</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.43432884123019366</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G28" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H28" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I28" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J28" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K28" t="e">
-        <v>#N/A</v>
+        <v>10.0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.17196880404271525</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.47665863868611835</v>
+      </c>
+      <c r="I28" t="n">
+        <v>-0.059070182585346555</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.47665863868611835</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.9999971665566236</v>
       </c>
       <c r="L28" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M28" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="N28" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O28" t="e">
-        <v>#N/A</v>
+        <v>15.0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.47665863868611835</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.9792376933019011</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0.9792376933019011</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
         <v>41</v>
       </c>
-      <c r="B29" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C29" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D29" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E29" t="e">
-        <v>#N/A</v>
+      <c r="B29" t="n">
+        <v>0.17200329530767217</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.9562009571609199</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.17200329530767228</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.43432884123019366</v>
       </c>
       <c r="F29" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="G29" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H29" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I29" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J29" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K29" t="e">
-        <v>#N/A</v>
+        <v>24.0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.17200329530767217</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.5784367100205385</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.19986169773664664</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.5784367100205385</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.9999971665566236</v>
       </c>
       <c r="L29" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="M29" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="N29" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O29" t="e">
-        <v>#N/A</v>
+        <v>15.0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.5784367100205385</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.9562009571609199</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0.9562009571609199</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
         <v>42</v>
       </c>
-      <c r="B30" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C30" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D30" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E30" t="e">
-        <v>#N/A</v>
+      <c r="B30" t="n">
+        <v>0.1733668670706468</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.9692188018919372</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.17336686707064689</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.43432884123019366</v>
       </c>
       <c r="F30" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G30" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H30" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I30" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J30" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K30" t="e">
-        <v>#N/A</v>
+        <v>17.0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.1733668670706468</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.5885764987934768</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.22718150263107775</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.5885764987934768</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.9999971665566236</v>
       </c>
       <c r="L30" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="M30" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="N30" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O30" t="e">
-        <v>#N/A</v>
+        <v>11.0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.5885764987934768</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.9692188018919372</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0.9692188018919372</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
         <v>43</v>
       </c>
-      <c r="B31" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C31" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D31" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E31" t="e">
-        <v>#N/A</v>
+      <c r="B31" t="n">
+        <v>0.1785073262599677</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.9354754696008464</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.1785073262599677</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.43432884123019366</v>
       </c>
       <c r="F31" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G31" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H31" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I31" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J31" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K31" t="e">
-        <v>#N/A</v>
+        <v>16.0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.17850732625996768</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.5903475513955482</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.22889662717288958</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.5903475513955482</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.9999971665566236</v>
       </c>
       <c r="L31" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="M31" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="N31" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O31" t="e">
-        <v>#N/A</v>
+        <v>67.0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0.5903475513955482</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.9354754696008464</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0.9354754696008464</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
         <v>44</v>
       </c>
-      <c r="B32" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C32" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D32" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E32" t="e">
-        <v>#N/A</v>
+      <c r="B32" t="n">
+        <v>0.1795225877084801</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.9497901653124673</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.17952258770848004</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.43432884123019366</v>
       </c>
       <c r="F32" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="G32" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H32" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I32" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J32" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K32" t="e">
-        <v>#N/A</v>
+        <v>11.0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.17952258770848006</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.6017597182581793</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.2608981520276447</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.6017597182581793</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.9999971665566236</v>
       </c>
       <c r="L32" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="M32" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="N32" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O32" t="e">
-        <v>#N/A</v>
+        <v>16.0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0.6017597182581793</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.9497901653124673</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0.9497901653124673</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
         <v>45</v>
       </c>
-      <c r="B33" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C33" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D33" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E33" t="e">
-        <v>#N/A</v>
+      <c r="B33" t="n">
+        <v>0.19363791460803254</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.8750175197106947</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.19363791460803254</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.4467642415890419</v>
       </c>
       <c r="F33" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="G33" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H33" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I33" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J33" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K33" t="e">
-        <v>#N/A</v>
+        <v>20.0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.19363791460803254</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.6030470399951312</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.2644616135765607</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.6030470399951312</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.9999971665566236</v>
       </c>
       <c r="L33" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="M33" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="N33" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O33" t="e">
-        <v>#N/A</v>
+        <v>13.0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.6030470399951312</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.8750175197106947</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0.8750175197106947</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
         <v>46</v>
       </c>
-      <c r="B34" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C34" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D34" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E34" t="e">
-        <v>#N/A</v>
+      <c r="B34" t="n">
+        <v>0.2050497893938883</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.8274727197874359</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.20504978939388827</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.4467642415890419</v>
       </c>
       <c r="F34" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="G34" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H34" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I34" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J34" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K34" t="e">
-        <v>#N/A</v>
+        <v>48.0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.2050497893938883</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.6250852597812345</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0.32337783940952614</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.6250852597812345</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.9999971665566236</v>
       </c>
       <c r="L34" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="M34" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="N34" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O34" t="e">
-        <v>#N/A</v>
+        <v>11.0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0.6250852597812345</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0.8274727197874359</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0.8274727197874359</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
         <v>47</v>
       </c>
-      <c r="B35" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C35" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D35" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E35" t="e">
-        <v>#N/A</v>
+      <c r="B35" t="n">
+        <v>0.20809470477434336</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.8159529013813918</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.20809470477434336</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.4467642415890419</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G35" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H35" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I35" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J35" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K35" t="e">
-        <v>#N/A</v>
+        <v>60.0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.20809470477434333</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.6251117754860085</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.32296112272846106</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.6251117754860085</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.9999971665566236</v>
       </c>
       <c r="L35" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M35" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="N35" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O35" t="e">
-        <v>#N/A</v>
+        <v>12.0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.6251117754860085</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.8159529013813918</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0.8159529013813918</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
         <v>48</v>
       </c>
-      <c r="B36" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C36" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D36" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E36" t="e">
-        <v>#N/A</v>
+      <c r="B36" t="n">
+        <v>0.21318452502076618</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.80330239404821</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.21318452502076624</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.4467642415890419</v>
       </c>
       <c r="F36" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="G36" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H36" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I36" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J36" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K36" t="e">
-        <v>#N/A</v>
+        <v>24.0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.21318452502076618</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.6837396140702913</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0.4818782739486171</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.6837396140702912</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.9999971665566236</v>
       </c>
       <c r="L36" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="M36" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="N36" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O36" t="e">
-        <v>#N/A</v>
+        <v>25.0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.6837396140702913</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0.80330239404821</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0.80330239404821</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
         <v>49</v>
       </c>
-      <c r="B37" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C37" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D37" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E37" t="e">
-        <v>#N/A</v>
+      <c r="B37" t="n">
+        <v>0.2144468359627401</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.7993924702807661</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.21444683596274008</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.4467642415890419</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G37" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H37" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I37" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J37" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K37" t="e">
-        <v>#N/A</v>
+        <v>23.0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.2144468359627401</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.6888954978970564</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0.495201314597719</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.6888954978970564</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.9999971665566236</v>
       </c>
       <c r="L37" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M37" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="N37" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O37" t="e">
-        <v>#N/A</v>
+        <v>32.0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.6888954978970564</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.7993924702807661</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0.7993924702807661</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
         <v>50</v>
       </c>
-      <c r="B38" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C38" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D38" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E38" t="e">
-        <v>#N/A</v>
+      <c r="B38" t="n">
+        <v>0.24458733587689543</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.7026122565322117</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.24458733587689532</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.49578514029100407</v>
       </c>
       <c r="F38" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="G38" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H38" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I38" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J38" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K38" t="e">
-        <v>#N/A</v>
+        <v>13.0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.2445873358768954</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.7305457626532275</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0.6195648260997421</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.7305457626532275</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.9999971665566236</v>
       </c>
       <c r="L38" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="M38" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="N38" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O38" t="e">
-        <v>#N/A</v>
+        <v>22.0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.7305457626532275</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.7026122565322117</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0.7026122565322117</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
         <v>51</v>
       </c>
-      <c r="B39" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C39" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D39" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E39" t="e">
-        <v>#N/A</v>
+      <c r="B39" t="n">
+        <v>0.2536101367717111</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.6766963858264858</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.2536101367717112</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.5005463225757457</v>
       </c>
       <c r="F39" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="G39" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H39" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I39" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J39" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K39" t="e">
-        <v>#N/A</v>
+        <v>12.0</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.2536101367717111</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.7463898632282888</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0.6766963858264858</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.7463898632282888</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.9999971665566236</v>
       </c>
       <c r="L39" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="M39" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="N39" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O39" t="e">
-        <v>#N/A</v>
+        <v>12.0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.7463898632282888</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.6766963858264858</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0.6766963858264858</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
         <v>52</v>
       </c>
-      <c r="B40" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C40" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D40" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E40" t="e">
-        <v>#N/A</v>
+      <c r="B40" t="n">
+        <v>0.2694542373467725</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.6195648260997421</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.26945423734677243</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.5181812256668701</v>
       </c>
       <c r="F40" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G40" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H40" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I40" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J40" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K40" t="e">
-        <v>#N/A</v>
+        <v>22.0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.2694542373467725</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.7554126641231046</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0.7026122565322117</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.7554126641231047</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.9999971665566236</v>
       </c>
       <c r="L40" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="M40" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="N40" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O40" t="e">
-        <v>#N/A</v>
+        <v>13.0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0.7554126641231046</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0.6195648260997421</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0.6195648260997421</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
         <v>53</v>
       </c>
-      <c r="B41" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C41" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D41" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E41" t="e">
-        <v>#N/A</v>
+      <c r="B41" t="n">
+        <v>0.31110450210294355</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.495201314597719</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.3111045021029436</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.578525096212882</v>
       </c>
       <c r="F41" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="G41" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H41" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I41" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J41" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K41" t="e">
-        <v>#N/A</v>
+        <v>32.0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.3111045021029436</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.7855531640372599</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0.7993924702807661</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.7855531640372599</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0.9999971665566236</v>
       </c>
       <c r="L41" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="M41" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="N41" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O41" t="e">
-        <v>#N/A</v>
+        <v>23.0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0.7855531640372599</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0.495201314597719</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0.495201314597719</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
         <v>54</v>
       </c>
-      <c r="B42" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C42" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D42" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E42" t="e">
-        <v>#N/A</v>
+      <c r="B42" t="n">
+        <v>0.31626038592970873</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.4818782739486171</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.3162603859297088</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.578525096212882</v>
       </c>
       <c r="F42" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="G42" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H42" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I42" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J42" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K42" t="e">
-        <v>#N/A</v>
+        <v>25.0</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.31626038592970873</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.7868154749792338</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0.80330239404821</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0.7868154749792339</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.9999971665566236</v>
       </c>
       <c r="L42" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="M42" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="N42" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O42" t="e">
-        <v>#N/A</v>
+        <v>24.0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0.7868154749792338</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0.4818782739486171</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0.4818782739486171</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
         <v>55</v>
       </c>
-      <c r="B43" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C43" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D43" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E43" t="e">
-        <v>#N/A</v>
+      <c r="B43" t="n">
+        <v>0.37488822451399145</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0.32296112272846106</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.37488822451399145</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.6539210585211026</v>
       </c>
       <c r="F43" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="G43" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H43" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I43" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J43" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K43" t="e">
-        <v>#N/A</v>
+        <v>12.0</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.37488822451399145</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.7919052952256567</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0.8159529013813918</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.7919052952256567</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0.9999971665566236</v>
       </c>
       <c r="L43" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="M43" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="N43" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O43" t="e">
-        <v>#N/A</v>
+        <v>60.0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0.7919052952256567</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0.32296112272846106</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0.32296112272846106</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
         <v>56</v>
       </c>
-      <c r="B44" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C44" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D44" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E44" t="e">
-        <v>#N/A</v>
+      <c r="B44" t="n">
+        <v>0.3749147402187655</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0.32337783940952614</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.3749147402187655</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.6539210585211026</v>
       </c>
       <c r="F44" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G44" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H44" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I44" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J44" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K44" t="e">
-        <v>#N/A</v>
+        <v>11.0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.3749147402187655</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.7949502106061117</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0.8274727197874359</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0.7949502106061117</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0.9999971665566236</v>
       </c>
       <c r="L44" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="M44" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="N44" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O44" t="e">
-        <v>#N/A</v>
+        <v>48.0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0.7949502106061117</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0.32337783940952614</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0.32337783940952614</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
         <v>57</v>
       </c>
-      <c r="B45" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C45" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D45" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E45" t="e">
-        <v>#N/A</v>
+      <c r="B45" t="n">
+        <v>0.3969529600048688</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0.2644616135765607</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.3969529600048688</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.6565268636274305</v>
       </c>
       <c r="F45" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="G45" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H45" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I45" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J45" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K45" t="e">
-        <v>#N/A</v>
+        <v>13.0</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.3969529600048688</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.8063620853919675</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0.8750175197106947</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0.8063620853919675</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0.9999971665566236</v>
       </c>
       <c r="L45" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="M45" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="N45" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O45" t="e">
-        <v>#N/A</v>
+        <v>20.0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.8063620853919675</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0.2644616135765607</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0.2644616135765607</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
         <v>58</v>
       </c>
-      <c r="B46" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C46" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D46" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E46" t="e">
-        <v>#N/A</v>
+      <c r="B46" t="n">
+        <v>0.39824028174182075</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0.2608981520276447</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0.39824028174182075</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.6565268636274305</v>
       </c>
       <c r="F46" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="G46" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H46" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I46" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J46" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K46" t="e">
-        <v>#N/A</v>
+        <v>16.0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.39824028174182075</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0.8204774122915199</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0.9497901653124673</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0.8204774122915199</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0.9999971665566236</v>
       </c>
       <c r="L46" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="M46" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="N46" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O46" t="e">
-        <v>#N/A</v>
+        <v>11.0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0.8204774122915199</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0.2608981520276447</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0.2608981520276447</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
         <v>59</v>
       </c>
-      <c r="B47" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C47" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D47" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E47" t="e">
-        <v>#N/A</v>
+      <c r="B47" t="n">
+        <v>0.4096524486044518</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0.22889662717288958</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0.4096524486044518</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.6565268636274305</v>
       </c>
       <c r="F47" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="G47" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H47" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I47" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J47" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K47" t="e">
-        <v>#N/A</v>
+        <v>67.0</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.4096524486044518</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0.8214926737400323</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0.9354754696008464</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0.8214926737400323</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0.9999971665566236</v>
       </c>
       <c r="L47" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="M47" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="N47" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O47" t="e">
-        <v>#N/A</v>
+        <v>16.0</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0.8214926737400323</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0.22889662717288958</v>
+      </c>
+      <c r="O47" t="n">
+        <v>0.22889662717288958</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
         <v>60</v>
       </c>
-      <c r="B48" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C48" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D48" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E48" t="e">
-        <v>#N/A</v>
+      <c r="B48" t="n">
+        <v>0.41142350120652316</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0.22718150263107775</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0.41142350120652316</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.6565268636274305</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G48" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H48" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I48" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J48" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K48" t="e">
-        <v>#N/A</v>
+        <v>11.0</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.41142350120652316</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0.8266331329293533</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0.9692188018919372</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0.8266331329293533</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0.9999971665566236</v>
       </c>
       <c r="L48" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M48" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="N48" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O48" t="e">
-        <v>#N/A</v>
+        <v>17.0</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0.8266331329293533</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0.22718150263107775</v>
+      </c>
+      <c r="O48" t="n">
+        <v>0.22718150263107775</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
         <v>61</v>
       </c>
-      <c r="B49" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C49" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D49" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E49" t="e">
-        <v>#N/A</v>
+      <c r="B49" t="n">
+        <v>0.42156328997946146</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0.19986169773664664</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0.42156328997946146</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.6586926405929086</v>
       </c>
       <c r="F49" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="G49" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H49" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I49" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J49" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K49" t="e">
-        <v>#N/A</v>
+        <v>15.0</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.42156328997946146</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0.8279967046923278</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0.9562009571609199</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0.8279967046923278</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0.9999971665566236</v>
       </c>
       <c r="L49" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="M49" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="N49" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O49" t="e">
-        <v>#N/A</v>
+        <v>24.0</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0.8279967046923278</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0.19986169773664664</v>
+      </c>
+      <c r="O49" t="n">
+        <v>0.19986169773664664</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
         <v>62</v>
       </c>
-      <c r="B50" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C50" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D50" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E50" t="e">
-        <v>#N/A</v>
+      <c r="B50" t="n">
+        <v>0.5233413613138816</v>
+      </c>
+      <c r="C50" t="n">
+        <v>-0.059070182585346555</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0.5233413613138816</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.7775035398194643</v>
       </c>
       <c r="F50" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="G50" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H50" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I50" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J50" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K50" t="e">
-        <v>#N/A</v>
+        <v>15.0</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.5233413613138816</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0.8280311959572848</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0.9792376933019011</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0.8280311959572849</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0.9999971665566236</v>
       </c>
       <c r="L50" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="M50" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="N50" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O50" t="e">
-        <v>#N/A</v>
+        <v>10.0</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0.8280311959572848</v>
+      </c>
+      <c r="N50" t="n">
+        <v>-0.059070182585346555</v>
+      </c>
+      <c r="O50" t="n">
+        <v>-0.059070182585346555</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
         <v>63</v>
       </c>
-      <c r="B51" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C51" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D51" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E51" t="e">
-        <v>#N/A</v>
+      <c r="B51" t="n">
+        <v>0.5275496083284437</v>
+      </c>
+      <c r="C51" t="n">
+        <v>-0.06982530221861719</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0.5275496083284437</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.7775035398194643</v>
       </c>
       <c r="F51" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G51" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H51" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I51" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J51" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K51" t="e">
-        <v>#N/A</v>
+        <v>14.0</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.5275496083284437</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0.8563987205054621</v>
+      </c>
+      <c r="I51" t="n">
+        <v>1.077985423213834</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0.8563987205054621</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0.9999971665566236</v>
       </c>
       <c r="L51" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="M51" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="N51" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O51" t="e">
-        <v>#N/A</v>
+        <v>22.0</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0.8563987205054621</v>
+      </c>
+      <c r="N51" t="n">
+        <v>-0.06982530221861719</v>
+      </c>
+      <c r="O51" t="n">
+        <v>-0.06982530221861719</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
         <v>64</v>
       </c>
-      <c r="B52" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C52" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D52" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E52" t="e">
-        <v>#N/A</v>
+      <c r="B52" t="n">
+        <v>0.5316747795403088</v>
+      </c>
+      <c r="C52" t="n">
+        <v>-0.07992628720569393</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0.5316747795403088</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0.7775035398194643</v>
       </c>
       <c r="F52" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="G52" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H52" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I52" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J52" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K52" t="e">
-        <v>#N/A</v>
+        <v>27.0</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.5316747795403088</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0.8927130416854507</v>
+      </c>
+      <c r="I52" t="n">
+        <v>1.2481643817437542</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0.8927130416854507</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0.9999971665566236</v>
       </c>
       <c r="L52" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="M52" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="N52" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O52" t="e">
-        <v>#N/A</v>
+        <v>57.0</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0.8927130416854507</v>
+      </c>
+      <c r="N52" t="n">
+        <v>-0.07992628720569393</v>
+      </c>
+      <c r="O52" t="n">
+        <v>-0.07992628720569393</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
         <v>65</v>
       </c>
-      <c r="B53" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C53" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D53" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E53" t="e">
-        <v>#N/A</v>
+      <c r="B53" t="n">
+        <v>0.5532556869049683</v>
+      </c>
+      <c r="C53" t="n">
+        <v>-0.13522066599733867</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0.5532556869049683</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0.7775035398194643</v>
       </c>
       <c r="F53" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="G53" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H53" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I53" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J53" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K53" t="e">
-        <v>#N/A</v>
+        <v>14.0</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.5532556869049683</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0.9290681628629683</v>
+      </c>
+      <c r="I53" t="n">
+        <v>1.5163256382803236</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0.9290681628629683</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0.9999971665566236</v>
       </c>
       <c r="L53" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="M53" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="N53" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O53" t="e">
-        <v>#N/A</v>
+        <v>14.0</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0.9290681628629683</v>
+      </c>
+      <c r="N53" t="n">
+        <v>-0.13522066599733867</v>
+      </c>
+      <c r="O53" t="n">
+        <v>-0.13522066599733867</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
         <v>66</v>
       </c>
-      <c r="B54" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C54" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D54" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E54" t="e">
-        <v>#N/A</v>
+      <c r="B54" t="n">
+        <v>0.5533702043323003</v>
+      </c>
+      <c r="C54" t="n">
+        <v>-0.13615323944246488</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0.5533702043323003</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0.7775035398194643</v>
       </c>
       <c r="F54" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="G54" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H54" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I54" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J54" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K54" t="e">
-        <v>#N/A</v>
+        <v>10.0</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.5533702043323003</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0.9363094607553432</v>
+      </c>
+      <c r="I54" t="n">
+        <v>1.6362528118838473</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0.9363094607553432</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0.9999971665566236</v>
       </c>
       <c r="L54" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="M54" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="N54" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O54" t="e">
-        <v>#N/A</v>
+        <v>11.0</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0.9363094607553432</v>
+      </c>
+      <c r="N54" t="n">
+        <v>-0.13615323944246488</v>
+      </c>
+      <c r="O54" t="n">
+        <v>-0.13615323944246488</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
         <v>67</v>
       </c>
-      <c r="B55" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C55" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D55" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E55" t="e">
-        <v>#N/A</v>
+      <c r="B55" t="n">
+        <v>0.5598025486700143</v>
+      </c>
+      <c r="C55" t="n">
+        <v>-0.15190165061330735</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0.5598025486700143</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0.7775035398194643</v>
       </c>
       <c r="F55" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="G55" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H55" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I55" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J55" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K55" t="e">
-        <v>#N/A</v>
+        <v>15.0</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.5598025486700143</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0.9396017672137217</v>
+      </c>
+      <c r="I55" t="n">
+        <v>1.5881529707199629</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0.9396017672137217</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0.9999971665566236</v>
       </c>
       <c r="L55" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="M55" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="N55" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O55" t="e">
-        <v>#N/A</v>
+        <v>20.0</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0.9396017672137217</v>
+      </c>
+      <c r="N55" t="n">
+        <v>-0.15190165061330735</v>
+      </c>
+      <c r="O55" t="n">
+        <v>-0.15190165061330735</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
         <v>68</v>
       </c>
-      <c r="B56" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C56" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D56" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E56" t="e">
-        <v>#N/A</v>
+      <c r="B56" t="n">
+        <v>0.5826999360992315</v>
+      </c>
+      <c r="C56" t="n">
+        <v>-0.21129810510703778</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0.5826999360992315</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0.7945908219534975</v>
       </c>
       <c r="F56" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="G56" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H56" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I56" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J56" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K56" t="e">
-        <v>#N/A</v>
+        <v>12.0</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.5826999360992315</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0.9437564448723472</v>
+      </c>
+      <c r="I56" t="n">
+        <v>1.6314455165487978</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0.9437564448723472</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0.9999971665566236</v>
       </c>
       <c r="L56" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="M56" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="N56" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O56" t="e">
-        <v>#N/A</v>
+        <v>20.0</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0.9437564448723472</v>
+      </c>
+      <c r="N56" t="n">
+        <v>-0.21129810510703778</v>
+      </c>
+      <c r="O56" t="n">
+        <v>-0.21129810510703778</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
         <v>69</v>
       </c>
-      <c r="B57" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C57" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D57" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E57" t="e">
-        <v>#N/A</v>
+      <c r="B57" t="n">
+        <v>0.5976223601401514</v>
+      </c>
+      <c r="C57" t="n">
+        <v>-0.24921750931820985</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0.5976223601401514</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0.800387089473417</v>
       </c>
       <c r="F57" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="G57" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H57" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I57" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J57" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K57" t="e">
-        <v>#N/A</v>
+        <v>18.0</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.5976223601401514</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0.9583091945229032</v>
+      </c>
+      <c r="I57" t="n">
+        <v>1.853316693636629</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0.9583091945229032</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0.9999971665566236</v>
       </c>
       <c r="L57" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="M57" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="N57" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O57" t="e">
-        <v>#N/A</v>
+        <v>13.0</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0.9583091945229032</v>
+      </c>
+      <c r="N57" t="n">
+        <v>-0.24921750931820985</v>
+      </c>
+      <c r="O57" t="n">
+        <v>-0.24921750931820985</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
         <v>70</v>
       </c>
-      <c r="B58" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C58" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D58" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E58" t="e">
-        <v>#N/A</v>
+      <c r="B58" t="n">
+        <v>0.618809960138422</v>
+      </c>
+      <c r="C58" t="n">
+        <v>-0.3043380773008904</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0.618809960138422</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0.8142236317610817</v>
       </c>
       <c r="F58" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="G58" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H58" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I58" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J58" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K58" t="e">
-        <v>#N/A</v>
+        <v>22.0</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.618809960138422</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0.9661292715653862</v>
+      </c>
+      <c r="I58" t="n">
+        <v>1.8532526699878462</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0.9661292715653862</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0.9999971665566236</v>
       </c>
       <c r="L58" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="M58" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="N58" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O58" t="e">
-        <v>#N/A</v>
+        <v>39.0</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0.9661292715653862</v>
+      </c>
+      <c r="N58" t="n">
+        <v>-0.3043380773008904</v>
+      </c>
+      <c r="O58" t="n">
+        <v>-0.3043380773008904</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
         <v>71</v>
       </c>
-      <c r="B59" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C59" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D59" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E59" t="e">
-        <v>#N/A</v>
+      <c r="B59" t="n">
+        <v>0.6674285201345251</v>
+      </c>
+      <c r="C59" t="n">
+        <v>-0.43577287685023397</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0.6674285201345251</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0.8334231628799498</v>
       </c>
       <c r="F59" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G59" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H59" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I59" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J59" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K59" t="e">
-        <v>#N/A</v>
+        <v>23.0</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.6674285201345251</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0.9662157738586212</v>
+      </c>
+      <c r="I59" t="n">
+        <v>1.902921612466633</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0.9662157738586212</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0.9999971665566236</v>
       </c>
       <c r="L59" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="M59" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="N59" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O59" t="e">
-        <v>#N/A</v>
+        <v>18.0</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0.9662157738586212</v>
+      </c>
+      <c r="N59" t="n">
+        <v>-0.43577287685023397</v>
+      </c>
+      <c r="O59" t="n">
+        <v>-0.43577287685023397</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
         <v>72</v>
       </c>
-      <c r="B60" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C60" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D60" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E60" t="e">
-        <v>#N/A</v>
+      <c r="B60" t="n">
+        <v>0.6760327335292167</v>
+      </c>
+      <c r="C60" t="n">
+        <v>-0.46188006731213244</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0.6760327335292166</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0.8334231628799498</v>
       </c>
       <c r="F60" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G60" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H60" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I60" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J60" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K60" t="e">
-        <v>#N/A</v>
+        <v>15.0</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.6760327335292167</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0.969584142844597</v>
+      </c>
+      <c r="I60" t="n">
+        <v>2.0334454463007203</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0.969584142844597</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0.9999971665566236</v>
       </c>
       <c r="L60" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M60" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="N60" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O60" t="e">
-        <v>#N/A</v>
+        <v>13.0</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0.969584142844597</v>
+      </c>
+      <c r="N60" t="n">
+        <v>-0.46188006731213244</v>
+      </c>
+      <c r="O60" t="n">
+        <v>-0.46188006731213244</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
         <v>73</v>
       </c>
-      <c r="B61" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C61" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D61" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E61" t="e">
-        <v>#N/A</v>
+      <c r="B61" t="n">
+        <v>0.6768563955006139</v>
+      </c>
+      <c r="C61" t="n">
+        <v>-0.4636064705261228</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0.6768563955006139</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0.8334231628799498</v>
       </c>
       <c r="F61" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="G61" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H61" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I61" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J61" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K61" t="e">
-        <v>#N/A</v>
+        <v>17.0</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.6768563955006139</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0.9700842653930107</v>
+      </c>
+      <c r="I61" t="n">
+        <v>1.908033070554448</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0.9700842653930107</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0.9999971665566236</v>
       </c>
       <c r="L61" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="M61" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="N61" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O61" t="e">
-        <v>#N/A</v>
+        <v>43.0</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0.9700842653930107</v>
+      </c>
+      <c r="N61" t="n">
+        <v>-0.4636064705261228</v>
+      </c>
+      <c r="O61" t="n">
+        <v>-0.4636064705261228</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
         <v>74</v>
       </c>
-      <c r="B62" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C62" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D62" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E62" t="e">
-        <v>#N/A</v>
+      <c r="B62" t="n">
+        <v>0.6778508391423591</v>
+      </c>
+      <c r="C62" t="n">
+        <v>-0.4652317305469343</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0.6778508391423591</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0.8334231628799498</v>
       </c>
       <c r="F62" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G62" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H62" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I62" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J62" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K62" t="e">
-        <v>#N/A</v>
+        <v>22.0</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.6778508391423591</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0.9715672211222126</v>
+      </c>
+      <c r="I62" t="n">
+        <v>1.9495073598192059</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0.9715672211222126</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0.9999971665566236</v>
       </c>
       <c r="L62" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M62" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="N62" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O62" t="e">
-        <v>#N/A</v>
+        <v>27.0</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0.9715672211222126</v>
+      </c>
+      <c r="N62" t="n">
+        <v>-0.4652317305469343</v>
+      </c>
+      <c r="O62" t="n">
+        <v>-0.4652317305469343</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
         <v>75</v>
       </c>
-      <c r="B63" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C63" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D63" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E63" t="e">
-        <v>#N/A</v>
+      <c r="B63" t="n">
+        <v>0.7043803958998974</v>
+      </c>
+      <c r="C63" t="n">
+        <v>-0.5450529429653002</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0.7043803958998974</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0.8520730595563275</v>
       </c>
       <c r="F63" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G63" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H63" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I63" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J63" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K63" t="e">
-        <v>#N/A</v>
+        <v>12.0</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.7043803958998974</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0.9783778042383435</v>
+      </c>
+      <c r="I63" t="n">
+        <v>2.0979048758747694</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0.9783778042383435</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0.9999971665566236</v>
       </c>
       <c r="L63" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="M63" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="N63" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O63" t="e">
-        <v>#N/A</v>
+        <v>19.0</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0.9783778042383435</v>
+      </c>
+      <c r="N63" t="n">
+        <v>-0.5450529429653002</v>
+      </c>
+      <c r="O63" t="n">
+        <v>-0.5450529429653002</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
         <v>76</v>
       </c>
-      <c r="B64" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C64" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D64" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E64" t="e">
-        <v>#N/A</v>
+      <c r="B64" t="n">
+        <v>0.7602771132782307</v>
+      </c>
+      <c r="C64" t="n">
+        <v>-0.713348145511928</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0.7602771132782307</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0.8927440761154121</v>
       </c>
       <c r="F64" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G64" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H64" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I64" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J64" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K64" t="e">
-        <v>#N/A</v>
+        <v>24.0</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.7602771132782307</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0.9786218587250359</v>
+      </c>
+      <c r="I64" t="n">
+        <v>2.0833282929605828</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0.9786218587250359</v>
+      </c>
+      <c r="K64" t="n">
+        <v>0.9999971665566236</v>
       </c>
       <c r="L64" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="M64" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="N64" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O64" t="e">
-        <v>#N/A</v>
+        <v>26.0</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0.9786218587250359</v>
+      </c>
+      <c r="N64" t="n">
+        <v>-0.713348145511928</v>
+      </c>
+      <c r="O64" t="n">
+        <v>-0.713348145511928</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
         <v>77</v>
       </c>
-      <c r="B65" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C65" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D65" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E65" t="e">
-        <v>#N/A</v>
+      <c r="B65" t="n">
+        <v>0.7618082782851516</v>
+      </c>
+      <c r="C65" t="n">
+        <v>-0.7196756552804539</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0.7618082782851516</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0.8927440761154121</v>
       </c>
       <c r="F65" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="G65" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H65" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I65" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J65" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K65" t="e">
-        <v>#N/A</v>
+        <v>20.0</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.7618082782851516</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0.9883272678609306</v>
+      </c>
+      <c r="I65" t="n">
+        <v>2.3323008803174647</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0.9883272678609306</v>
+      </c>
+      <c r="K65" t="n">
+        <v>0.9999971665566236</v>
       </c>
       <c r="L65" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="M65" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="N65" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O65" t="e">
-        <v>#N/A</v>
+        <v>29.0</v>
+      </c>
+      <c r="M65" t="n">
+        <v>0.9883272678609306</v>
+      </c>
+      <c r="N65" t="n">
+        <v>-0.7196756552804539</v>
+      </c>
+      <c r="O65" t="n">
+        <v>-0.7196756552804539</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
         <v>78</v>
       </c>
-      <c r="B66" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C66" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D66" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E66" t="e">
-        <v>#N/A</v>
+      <c r="B66" t="n">
+        <v>0.7781777403903143</v>
+      </c>
+      <c r="C66" t="n">
+        <v>-0.7815739655210661</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0.7781777403903143</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0.8978973927580549</v>
       </c>
       <c r="F66" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="G66" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H66" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I66" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J66" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K66" t="e">
-        <v>#N/A</v>
+        <v>13.0</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.7781777403903143</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0.9912903036592267</v>
+      </c>
+      <c r="I66" t="n">
+        <v>2.4387919150153294</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0.9912903036592267</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0.9999971665566236</v>
       </c>
       <c r="L66" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="M66" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="N66" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O66" t="e">
-        <v>#N/A</v>
+        <v>35.0</v>
+      </c>
+      <c r="M66" t="n">
+        <v>0.9912903036592267</v>
+      </c>
+      <c r="N66" t="n">
+        <v>-0.7815739655210661</v>
+      </c>
+      <c r="O66" t="n">
+        <v>-0.7815739655210661</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
         <v>79</v>
       </c>
-      <c r="B67" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C67" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D67" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E67" t="e">
-        <v>#N/A</v>
+      <c r="B67" t="n">
+        <v>0.8010047629289312</v>
+      </c>
+      <c r="C67" t="n">
+        <v>-0.8562084577473522</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0.8010047629289312</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0.9102326851465128</v>
       </c>
       <c r="F67" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="G67" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H67" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I67" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J67" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K67" t="e">
-        <v>#N/A</v>
+        <v>20.0</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.8010047629289312</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0.9929902767482177</v>
+      </c>
+      <c r="I67" t="n">
+        <v>2.663388811515895</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0.9929902767482177</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0.9999971665566236</v>
       </c>
       <c r="L67" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="M67" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="N67" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O67" t="e">
-        <v>#N/A</v>
+        <v>14.0</v>
+      </c>
+      <c r="M67" t="n">
+        <v>0.9929902767482177</v>
+      </c>
+      <c r="N67" t="n">
+        <v>-0.8562084577473522</v>
+      </c>
+      <c r="O67" t="n">
+        <v>-0.8562084577473522</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
         <v>80</v>
       </c>
-      <c r="B68" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C68" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D68" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E68" t="e">
-        <v>#N/A</v>
+      <c r="B68" t="n">
+        <v>0.840252527124532</v>
+      </c>
+      <c r="C68" t="n">
+        <v>-1.0103869320772592</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0.840252527124532</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0.9307074663249006</v>
       </c>
       <c r="F68" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="G68" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H68" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I68" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J68" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K68" t="e">
-        <v>#N/A</v>
+        <v>18.0</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.840252527124532</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0.9954842957754111</v>
+      </c>
+      <c r="I68" t="n">
+        <v>2.738313036333773</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0.9954842957754111</v>
+      </c>
+      <c r="K68" t="n">
+        <v>0.9999971665566236</v>
       </c>
       <c r="L68" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="M68" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="N68" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O68" t="e">
-        <v>#N/A</v>
+        <v>22.0</v>
+      </c>
+      <c r="M68" t="n">
+        <v>0.9954842957754111</v>
+      </c>
+      <c r="N68" t="n">
+        <v>-1.0103869320772592</v>
+      </c>
+      <c r="O68" t="n">
+        <v>-1.0103869320772592</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
         <v>81</v>
       </c>
-      <c r="B69" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C69" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D69" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E69" t="e">
-        <v>#N/A</v>
+      <c r="B69" t="n">
+        <v>0.8438414361345764</v>
+      </c>
+      <c r="C69" t="n">
+        <v>-1.026810840399498</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0.8438414361345765</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0.9307074663249006</v>
       </c>
       <c r="F69" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="G69" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H69" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I69" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J69" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K69" t="e">
-        <v>#N/A</v>
+        <v>18.0</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.8438414361345764</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0.998119676739699</v>
+      </c>
+      <c r="I69" t="n">
+        <v>3.027248598828736</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0.998119676739699</v>
+      </c>
+      <c r="K69" t="n">
+        <v>0.9999971665566236</v>
       </c>
       <c r="L69" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="M69" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="N69" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O69" t="e">
-        <v>#N/A</v>
+        <v>29.0</v>
+      </c>
+      <c r="M69" t="n">
+        <v>0.998119676739699</v>
+      </c>
+      <c r="N69" t="n">
+        <v>-1.026810840399498</v>
+      </c>
+      <c r="O69" t="n">
+        <v>-1.026810840399498</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
         <v>82</v>
       </c>
-      <c r="B70" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C70" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D70" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E70" t="e">
-        <v>#N/A</v>
+      <c r="B70" t="n">
+        <v>0.8689462125566463</v>
+      </c>
+      <c r="C70" t="n">
+        <v>-1.1334208529818475</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0.8689462125566463</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0.9336261251212401</v>
       </c>
       <c r="F70" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="G70" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H70" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I70" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J70" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K70" t="e">
-        <v>#N/A</v>
+        <v>29.0</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0.8689462125566463</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0.9988033418583879</v>
+      </c>
+      <c r="I70" t="n">
+        <v>3.14128647746583</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0.9988033418583879</v>
+      </c>
+      <c r="K70" t="n">
+        <v>0.9999971665566236</v>
       </c>
       <c r="L70" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="M70" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="N70" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O70" t="e">
-        <v>#N/A</v>
+        <v>41.0</v>
+      </c>
+      <c r="M70" t="n">
+        <v>0.9988033418583879</v>
+      </c>
+      <c r="N70" t="n">
+        <v>-1.1334208529818475</v>
+      </c>
+      <c r="O70" t="n">
+        <v>-1.1334208529818475</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
         <v>83</v>
       </c>
-      <c r="B71" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C71" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D71" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E71" t="e">
-        <v>#N/A</v>
+      <c r="B71" t="n">
+        <v>0.8713843834464908</v>
+      </c>
+      <c r="C71" t="n">
+        <v>-1.1759971386865222</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0.8713843834464908</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0.9336261251212401</v>
       </c>
       <c r="F71" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="G71" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H71" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I71" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J71" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K71" t="e">
-        <v>#N/A</v>
+        <v>11.0</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0.8713843834464908</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0.9994157169536121</v>
+      </c>
+      <c r="I71" t="n">
+        <v>3.4712980108371707</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0.9994157169536121</v>
+      </c>
+      <c r="K71" t="n">
+        <v>0.9999971665566236</v>
       </c>
       <c r="L71" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="M71" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="N71" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O71" t="e">
-        <v>#N/A</v>
+        <v>25.0</v>
+      </c>
+      <c r="M71" t="n">
+        <v>0.9994157169536121</v>
+      </c>
+      <c r="N71" t="n">
+        <v>-1.1759971386865222</v>
+      </c>
+      <c r="O71" t="n">
+        <v>-1.1759971386865222</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
         <v>84</v>
       </c>
-      <c r="B72" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C72" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D72" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E72" t="e">
-        <v>#N/A</v>
+      <c r="B72" t="n">
+        <v>0.9244215046499141</v>
+      </c>
+      <c r="C72" t="n">
+        <v>-1.4477282845871748</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0.9244215046499141</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0.970039231089499</v>
       </c>
       <c r="F72" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G72" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H72" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I72" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J72" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K72" t="e">
-        <v>#N/A</v>
+        <v>49.0</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0.9244215046499141</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0.9994259255345311</v>
+      </c>
+      <c r="I72" t="n">
+        <v>3.4020838920899727</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0.9994259255345311</v>
+      </c>
+      <c r="K72" t="n">
+        <v>0.9999971665566236</v>
       </c>
       <c r="L72" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M72" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="N72" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O72" t="e">
-        <v>#N/A</v>
+        <v>35.0</v>
+      </c>
+      <c r="M72" t="n">
+        <v>0.9994259255345311</v>
+      </c>
+      <c r="N72" t="n">
+        <v>-1.4477282845871748</v>
+      </c>
+      <c r="O72" t="n">
+        <v>-1.4477282845871748</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
         <v>85</v>
       </c>
-      <c r="B73" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C73" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D73" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E73" t="e">
-        <v>#N/A</v>
+      <c r="B73" t="n">
+        <v>0.9437485704259607</v>
+      </c>
+      <c r="C73" t="n">
+        <v>-1.6143046804541665</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0.9437485704259607</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0.970039231089499</v>
       </c>
       <c r="F73" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="G73" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H73" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I73" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J73" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K73" t="e">
-        <v>#N/A</v>
+        <v>29.0</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0.9437485704259607</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0.9995727431697485</v>
+      </c>
+      <c r="I73" t="n">
+        <v>3.581152684132977</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0.9995727431697485</v>
+      </c>
+      <c r="K73" t="n">
+        <v>0.9999971665566236</v>
       </c>
       <c r="L73" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="M73" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="N73" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O73" t="e">
-        <v>#N/A</v>
+        <v>23.0</v>
+      </c>
+      <c r="M73" t="n">
+        <v>0.9995727431697485</v>
+      </c>
+      <c r="N73" t="n">
+        <v>-1.6143046804541665</v>
+      </c>
+      <c r="O73" t="n">
+        <v>-1.6143046804541665</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
         <v>86</v>
       </c>
-      <c r="B74" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C74" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D74" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E74" t="e">
-        <v>#N/A</v>
+      <c r="B74" t="n">
+        <v>0.9570025235853343</v>
+      </c>
+      <c r="C74" t="n">
+        <v>-1.7630328441037073</v>
+      </c>
+      <c r="D74" t="n">
+        <v>0.9570025235853343</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0.970039231089499</v>
       </c>
       <c r="F74" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G74" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H74" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I74" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J74" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K74" t="e">
-        <v>#N/A</v>
+        <v>24.0</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0.9570025235853343</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0.9999007078786042</v>
+      </c>
+      <c r="I74" t="n">
+        <v>3.850267432394692</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0.9999007078786042</v>
+      </c>
+      <c r="K74" t="n">
+        <v>0.9999971665566236</v>
       </c>
       <c r="L74" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M74" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="N74" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O74" t="e">
-        <v>#N/A</v>
+        <v>56.0</v>
+      </c>
+      <c r="M74" t="n">
+        <v>0.9999007078786042</v>
+      </c>
+      <c r="N74" t="n">
+        <v>-1.7630328441037073</v>
+      </c>
+      <c r="O74" t="n">
+        <v>-1.7630328441037073</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
         <v>87</v>
       </c>
-      <c r="B75" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C75" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D75" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E75" t="e">
-        <v>#N/A</v>
+      <c r="B75" t="n">
+        <v>0.9571053746749723</v>
+      </c>
+      <c r="C75" t="n">
+        <v>-1.8266032541875314</v>
+      </c>
+      <c r="D75" t="n">
+        <v>0.9571053746749723</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0.970039231089499</v>
       </c>
       <c r="F75" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G75" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H75" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I75" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J75" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K75" t="e">
-        <v>#N/A</v>
+        <v>12.0</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0.9571053746749723</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0.9999830088017545</v>
+      </c>
+      <c r="I75" t="n">
+        <v>4.399553665144085</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0.9999830088017545</v>
+      </c>
+      <c r="K75" t="n">
+        <v>0.9999971665566236</v>
       </c>
       <c r="L75" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="M75" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="N75" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O75" t="e">
-        <v>#N/A</v>
+        <v>40.0</v>
+      </c>
+      <c r="M75" t="n">
+        <v>0.9999830088017545</v>
+      </c>
+      <c r="N75" t="n">
+        <v>-1.8266032541875314</v>
+      </c>
+      <c r="O75" t="n">
+        <v>-1.8266032541875314</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
         <v>88</v>
       </c>
-      <c r="B76" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C76" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D76" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E76" t="e">
-        <v>#N/A</v>
+      <c r="B76" t="n">
+        <v>0.9990563060867177</v>
+      </c>
+      <c r="C76" t="n">
+        <v>-3.661442162663987</v>
+      </c>
+      <c r="D76" t="n">
+        <v>0.9990563060867177</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0.9990563060867177</v>
       </c>
       <c r="F76" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="G76" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H76" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I76" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J76" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K76" t="e">
-        <v>#N/A</v>
+        <v>13.0</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0.9990563060867177</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0.9999971665566236</v>
+      </c>
+      <c r="I76" t="n">
+        <v>4.771222365560649</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0.9999971665566236</v>
+      </c>
+      <c r="K76" t="n">
+        <v>0.9999971665566236</v>
       </c>
       <c r="L76" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="M76" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="N76" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O76" t="e">
-        <v>#N/A</v>
+        <v>56.0</v>
+      </c>
+      <c r="M76" t="n">
+        <v>0.9999971665566236</v>
+      </c>
+      <c r="N76" t="n">
+        <v>-3.661442162663987</v>
+      </c>
+      <c r="O76" t="n">
+        <v>-3.661442162663987</v>
       </c>
     </row>
     <row r="77">
@@ -4222,7 +4222,7 @@
         <v>#N/A</v>
       </c>
       <c r="F77" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="G77" t="e">
         <v>#N/A</v>
@@ -4240,7 +4240,7 @@
         <v>#N/A</v>
       </c>
       <c r="L77" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="M77" t="e">
         <v>#N/A</v>
@@ -4269,7 +4269,7 @@
         <v>#N/A</v>
       </c>
       <c r="F78" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="G78" t="e">
         <v>#N/A</v>
@@ -4287,7 +4287,7 @@
         <v>#N/A</v>
       </c>
       <c r="L78" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="M78" t="e">
         <v>#N/A</v>
@@ -4316,7 +4316,7 @@
         <v>#N/A</v>
       </c>
       <c r="F79" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="G79" t="e">
         <v>#N/A</v>
@@ -4334,7 +4334,7 @@
         <v>#N/A</v>
       </c>
       <c r="L79" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="M79" t="e">
         <v>#N/A</v>
@@ -4363,7 +4363,7 @@
         <v>#N/A</v>
       </c>
       <c r="F80" t="n">
-        <v>3.0</v>
+        <v>8.0</v>
       </c>
       <c r="G80" t="e">
         <v>#N/A</v>
@@ -4381,7 +4381,7 @@
         <v>#N/A</v>
       </c>
       <c r="L80" t="n">
-        <v>3.0</v>
+        <v>8.0</v>
       </c>
       <c r="M80" t="e">
         <v>#N/A</v>
@@ -4410,7 +4410,7 @@
         <v>#N/A</v>
       </c>
       <c r="F81" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="G81" t="e">
         <v>#N/A</v>
@@ -4428,7 +4428,7 @@
         <v>#N/A</v>
       </c>
       <c r="L81" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="M81" t="e">
         <v>#N/A</v>
@@ -4457,7 +4457,7 @@
         <v>#N/A</v>
       </c>
       <c r="F82" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="G82" t="e">
         <v>#N/A</v>
@@ -4475,7 +4475,7 @@
         <v>#N/A</v>
       </c>
       <c r="L82" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="M82" t="e">
         <v>#N/A</v>
@@ -4551,7 +4551,7 @@
         <v>#N/A</v>
       </c>
       <c r="F84" t="n">
-        <v>2.0</v>
+        <v>8.0</v>
       </c>
       <c r="G84" t="e">
         <v>#N/A</v>
@@ -4569,7 +4569,7 @@
         <v>#N/A</v>
       </c>
       <c r="L84" t="n">
-        <v>2.0</v>
+        <v>8.0</v>
       </c>
       <c r="M84" t="e">
         <v>#N/A</v>
@@ -4598,7 +4598,7 @@
         <v>#N/A</v>
       </c>
       <c r="F85" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="G85" t="e">
         <v>#N/A</v>
@@ -4616,7 +4616,7 @@
         <v>#N/A</v>
       </c>
       <c r="L85" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="M85" t="e">
         <v>#N/A</v>
@@ -4645,7 +4645,7 @@
         <v>#N/A</v>
       </c>
       <c r="F86" t="n">
-        <v>1.0</v>
+        <v>8.0</v>
       </c>
       <c r="G86" t="e">
         <v>#N/A</v>
@@ -4663,7 +4663,7 @@
         <v>#N/A</v>
       </c>
       <c r="L86" t="n">
-        <v>1.0</v>
+        <v>8.0</v>
       </c>
       <c r="M86" t="e">
         <v>#N/A</v>
@@ -4692,7 +4692,7 @@
         <v>#N/A</v>
       </c>
       <c r="F87" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="G87" t="e">
         <v>#N/A</v>
@@ -4710,7 +4710,7 @@
         <v>#N/A</v>
       </c>
       <c r="L87" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="M87" t="e">
         <v>#N/A</v>
@@ -4739,7 +4739,7 @@
         <v>#N/A</v>
       </c>
       <c r="F88" t="n">
-        <v>1.0</v>
+        <v>7.0</v>
       </c>
       <c r="G88" t="e">
         <v>#N/A</v>
@@ -4757,7 +4757,7 @@
         <v>#N/A</v>
       </c>
       <c r="L88" t="n">
-        <v>1.0</v>
+        <v>7.0</v>
       </c>
       <c r="M88" t="e">
         <v>#N/A</v>
@@ -4786,7 +4786,7 @@
         <v>#N/A</v>
       </c>
       <c r="F89" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="G89" t="e">
         <v>#N/A</v>
@@ -4804,7 +4804,7 @@
         <v>#N/A</v>
       </c>
       <c r="L89" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="M89" t="e">
         <v>#N/A</v>
@@ -4833,7 +4833,7 @@
         <v>#N/A</v>
       </c>
       <c r="F90" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="G90" t="e">
         <v>#N/A</v>
@@ -4851,7 +4851,7 @@
         <v>#N/A</v>
       </c>
       <c r="L90" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="M90" t="e">
         <v>#N/A</v>
@@ -4880,7 +4880,7 @@
         <v>#N/A</v>
       </c>
       <c r="F91" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
       <c r="G91" t="e">
         <v>#N/A</v>
@@ -4898,7 +4898,7 @@
         <v>#N/A</v>
       </c>
       <c r="L91" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
       <c r="M91" t="e">
         <v>#N/A</v>
@@ -4927,7 +4927,7 @@
         <v>#N/A</v>
       </c>
       <c r="F92" t="n">
-        <v>2.0</v>
+        <v>7.0</v>
       </c>
       <c r="G92" t="e">
         <v>#N/A</v>
@@ -4945,7 +4945,7 @@
         <v>#N/A</v>
       </c>
       <c r="L92" t="n">
-        <v>2.0</v>
+        <v>7.0</v>
       </c>
       <c r="M92" t="e">
         <v>#N/A</v>
@@ -4974,7 +4974,7 @@
         <v>#N/A</v>
       </c>
       <c r="F93" t="n">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="G93" t="e">
         <v>#N/A</v>
@@ -4992,7 +4992,7 @@
         <v>#N/A</v>
       </c>
       <c r="L93" t="n">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="M93" t="e">
         <v>#N/A</v>
@@ -5021,7 +5021,7 @@
         <v>#N/A</v>
       </c>
       <c r="F94" t="n">
-        <v>3.0</v>
+        <v>8.0</v>
       </c>
       <c r="G94" t="e">
         <v>#N/A</v>
@@ -5039,7 +5039,7 @@
         <v>#N/A</v>
       </c>
       <c r="L94" t="n">
-        <v>3.0</v>
+        <v>8.0</v>
       </c>
       <c r="M94" t="e">
         <v>#N/A</v>
@@ -5068,7 +5068,7 @@
         <v>#N/A</v>
       </c>
       <c r="F95" t="n">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c r="G95" t="e">
         <v>#N/A</v>
@@ -5086,7 +5086,7 @@
         <v>#N/A</v>
       </c>
       <c r="L95" t="n">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c r="M95" t="e">
         <v>#N/A</v>
@@ -5115,7 +5115,7 @@
         <v>#N/A</v>
       </c>
       <c r="F96" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="G96" t="e">
         <v>#N/A</v>
@@ -5133,7 +5133,7 @@
         <v>#N/A</v>
       </c>
       <c r="L96" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="M96" t="e">
         <v>#N/A</v>
@@ -5162,7 +5162,7 @@
         <v>#N/A</v>
       </c>
       <c r="F97" t="n">
-        <v>8.0</v>
+        <v>0.0</v>
       </c>
       <c r="G97" t="e">
         <v>#N/A</v>
@@ -5180,7 +5180,7 @@
         <v>#N/A</v>
       </c>
       <c r="L97" t="n">
-        <v>8.0</v>
+        <v>0.0</v>
       </c>
       <c r="M97" t="e">
         <v>#N/A</v>
@@ -5209,7 +5209,7 @@
         <v>#N/A</v>
       </c>
       <c r="F98" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="G98" t="e">
         <v>#N/A</v>
@@ -5227,7 +5227,7 @@
         <v>#N/A</v>
       </c>
       <c r="L98" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="M98" t="e">
         <v>#N/A</v>
@@ -5256,7 +5256,7 @@
         <v>#N/A</v>
       </c>
       <c r="F99" t="n">
-        <v>0.0</v>
+        <v>9.0</v>
       </c>
       <c r="G99" t="e">
         <v>#N/A</v>
@@ -5274,7 +5274,7 @@
         <v>#N/A</v>
       </c>
       <c r="L99" t="n">
-        <v>0.0</v>
+        <v>9.0</v>
       </c>
       <c r="M99" t="e">
         <v>#N/A</v>
@@ -5303,7 +5303,7 @@
         <v>#N/A</v>
       </c>
       <c r="F100" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="G100" t="e">
         <v>#N/A</v>
@@ -5321,7 +5321,7 @@
         <v>#N/A</v>
       </c>
       <c r="L100" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="M100" t="e">
         <v>#N/A</v>
@@ -5350,7 +5350,7 @@
         <v>#N/A</v>
       </c>
       <c r="F101" t="n">
-        <v>1.0</v>
+        <v>7.0</v>
       </c>
       <c r="G101" t="e">
         <v>#N/A</v>
@@ -5368,7 +5368,7 @@
         <v>#N/A</v>
       </c>
       <c r="L101" t="n">
-        <v>1.0</v>
+        <v>7.0</v>
       </c>
       <c r="M101" t="e">
         <v>#N/A</v>
@@ -5397,7 +5397,7 @@
         <v>#N/A</v>
       </c>
       <c r="F102" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="G102" t="e">
         <v>#N/A</v>
@@ -5415,7 +5415,7 @@
         <v>#N/A</v>
       </c>
       <c r="L102" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="M102" t="e">
         <v>#N/A</v>
@@ -5444,7 +5444,7 @@
         <v>#N/A</v>
       </c>
       <c r="F103" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="G103" t="e">
         <v>#N/A</v>
@@ -5462,7 +5462,7 @@
         <v>#N/A</v>
       </c>
       <c r="L103" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="M103" t="e">
         <v>#N/A</v>
@@ -5491,7 +5491,7 @@
         <v>#N/A</v>
       </c>
       <c r="F104" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="G104" t="e">
         <v>#N/A</v>
@@ -5509,7 +5509,7 @@
         <v>#N/A</v>
       </c>
       <c r="L104" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="M104" t="e">
         <v>#N/A</v>
@@ -5538,7 +5538,7 @@
         <v>#N/A</v>
       </c>
       <c r="F105" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="G105" t="e">
         <v>#N/A</v>
@@ -5556,7 +5556,7 @@
         <v>#N/A</v>
       </c>
       <c r="L105" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="M105" t="e">
         <v>#N/A</v>
@@ -5585,7 +5585,7 @@
         <v>#N/A</v>
       </c>
       <c r="F106" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G106" t="e">
         <v>#N/A</v>
@@ -5603,7 +5603,7 @@
         <v>#N/A</v>
       </c>
       <c r="L106" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="M106" t="e">
         <v>#N/A</v>
@@ -5679,7 +5679,7 @@
         <v>#N/A</v>
       </c>
       <c r="F108" t="n">
-        <v>1.0</v>
+        <v>7.0</v>
       </c>
       <c r="G108" t="e">
         <v>#N/A</v>
@@ -5697,7 +5697,7 @@
         <v>#N/A</v>
       </c>
       <c r="L108" t="n">
-        <v>1.0</v>
+        <v>7.0</v>
       </c>
       <c r="M108" t="e">
         <v>#N/A</v>
@@ -5726,7 +5726,7 @@
         <v>#N/A</v>
       </c>
       <c r="F109" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="G109" t="e">
         <v>#N/A</v>
@@ -5744,7 +5744,7 @@
         <v>#N/A</v>
       </c>
       <c r="L109" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="M109" t="e">
         <v>#N/A</v>
@@ -5773,7 +5773,7 @@
         <v>#N/A</v>
       </c>
       <c r="F110" t="n">
-        <v>1.0</v>
+        <v>7.0</v>
       </c>
       <c r="G110" t="e">
         <v>#N/A</v>
@@ -5791,7 +5791,7 @@
         <v>#N/A</v>
       </c>
       <c r="L110" t="n">
-        <v>1.0</v>
+        <v>7.0</v>
       </c>
       <c r="M110" t="e">
         <v>#N/A</v>
@@ -5820,7 +5820,7 @@
         <v>#N/A</v>
       </c>
       <c r="F111" t="n">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c r="G111" t="e">
         <v>#N/A</v>
@@ -5838,7 +5838,7 @@
         <v>#N/A</v>
       </c>
       <c r="L111" t="n">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c r="M111" t="e">
         <v>#N/A</v>
@@ -5867,7 +5867,7 @@
         <v>#N/A</v>
       </c>
       <c r="F112" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
       <c r="G112" t="e">
         <v>#N/A</v>
@@ -5885,7 +5885,7 @@
         <v>#N/A</v>
       </c>
       <c r="L112" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
       <c r="M112" t="e">
         <v>#N/A</v>
@@ -5961,7 +5961,7 @@
         <v>#N/A</v>
       </c>
       <c r="F114" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
       <c r="G114" t="e">
         <v>#N/A</v>
@@ -5979,7 +5979,7 @@
         <v>#N/A</v>
       </c>
       <c r="L114" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
       <c r="M114" t="e">
         <v>#N/A</v>
@@ -6008,7 +6008,7 @@
         <v>#N/A</v>
       </c>
       <c r="F115" t="n">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="G115" t="e">
         <v>#N/A</v>
@@ -6026,7 +6026,7 @@
         <v>#N/A</v>
       </c>
       <c r="L115" t="n">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="M115" t="e">
         <v>#N/A</v>
@@ -6055,7 +6055,7 @@
         <v>#N/A</v>
       </c>
       <c r="F116" t="n">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
       <c r="G116" t="e">
         <v>#N/A</v>
@@ -6073,7 +6073,7 @@
         <v>#N/A</v>
       </c>
       <c r="L116" t="n">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
       <c r="M116" t="e">
         <v>#N/A</v>
@@ -6102,7 +6102,7 @@
         <v>#N/A</v>
       </c>
       <c r="F117" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c r="G117" t="e">
         <v>#N/A</v>
@@ -6120,7 +6120,7 @@
         <v>#N/A</v>
       </c>
       <c r="L117" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c r="M117" t="e">
         <v>#N/A</v>
@@ -6196,7 +6196,7 @@
         <v>#N/A</v>
       </c>
       <c r="F119" t="n">
-        <v>6.0</v>
+        <v>9.0</v>
       </c>
       <c r="G119" t="e">
         <v>#N/A</v>
@@ -6214,7 +6214,7 @@
         <v>#N/A</v>
       </c>
       <c r="L119" t="n">
-        <v>6.0</v>
+        <v>9.0</v>
       </c>
       <c r="M119" t="e">
         <v>#N/A</v>
@@ -6290,7 +6290,7 @@
         <v>#N/A</v>
       </c>
       <c r="F121" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="G121" t="e">
         <v>#N/A</v>
@@ -6308,7 +6308,7 @@
         <v>#N/A</v>
       </c>
       <c r="L121" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="M121" t="e">
         <v>#N/A</v>
@@ -6337,7 +6337,7 @@
         <v>#N/A</v>
       </c>
       <c r="F122" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="G122" t="e">
         <v>#N/A</v>
@@ -6355,7 +6355,7 @@
         <v>#N/A</v>
       </c>
       <c r="L122" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="M122" t="e">
         <v>#N/A</v>
@@ -6384,7 +6384,7 @@
         <v>#N/A</v>
       </c>
       <c r="F123" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="G123" t="e">
         <v>#N/A</v>
@@ -6402,7 +6402,7 @@
         <v>#N/A</v>
       </c>
       <c r="L123" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="M123" t="e">
         <v>#N/A</v>
@@ -6478,7 +6478,7 @@
         <v>#N/A</v>
       </c>
       <c r="F125" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="G125" t="e">
         <v>#N/A</v>
@@ -6496,7 +6496,7 @@
         <v>#N/A</v>
       </c>
       <c r="L125" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="M125" t="e">
         <v>#N/A</v>
@@ -6525,7 +6525,7 @@
         <v>#N/A</v>
       </c>
       <c r="F126" t="n">
-        <v>8.0</v>
+        <v>4.0</v>
       </c>
       <c r="G126" t="e">
         <v>#N/A</v>
@@ -6543,7 +6543,7 @@
         <v>#N/A</v>
       </c>
       <c r="L126" t="n">
-        <v>8.0</v>
+        <v>4.0</v>
       </c>
       <c r="M126" t="e">
         <v>#N/A</v>
@@ -6572,7 +6572,7 @@
         <v>#N/A</v>
       </c>
       <c r="F127" t="n">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c r="G127" t="e">
         <v>#N/A</v>
@@ -6590,7 +6590,7 @@
         <v>#N/A</v>
       </c>
       <c r="L127" t="n">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c r="M127" t="e">
         <v>#N/A</v>
@@ -6619,7 +6619,7 @@
         <v>#N/A</v>
       </c>
       <c r="F128" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G128" t="e">
         <v>#N/A</v>
@@ -6637,7 +6637,7 @@
         <v>#N/A</v>
       </c>
       <c r="L128" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="M128" t="e">
         <v>#N/A</v>
@@ -6666,7 +6666,7 @@
         <v>#N/A</v>
       </c>
       <c r="F129" t="n">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="G129" t="e">
         <v>#N/A</v>
@@ -6684,7 +6684,7 @@
         <v>#N/A</v>
       </c>
       <c r="L129" t="n">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="M129" t="e">
         <v>#N/A</v>
@@ -6713,7 +6713,7 @@
         <v>#N/A</v>
       </c>
       <c r="F130" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="G130" t="e">
         <v>#N/A</v>
@@ -6731,7 +6731,7 @@
         <v>#N/A</v>
       </c>
       <c r="L130" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="M130" t="e">
         <v>#N/A</v>
@@ -6760,7 +6760,7 @@
         <v>#N/A</v>
       </c>
       <c r="F131" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c r="G131" t="e">
         <v>#N/A</v>
@@ -6778,7 +6778,7 @@
         <v>#N/A</v>
       </c>
       <c r="L131" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c r="M131" t="e">
         <v>#N/A</v>
@@ -6807,7 +6807,7 @@
         <v>#N/A</v>
       </c>
       <c r="F132" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="G132" t="e">
         <v>#N/A</v>
@@ -6825,7 +6825,7 @@
         <v>#N/A</v>
       </c>
       <c r="L132" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="M132" t="e">
         <v>#N/A</v>
@@ -6854,7 +6854,7 @@
         <v>#N/A</v>
       </c>
       <c r="F133" t="n">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c r="G133" t="e">
         <v>#N/A</v>
@@ -6872,7 +6872,7 @@
         <v>#N/A</v>
       </c>
       <c r="L133" t="n">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c r="M133" t="e">
         <v>#N/A</v>
@@ -6901,7 +6901,7 @@
         <v>#N/A</v>
       </c>
       <c r="F134" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="G134" t="e">
         <v>#N/A</v>
@@ -6919,7 +6919,7 @@
         <v>#N/A</v>
       </c>
       <c r="L134" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="M134" t="e">
         <v>#N/A</v>
@@ -6948,7 +6948,7 @@
         <v>#N/A</v>
       </c>
       <c r="F135" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="G135" t="e">
         <v>#N/A</v>
@@ -6966,7 +6966,7 @@
         <v>#N/A</v>
       </c>
       <c r="L135" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="M135" t="e">
         <v>#N/A</v>
@@ -6995,7 +6995,7 @@
         <v>#N/A</v>
       </c>
       <c r="F136" t="n">
-        <v>7.0</v>
+        <v>0.0</v>
       </c>
       <c r="G136" t="e">
         <v>#N/A</v>
@@ -7013,7 +7013,7 @@
         <v>#N/A</v>
       </c>
       <c r="L136" t="n">
-        <v>7.0</v>
+        <v>0.0</v>
       </c>
       <c r="M136" t="e">
         <v>#N/A</v>
@@ -7042,7 +7042,7 @@
         <v>#N/A</v>
       </c>
       <c r="F137" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G137" t="e">
         <v>#N/A</v>
@@ -7060,7 +7060,7 @@
         <v>#N/A</v>
       </c>
       <c r="L137" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="M137" t="e">
         <v>#N/A</v>
@@ -7089,7 +7089,7 @@
         <v>#N/A</v>
       </c>
       <c r="F138" t="n">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="G138" t="e">
         <v>#N/A</v>
@@ -7107,7 +7107,7 @@
         <v>#N/A</v>
       </c>
       <c r="L138" t="n">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="M138" t="e">
         <v>#N/A</v>
@@ -7136,7 +7136,7 @@
         <v>#N/A</v>
       </c>
       <c r="F139" t="n">
-        <v>3.0</v>
+        <v>7.0</v>
       </c>
       <c r="G139" t="e">
         <v>#N/A</v>
@@ -7154,7 +7154,7 @@
         <v>#N/A</v>
       </c>
       <c r="L139" t="n">
-        <v>3.0</v>
+        <v>7.0</v>
       </c>
       <c r="M139" t="e">
         <v>#N/A</v>
@@ -7183,7 +7183,7 @@
         <v>#N/A</v>
       </c>
       <c r="F140" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="G140" t="e">
         <v>#N/A</v>
@@ -7201,7 +7201,7 @@
         <v>#N/A</v>
       </c>
       <c r="L140" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="M140" t="e">
         <v>#N/A</v>
@@ -7230,7 +7230,7 @@
         <v>#N/A</v>
       </c>
       <c r="F141" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="G141" t="e">
         <v>#N/A</v>
@@ -7248,7 +7248,7 @@
         <v>#N/A</v>
       </c>
       <c r="L141" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="M141" t="e">
         <v>#N/A</v>
@@ -7324,7 +7324,7 @@
         <v>#N/A</v>
       </c>
       <c r="F143" t="n">
-        <v>3.0</v>
+        <v>8.0</v>
       </c>
       <c r="G143" t="e">
         <v>#N/A</v>
@@ -7342,7 +7342,7 @@
         <v>#N/A</v>
       </c>
       <c r="L143" t="n">
-        <v>3.0</v>
+        <v>8.0</v>
       </c>
       <c r="M143" t="e">
         <v>#N/A</v>
@@ -7371,7 +7371,7 @@
         <v>#N/A</v>
       </c>
       <c r="F144" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="G144" t="e">
         <v>#N/A</v>
@@ -7389,7 +7389,7 @@
         <v>#N/A</v>
       </c>
       <c r="L144" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="M144" t="e">
         <v>#N/A</v>
@@ -7418,7 +7418,7 @@
         <v>#N/A</v>
       </c>
       <c r="F145" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="G145" t="e">
         <v>#N/A</v>
@@ -7436,7 +7436,7 @@
         <v>#N/A</v>
       </c>
       <c r="L145" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="M145" t="e">
         <v>#N/A</v>
@@ -7465,7 +7465,7 @@
         <v>#N/A</v>
       </c>
       <c r="F146" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="G146" t="e">
         <v>#N/A</v>
@@ -7483,7 +7483,7 @@
         <v>#N/A</v>
       </c>
       <c r="L146" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="M146" t="e">
         <v>#N/A</v>
@@ -7559,7 +7559,7 @@
         <v>#N/A</v>
       </c>
       <c r="F148" t="n">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="G148" t="e">
         <v>#N/A</v>
@@ -7577,7 +7577,7 @@
         <v>#N/A</v>
       </c>
       <c r="L148" t="n">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="M148" t="e">
         <v>#N/A</v>
@@ -7606,7 +7606,7 @@
         <v>#N/A</v>
       </c>
       <c r="F149" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="G149" t="e">
         <v>#N/A</v>
@@ -7624,7 +7624,7 @@
         <v>#N/A</v>
       </c>
       <c r="L149" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="M149" t="e">
         <v>#N/A</v>
@@ -7653,7 +7653,7 @@
         <v>#N/A</v>
       </c>
       <c r="F150" t="n">
-        <v>2.0</v>
+        <v>8.0</v>
       </c>
       <c r="G150" t="e">
         <v>#N/A</v>
@@ -7671,7 +7671,7 @@
         <v>#N/A</v>
       </c>
       <c r="L150" t="n">
-        <v>2.0</v>
+        <v>8.0</v>
       </c>
       <c r="M150" t="e">
         <v>#N/A</v>
@@ -7700,7 +7700,7 @@
         <v>#N/A</v>
       </c>
       <c r="F151" t="n">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="G151" t="e">
         <v>#N/A</v>
@@ -7718,7 +7718,7 @@
         <v>#N/A</v>
       </c>
       <c r="L151" t="n">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="M151" t="e">
         <v>#N/A</v>
@@ -7747,7 +7747,7 @@
         <v>#N/A</v>
       </c>
       <c r="F152" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c r="G152" t="e">
         <v>#N/A</v>
@@ -7765,7 +7765,7 @@
         <v>#N/A</v>
       </c>
       <c r="L152" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c r="M152" t="e">
         <v>#N/A</v>
@@ -7794,7 +7794,7 @@
         <v>#N/A</v>
       </c>
       <c r="F153" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="G153" t="e">
         <v>#N/A</v>
@@ -7812,7 +7812,7 @@
         <v>#N/A</v>
       </c>
       <c r="L153" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="M153" t="e">
         <v>#N/A</v>
@@ -7841,7 +7841,7 @@
         <v>#N/A</v>
       </c>
       <c r="F154" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G154" t="e">
         <v>#N/A</v>
@@ -7859,7 +7859,7 @@
         <v>#N/A</v>
       </c>
       <c r="L154" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="M154" t="e">
         <v>#N/A</v>
@@ -7888,7 +7888,7 @@
         <v>#N/A</v>
       </c>
       <c r="F155" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="G155" t="e">
         <v>#N/A</v>
@@ -7906,7 +7906,7 @@
         <v>#N/A</v>
       </c>
       <c r="L155" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="M155" t="e">
         <v>#N/A</v>
@@ -7935,7 +7935,7 @@
         <v>#N/A</v>
       </c>
       <c r="F156" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G156" t="e">
         <v>#N/A</v>
@@ -7953,7 +7953,7 @@
         <v>#N/A</v>
       </c>
       <c r="L156" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="M156" t="e">
         <v>#N/A</v>
@@ -7982,7 +7982,7 @@
         <v>#N/A</v>
       </c>
       <c r="F157" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G157" t="e">
         <v>#N/A</v>
@@ -8000,7 +8000,7 @@
         <v>#N/A</v>
       </c>
       <c r="L157" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="M157" t="e">
         <v>#N/A</v>
@@ -8029,7 +8029,7 @@
         <v>#N/A</v>
       </c>
       <c r="F158" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="G158" t="e">
         <v>#N/A</v>
@@ -8047,7 +8047,7 @@
         <v>#N/A</v>
       </c>
       <c r="L158" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="M158" t="e">
         <v>#N/A</v>
@@ -8076,7 +8076,7 @@
         <v>#N/A</v>
       </c>
       <c r="F159" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G159" t="e">
         <v>#N/A</v>
@@ -8094,7 +8094,7 @@
         <v>#N/A</v>
       </c>
       <c r="L159" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="M159" t="e">
         <v>#N/A</v>
@@ -8170,7 +8170,7 @@
         <v>#N/A</v>
       </c>
       <c r="F161" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="G161" t="e">
         <v>#N/A</v>
@@ -8188,7 +8188,7 @@
         <v>#N/A</v>
       </c>
       <c r="L161" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="M161" t="e">
         <v>#N/A</v>
@@ -8217,7 +8217,7 @@
         <v>#N/A</v>
       </c>
       <c r="F162" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G162" t="e">
         <v>#N/A</v>
@@ -8235,7 +8235,7 @@
         <v>#N/A</v>
       </c>
       <c r="L162" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="M162" t="e">
         <v>#N/A</v>
@@ -8264,7 +8264,7 @@
         <v>#N/A</v>
       </c>
       <c r="F163" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G163" t="e">
         <v>#N/A</v>
@@ -8282,7 +8282,7 @@
         <v>#N/A</v>
       </c>
       <c r="L163" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="M163" t="e">
         <v>#N/A</v>
@@ -8311,7 +8311,7 @@
         <v>#N/A</v>
       </c>
       <c r="F164" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="G164" t="e">
         <v>#N/A</v>
@@ -8329,7 +8329,7 @@
         <v>#N/A</v>
       </c>
       <c r="L164" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="M164" t="e">
         <v>#N/A</v>
@@ -8358,7 +8358,7 @@
         <v>#N/A</v>
       </c>
       <c r="F165" t="n">
-        <v>1.0</v>
+        <v>9.0</v>
       </c>
       <c r="G165" t="e">
         <v>#N/A</v>
@@ -8376,7 +8376,7 @@
         <v>#N/A</v>
       </c>
       <c r="L165" t="n">
-        <v>1.0</v>
+        <v>9.0</v>
       </c>
       <c r="M165" t="e">
         <v>#N/A</v>
@@ -8405,7 +8405,7 @@
         <v>#N/A</v>
       </c>
       <c r="F166" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G166" t="e">
         <v>#N/A</v>
@@ -8423,7 +8423,7 @@
         <v>#N/A</v>
       </c>
       <c r="L166" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="M166" t="e">
         <v>#N/A</v>
@@ -8452,7 +8452,7 @@
         <v>#N/A</v>
       </c>
       <c r="F167" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G167" t="e">
         <v>#N/A</v>
@@ -8470,7 +8470,7 @@
         <v>#N/A</v>
       </c>
       <c r="L167" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="M167" t="e">
         <v>#N/A</v>
@@ -8499,7 +8499,7 @@
         <v>#N/A</v>
       </c>
       <c r="F168" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="G168" t="e">
         <v>#N/A</v>
@@ -8517,7 +8517,7 @@
         <v>#N/A</v>
       </c>
       <c r="L168" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="M168" t="e">
         <v>#N/A</v>
@@ -8546,7 +8546,7 @@
         <v>#N/A</v>
       </c>
       <c r="F169" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="G169" t="e">
         <v>#N/A</v>
@@ -8564,7 +8564,7 @@
         <v>#N/A</v>
       </c>
       <c r="L169" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="M169" t="e">
         <v>#N/A</v>
@@ -8593,7 +8593,7 @@
         <v>#N/A</v>
       </c>
       <c r="F170" t="n">
-        <v>9.0</v>
+        <v>4.0</v>
       </c>
       <c r="G170" t="e">
         <v>#N/A</v>
@@ -8611,7 +8611,7 @@
         <v>#N/A</v>
       </c>
       <c r="L170" t="n">
-        <v>9.0</v>
+        <v>4.0</v>
       </c>
       <c r="M170" t="e">
         <v>#N/A</v>
@@ -8687,7 +8687,7 @@
         <v>#N/A</v>
       </c>
       <c r="F172" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="G172" t="e">
         <v>#N/A</v>
@@ -8705,7 +8705,7 @@
         <v>#N/A</v>
       </c>
       <c r="L172" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="M172" t="e">
         <v>#N/A</v>
@@ -8734,7 +8734,7 @@
         <v>#N/A</v>
       </c>
       <c r="F173" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="G173" t="e">
         <v>#N/A</v>
@@ -8752,7 +8752,7 @@
         <v>#N/A</v>
       </c>
       <c r="L173" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="M173" t="e">
         <v>#N/A</v>
@@ -8781,7 +8781,7 @@
         <v>#N/A</v>
       </c>
       <c r="F174" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G174" t="e">
         <v>#N/A</v>
@@ -8799,7 +8799,7 @@
         <v>#N/A</v>
       </c>
       <c r="L174" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="M174" t="e">
         <v>#N/A</v>
@@ -8828,7 +8828,7 @@
         <v>#N/A</v>
       </c>
       <c r="F175" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G175" t="e">
         <v>#N/A</v>
@@ -8846,7 +8846,7 @@
         <v>#N/A</v>
       </c>
       <c r="L175" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="M175" t="e">
         <v>#N/A</v>
@@ -8875,7 +8875,7 @@
         <v>#N/A</v>
       </c>
       <c r="F176" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G176" t="e">
         <v>#N/A</v>
@@ -8893,7 +8893,7 @@
         <v>#N/A</v>
       </c>
       <c r="L176" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="M176" t="e">
         <v>#N/A</v>
@@ -8922,7 +8922,7 @@
         <v>#N/A</v>
       </c>
       <c r="F177" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="G177" t="e">
         <v>#N/A</v>
@@ -8940,7 +8940,7 @@
         <v>#N/A</v>
       </c>
       <c r="L177" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="M177" t="e">
         <v>#N/A</v>

--- a/counts/ALS Mice/experimental/results/tg_1-tg_3/KEGG pathview.xlsx
+++ b/counts/ALS Mice/experimental/results/tg_1-tg_3/KEGG pathview.xlsx
@@ -62,10 +62,13 @@
     <t>mmu04514 Cell adhesion molecules (CAMs)</t>
   </si>
   <si>
+    <t>mmu04610 Complement and coagulation cascades</t>
+  </si>
+  <si>
     <t>mmu04380 Osteoclast differentiation</t>
   </si>
   <si>
-    <t>mmu04610 Complement and coagulation cascades</t>
+    <t>mmu04620 Toll-like receptor signaling pathway</t>
   </si>
   <si>
     <t>mmu04630 Jak-STAT signaling pathway</t>
@@ -74,493 +77,490 @@
     <t>mmu04650 Natural killer cell mediated cytotoxicity</t>
   </si>
   <si>
+    <t>mmu04062 Chemokine signaling pathway</t>
+  </si>
+  <si>
     <t>mmu04142 Lysosome</t>
   </si>
   <si>
+    <t>mmu04662 B cell receptor signaling pathway</t>
+  </si>
+  <si>
+    <t>mmu04670 Leukocyte transendothelial migration</t>
+  </si>
+  <si>
+    <t>mmu04640 Hematopoietic cell lineage</t>
+  </si>
+  <si>
     <t>mmu04612 Antigen processing and presentation</t>
   </si>
   <si>
-    <t>mmu04662 B cell receptor signaling pathway</t>
+    <t>mmu04810 Regulation of actin cytoskeleton</t>
+  </si>
+  <si>
+    <t>mmu04666 Fc gamma R-mediated phagocytosis</t>
+  </si>
+  <si>
+    <t>mmu04210 Apoptosis</t>
+  </si>
+  <si>
+    <t>mmu04664 Fc epsilon RI signaling pathway</t>
+  </si>
+  <si>
+    <t>mmu00590 Arachidonic acid metabolism</t>
+  </si>
+  <si>
+    <t>mmu04510 Focal adhesion</t>
+  </si>
+  <si>
+    <t>mmu04020 Calcium signaling pathway</t>
+  </si>
+  <si>
+    <t>mmu04144 Endocytosis</t>
+  </si>
+  <si>
+    <t>mmu04010 MAPK signaling pathway</t>
+  </si>
+  <si>
+    <t>mmu04512 ECM-receptor interaction</t>
+  </si>
+  <si>
+    <t>mmu03008 Ribosome biogenesis in eukaryotes</t>
+  </si>
+  <si>
+    <t>mmu04141 Protein processing in endoplasmic reticulum</t>
+  </si>
+  <si>
+    <t>mmu04740 Olfactory transduction</t>
+  </si>
+  <si>
+    <t>mmu03010 Ribosome</t>
+  </si>
+  <si>
+    <t>mmu04622 RIG-I-like receptor signaling pathway</t>
+  </si>
+  <si>
+    <t>mmu04744 Phototransduction</t>
+  </si>
+  <si>
+    <t>mmu00190 Oxidative phosphorylation</t>
+  </si>
+  <si>
+    <t>mmu04120 Ubiquitin mediated proteolysis</t>
+  </si>
+  <si>
+    <t>mmu00670 One carbon pool by folate</t>
+  </si>
+  <si>
+    <t>mmu04110 Cell cycle</t>
+  </si>
+  <si>
+    <t>mmu04114 Oocyte meiosis</t>
+  </si>
+  <si>
+    <t>mmu04722 Neurotrophin signaling pathway</t>
+  </si>
+  <si>
+    <t>mmu03015 mRNA surveillance pathway</t>
+  </si>
+  <si>
+    <t>mmu04672 Intestinal immune network for IgA production</t>
+  </si>
+  <si>
+    <t>mmu04974 Protein digestion and absorption</t>
+  </si>
+  <si>
+    <t>mmu00072 Synthesis and degradation of ketone bodies</t>
+  </si>
+  <si>
+    <t>mmu00280 Valine, leucine and isoleucine degradation</t>
+  </si>
+  <si>
+    <t>mmu00650 Butanoate metabolism</t>
+  </si>
+  <si>
+    <t>mmu00900 Terpenoid backbone biosynthesis</t>
+  </si>
+  <si>
+    <t>mmu00071 Fatty acid metabolism</t>
+  </si>
+  <si>
+    <t>mmu00830 Retinol metabolism</t>
+  </si>
+  <si>
+    <t>mmu03320 PPAR signaling pathway</t>
+  </si>
+  <si>
+    <t>mmu04270 Vascular smooth muscle contraction</t>
+  </si>
+  <si>
+    <t>mmu03060 Protein export</t>
+  </si>
+  <si>
+    <t>mmu03018 RNA degradation</t>
+  </si>
+  <si>
+    <t>mmu03040 Spliceosome</t>
+  </si>
+  <si>
+    <t>mmu03013 RNA transport</t>
+  </si>
+  <si>
+    <t>mmu00010 Glycolysis / Gluconeogenesis</t>
+  </si>
+  <si>
+    <t>mmu00230 Purine metabolism</t>
+  </si>
+  <si>
+    <t>mmu00983 Drug metabolism - other enzymes</t>
+  </si>
+  <si>
+    <t>mmu04012 ErbB signaling pathway</t>
+  </si>
+  <si>
+    <t>mmu00500 Starch and sucrose metabolism</t>
+  </si>
+  <si>
+    <t>mmu04972 Pancreatic secretion</t>
+  </si>
+  <si>
+    <t>mmu04973 Carbohydrate digestion and absorption</t>
+  </si>
+  <si>
+    <t>mmu00240 Pyrimidine metabolism</t>
+  </si>
+  <si>
+    <t>mmu03020 RNA polymerase</t>
   </si>
   <si>
     <t>mmu04623 Cytosolic DNA-sensing pathway</t>
   </si>
   <si>
-    <t>mmu04620 Toll-like receptor signaling pathway</t>
-  </si>
-  <si>
-    <t>mmu04640 Hematopoietic cell lineage</t>
-  </si>
-  <si>
-    <t>mmu04210 Apoptosis</t>
+    <t>mmu03450 Non-homologous end-joining</t>
+  </si>
+  <si>
+    <t>mmu04914 Progesterone-mediated oocyte maturation</t>
+  </si>
+  <si>
+    <t>mmu04260 Cardiac muscle contraction</t>
+  </si>
+  <si>
+    <t>mmu04310 Wnt signaling pathway</t>
+  </si>
+  <si>
+    <t>mmu04520 Adherens junction</t>
+  </si>
+  <si>
+    <t>mmu04530 Tight junction</t>
+  </si>
+  <si>
+    <t>mmu04360 Axon guidance</t>
+  </si>
+  <si>
+    <t>mmu04660 T cell receptor signaling pathway</t>
+  </si>
+  <si>
+    <t>mmu00591 Linoleic acid metabolism</t>
+  </si>
+  <si>
+    <t>mmu00565 Ether lipid metabolism</t>
+  </si>
+  <si>
+    <t>mmu00030 Pentose phosphate pathway</t>
+  </si>
+  <si>
+    <t>mmu00250 Alanine, aspartate and glutamate metabolism</t>
+  </si>
+  <si>
+    <t>mmu00270 Cysteine and methionine metabolism</t>
+  </si>
+  <si>
+    <t>mmu00350 Tyrosine metabolism</t>
+  </si>
+  <si>
+    <t>mmu00360 Phenylalanine metabolism</t>
+  </si>
+  <si>
+    <t>mmu00380 Tryptophan metabolism</t>
+  </si>
+  <si>
+    <t>mmu00400 Phenylalanine, tyrosine and tryptophan biosynthesis</t>
+  </si>
+  <si>
+    <t>mmu00740 Riboflavin metabolism</t>
+  </si>
+  <si>
+    <t>mmu00040 Pentose and glucuronate interconversions</t>
+  </si>
+  <si>
+    <t>mmu00051 Fructose and mannose metabolism</t>
+  </si>
+  <si>
+    <t>mmu00052 Galactose metabolism</t>
+  </si>
+  <si>
+    <t>mmu00561 Glycerolipid metabolism</t>
+  </si>
+  <si>
+    <t>mmu00620 Pyruvate metabolism</t>
+  </si>
+  <si>
+    <t>mmu04330 Notch signaling pathway</t>
+  </si>
+  <si>
+    <t>mmu00510 N-Glycan biosynthesis</t>
+  </si>
+  <si>
+    <t>mmu04621 NOD-like receptor signaling pathway</t>
+  </si>
+  <si>
+    <t>mmu00053 Ascorbate and aldarate metabolism</t>
+  </si>
+  <si>
+    <t>mmu00140 Steroid hormone biosynthesis</t>
+  </si>
+  <si>
+    <t>mmu00514 Other types of O-glycan biosynthesis</t>
+  </si>
+  <si>
+    <t>mmu00860 Porphyrin and chlorophyll metabolism</t>
+  </si>
+  <si>
+    <t>mmu00980 Metabolism of xenobiotics by cytochrome P450</t>
+  </si>
+  <si>
+    <t>mmu00982 Drug metabolism - cytochrome P450</t>
+  </si>
+  <si>
+    <t>mmu00260 Glycine, serine and threonine metabolism</t>
+  </si>
+  <si>
+    <t>mmu00061 Fatty acid biosynthesis</t>
+  </si>
+  <si>
+    <t>mmu00640 Propanoate metabolism</t>
+  </si>
+  <si>
+    <t>mmu04910 Insulin signaling pathway</t>
+  </si>
+  <si>
+    <t>mmu04920 Adipocytokine signaling pathway</t>
+  </si>
+  <si>
+    <t>mmu00532 Glycosaminoglycan biosynthesis - chondroitin sulfate</t>
+  </si>
+  <si>
+    <t>mmu00120 Primary bile acid biosynthesis</t>
+  </si>
+  <si>
+    <t>mmu03022 Basal transcription factors</t>
+  </si>
+  <si>
+    <t>mmu00564 Glycerophospholipid metabolism</t>
+  </si>
+  <si>
+    <t>mmu00290 Valine, leucine and isoleucine biosynthesis</t>
+  </si>
+  <si>
+    <t>mmu00970 Aminoacyl-tRNA biosynthesis</t>
+  </si>
+  <si>
+    <t>mmu04370 VEGF signaling pathway</t>
+  </si>
+  <si>
+    <t>mmu00410 beta-Alanine metabolism</t>
+  </si>
+  <si>
+    <t>mmu00770 Pantothenate and CoA biosynthesis</t>
+  </si>
+  <si>
+    <t>mmu04340 Hedgehog signaling pathway</t>
+  </si>
+  <si>
+    <t>mmu03050 Proteasome</t>
+  </si>
+  <si>
+    <t>mmu04710 Circadian rhythm - mammal</t>
+  </si>
+  <si>
+    <t>mmu00750 Vitamin B6 metabolism</t>
+  </si>
+  <si>
+    <t>mmu04146 Peroxisome</t>
+  </si>
+  <si>
+    <t>mmu00760 Nicotinate and nicotinamide metabolism</t>
+  </si>
+  <si>
+    <t>mmu00520 Amino sugar and nucleotide sugar metabolism</t>
+  </si>
+  <si>
+    <t>mmu00562 Inositol phosphate metabolism</t>
+  </si>
+  <si>
+    <t>mmu04070 Phosphatidylinositol signaling system</t>
+  </si>
+  <si>
+    <t>mmu04540 Gap junction</t>
+  </si>
+  <si>
+    <t>mmu04742 Taste transduction</t>
+  </si>
+  <si>
+    <t>mmu04912 GnRH signaling pathway</t>
+  </si>
+  <si>
+    <t>mmu04916 Melanogenesis</t>
+  </si>
+  <si>
+    <t>mmu04970 Salivary secretion</t>
+  </si>
+  <si>
+    <t>mmu04971 Gastric acid secretion</t>
+  </si>
+  <si>
+    <t>mmu04976 Bile secretion</t>
+  </si>
+  <si>
+    <t>mmu04962 Vasopressin-regulated water reabsorption</t>
+  </si>
+  <si>
+    <t>mmu00020 Citrate cycle (TCA cycle)</t>
+  </si>
+  <si>
+    <t>mmu04350 TGF-beta signaling pathway</t>
+  </si>
+  <si>
+    <t>mmu04964 Proximal tubule bicarbonate reclamation</t>
+  </si>
+  <si>
+    <t>mmu00730 Thiamine metabolism</t>
+  </si>
+  <si>
+    <t>mmu04140 Regulation of autophagy</t>
+  </si>
+  <si>
+    <t>mmu04150 mTOR signaling pathway</t>
+  </si>
+  <si>
+    <t>mmu03030 DNA replication</t>
+  </si>
+  <si>
+    <t>mmu03420 Nucleotide excision repair</t>
+  </si>
+  <si>
+    <t>mmu03430 Mismatch repair</t>
+  </si>
+  <si>
+    <t>mmu01040 Biosynthesis of unsaturated fatty acids</t>
+  </si>
+  <si>
+    <t>mmu00310 Lysine degradation</t>
   </si>
   <si>
     <t>mmu04115 p53 signaling pathway</t>
   </si>
   <si>
-    <t>mmu04666 Fc gamma R-mediated phagocytosis</t>
-  </si>
-  <si>
-    <t>mmu04062 Chemokine signaling pathway</t>
-  </si>
-  <si>
-    <t>mmu00520 Amino sugar and nucleotide sugar metabolism</t>
-  </si>
-  <si>
-    <t>mmu00590 Arachidonic acid metabolism</t>
-  </si>
-  <si>
-    <t>mmu04670 Leukocyte transendothelial migration</t>
+    <t>mmu00450 Selenocompound metabolism</t>
+  </si>
+  <si>
+    <t>mmu00910 Nitrogen metabolism</t>
+  </si>
+  <si>
+    <t>mmu04960 Aldosterone-regulated sodium reabsorption</t>
+  </si>
+  <si>
+    <t>mmu00460 Cyanoamino acid metabolism</t>
+  </si>
+  <si>
+    <t>mmu04720 Long-term potentiation</t>
+  </si>
+  <si>
+    <t>mmu04730 Long-term depression</t>
+  </si>
+  <si>
+    <t>mmu00601 Glycosphingolipid biosynthesis - lacto and neolacto series</t>
+  </si>
+  <si>
+    <t>mmu00512 Mucin type O-Glycan biosynthesis</t>
+  </si>
+  <si>
+    <t>mmu00533 Glycosaminoglycan biosynthesis - keratan sulfate</t>
+  </si>
+  <si>
+    <t>mmu00330 Arginine and proline metabolism</t>
+  </si>
+  <si>
+    <t>mmu00531 Glycosaminoglycan degradation</t>
+  </si>
+  <si>
+    <t>mmu00340 Histidine metabolism</t>
+  </si>
+  <si>
+    <t>mmu04975 Fat digestion and absorption</t>
+  </si>
+  <si>
+    <t>mmu00511 Other glycan degradation</t>
   </si>
   <si>
     <t>mmu00480 Glutathione metabolism</t>
   </si>
   <si>
-    <t>mmu04520 Adherens junction</t>
-  </si>
-  <si>
-    <t>mmu04622 RIG-I-like receptor signaling pathway</t>
-  </si>
-  <si>
-    <t>mmu00982 Drug metabolism - cytochrome P450</t>
-  </si>
-  <si>
-    <t>mmu04672 Intestinal immune network for IgA production</t>
-  </si>
-  <si>
-    <t>mmu04810 Regulation of actin cytoskeleton</t>
-  </si>
-  <si>
-    <t>mmu04660 T cell receptor signaling pathway</t>
-  </si>
-  <si>
-    <t>mmu00010 Glycolysis / Gluconeogenesis</t>
-  </si>
-  <si>
-    <t>mmu04910 Insulin signaling pathway</t>
-  </si>
-  <si>
-    <t>mmu03010 Ribosome</t>
-  </si>
-  <si>
-    <t>mmu04920 Adipocytokine signaling pathway</t>
-  </si>
-  <si>
-    <t>mmu00980 Metabolism of xenobiotics by cytochrome P450</t>
-  </si>
-  <si>
-    <t>mmu04621 NOD-like receptor signaling pathway</t>
-  </si>
-  <si>
-    <t>mmu04144 Endocytosis</t>
-  </si>
-  <si>
-    <t>mmu04510 Focal adhesion</t>
-  </si>
-  <si>
-    <t>mmu04110 Cell cycle</t>
-  </si>
-  <si>
-    <t>mmu04350 TGF-beta signaling pathway</t>
+    <t>mmu00790 Folate biosynthesis</t>
+  </si>
+  <si>
+    <t>mmu00563 Glycosylphosphatidylinositol(GPI)-anchor biosynthesis</t>
+  </si>
+  <si>
+    <t>mmu00630 Glyoxylate and dicarboxylate metabolism</t>
+  </si>
+  <si>
+    <t>mmu00300 Lysine biosynthesis</t>
+  </si>
+  <si>
+    <t>mmu04966 Collecting duct acid secretion</t>
+  </si>
+  <si>
+    <t>mmu00780 Biotin metabolism</t>
   </si>
   <si>
     <t>mmu02010 ABC transporters</t>
   </si>
   <si>
-    <t>mmu03320 PPAR signaling pathway</t>
-  </si>
-  <si>
-    <t>mmu04664 Fc epsilon RI signaling pathway</t>
-  </si>
-  <si>
-    <t>mmu04512 ECM-receptor interaction</t>
-  </si>
-  <si>
-    <t>mmu04310 Wnt signaling pathway</t>
-  </si>
-  <si>
-    <t>mmu04120 Ubiquitin mediated proteolysis</t>
-  </si>
-  <si>
-    <t>mmu00561 Glycerolipid metabolism</t>
-  </si>
-  <si>
-    <t>mmu04146 Peroxisome</t>
-  </si>
-  <si>
-    <t>mmu04916 Melanogenesis</t>
-  </si>
-  <si>
-    <t>mmu04010 MAPK signaling pathway</t>
-  </si>
-  <si>
-    <t>mmu00240 Pyrimidine metabolism</t>
-  </si>
-  <si>
-    <t>mmu00330 Arginine and proline metabolism</t>
-  </si>
-  <si>
-    <t>mmu04370 VEGF signaling pathway</t>
-  </si>
-  <si>
-    <t>mmu04971 Gastric acid secretion</t>
-  </si>
-  <si>
-    <t>mmu04722 Neurotrophin signaling pathway</t>
-  </si>
-  <si>
-    <t>mmu04974 Protein digestion and absorption</t>
-  </si>
-  <si>
-    <t>mmu00260 Glycine, serine and threonine metabolism</t>
-  </si>
-  <si>
-    <t>mmu00562 Inositol phosphate metabolism</t>
-  </si>
-  <si>
-    <t>mmu00910 Nitrogen metabolism</t>
-  </si>
-  <si>
-    <t>mmu04070 Phosphatidylinositol signaling system</t>
-  </si>
-  <si>
-    <t>mmu04012 ErbB signaling pathway</t>
-  </si>
-  <si>
-    <t>mmu04530 Tight junction</t>
-  </si>
-  <si>
-    <t>mmu04730 Long-term depression</t>
-  </si>
-  <si>
-    <t>mmu04976 Bile secretion</t>
-  </si>
-  <si>
-    <t>mmu04270 Vascular smooth muscle contraction</t>
-  </si>
-  <si>
-    <t>mmu04260 Cardiac muscle contraction</t>
-  </si>
-  <si>
-    <t>mmu04141 Protein processing in endoplasmic reticulum</t>
-  </si>
-  <si>
-    <t>mmu04912 GnRH signaling pathway</t>
-  </si>
-  <si>
-    <t>mmu04720 Long-term potentiation</t>
-  </si>
-  <si>
-    <t>mmu04972 Pancreatic secretion</t>
-  </si>
-  <si>
-    <t>mmu04970 Salivary secretion</t>
-  </si>
-  <si>
-    <t>mmu00564 Glycerophospholipid metabolism</t>
-  </si>
-  <si>
-    <t>mmu00230 Purine metabolism</t>
-  </si>
-  <si>
-    <t>mmu04114 Oocyte meiosis</t>
-  </si>
-  <si>
-    <t>mmu04020 Calcium signaling pathway</t>
-  </si>
-  <si>
-    <t>mmu04360 Axon guidance</t>
-  </si>
-  <si>
-    <t>mmu04540 Gap junction</t>
-  </si>
-  <si>
-    <t>mmu04914 Progesterone-mediated oocyte maturation</t>
+    <t>mmu00604 Glycosphingolipid biosynthesis - ganglio series</t>
+  </si>
+  <si>
+    <t>mmu04614 Renin-angiotensin system</t>
+  </si>
+  <si>
+    <t>mmu00592 alpha-Linolenic acid metabolism</t>
+  </si>
+  <si>
+    <t>mmu03440 Homologous recombination</t>
+  </si>
+  <si>
+    <t>mmu03410 Base excision repair</t>
+  </si>
+  <si>
+    <t>mmu00600 Sphingolipid metabolism</t>
+  </si>
+  <si>
+    <t>mmu00603 Glycosphingolipid biosynthesis - globo series</t>
+  </si>
+  <si>
+    <t>mmu04977 Vitamin digestion and absorption</t>
+  </si>
+  <si>
+    <t>mmu00534 Glycosaminoglycan biosynthesis - heparan sulfate</t>
+  </si>
+  <si>
+    <t>mmu00430 Taurine and hypotaurine metabolism</t>
+  </si>
+  <si>
+    <t>mmu04130 SNARE interactions in vesicular transport</t>
   </si>
   <si>
     <t>mmu00100 Steroid biosynthesis</t>
-  </si>
-  <si>
-    <t>mmu03008 Ribosome biogenesis in eukaryotes</t>
-  </si>
-  <si>
-    <t>mmu04740 Olfactory transduction</t>
-  </si>
-  <si>
-    <t>mmu04744 Phototransduction</t>
-  </si>
-  <si>
-    <t>mmu00190 Oxidative phosphorylation</t>
-  </si>
-  <si>
-    <t>mmu00670 One carbon pool by folate</t>
-  </si>
-  <si>
-    <t>mmu03015 mRNA surveillance pathway</t>
-  </si>
-  <si>
-    <t>mmu00072 Synthesis and degradation of ketone bodies</t>
-  </si>
-  <si>
-    <t>mmu00280 Valine, leucine and isoleucine degradation</t>
-  </si>
-  <si>
-    <t>mmu00650 Butanoate metabolism</t>
-  </si>
-  <si>
-    <t>mmu00900 Terpenoid backbone biosynthesis</t>
-  </si>
-  <si>
-    <t>mmu00071 Fatty acid metabolism</t>
-  </si>
-  <si>
-    <t>mmu00830 Retinol metabolism</t>
-  </si>
-  <si>
-    <t>mmu03060 Protein export</t>
-  </si>
-  <si>
-    <t>mmu03018 RNA degradation</t>
-  </si>
-  <si>
-    <t>mmu03040 Spliceosome</t>
-  </si>
-  <si>
-    <t>mmu03013 RNA transport</t>
-  </si>
-  <si>
-    <t>mmu00983 Drug metabolism - other enzymes</t>
-  </si>
-  <si>
-    <t>mmu00500 Starch and sucrose metabolism</t>
-  </si>
-  <si>
-    <t>mmu04973 Carbohydrate digestion and absorption</t>
-  </si>
-  <si>
-    <t>mmu03020 RNA polymerase</t>
-  </si>
-  <si>
-    <t>mmu03450 Non-homologous end-joining</t>
-  </si>
-  <si>
-    <t>mmu00591 Linoleic acid metabolism</t>
-  </si>
-  <si>
-    <t>mmu00565 Ether lipid metabolism</t>
-  </si>
-  <si>
-    <t>mmu00030 Pentose phosphate pathway</t>
-  </si>
-  <si>
-    <t>mmu00250 Alanine, aspartate and glutamate metabolism</t>
-  </si>
-  <si>
-    <t>mmu00270 Cysteine and methionine metabolism</t>
-  </si>
-  <si>
-    <t>mmu00350 Tyrosine metabolism</t>
-  </si>
-  <si>
-    <t>mmu00360 Phenylalanine metabolism</t>
-  </si>
-  <si>
-    <t>mmu00380 Tryptophan metabolism</t>
-  </si>
-  <si>
-    <t>mmu00400 Phenylalanine, tyrosine and tryptophan biosynthesis</t>
-  </si>
-  <si>
-    <t>mmu00740 Riboflavin metabolism</t>
-  </si>
-  <si>
-    <t>mmu00040 Pentose and glucuronate interconversions</t>
-  </si>
-  <si>
-    <t>mmu00051 Fructose and mannose metabolism</t>
-  </si>
-  <si>
-    <t>mmu00052 Galactose metabolism</t>
-  </si>
-  <si>
-    <t>mmu00620 Pyruvate metabolism</t>
-  </si>
-  <si>
-    <t>mmu04330 Notch signaling pathway</t>
-  </si>
-  <si>
-    <t>mmu00510 N-Glycan biosynthesis</t>
-  </si>
-  <si>
-    <t>mmu00053 Ascorbate and aldarate metabolism</t>
-  </si>
-  <si>
-    <t>mmu00140 Steroid hormone biosynthesis</t>
-  </si>
-  <si>
-    <t>mmu00514 Other types of O-glycan biosynthesis</t>
-  </si>
-  <si>
-    <t>mmu00860 Porphyrin and chlorophyll metabolism</t>
-  </si>
-  <si>
-    <t>mmu00061 Fatty acid biosynthesis</t>
-  </si>
-  <si>
-    <t>mmu00640 Propanoate metabolism</t>
-  </si>
-  <si>
-    <t>mmu00532 Glycosaminoglycan biosynthesis - chondroitin sulfate</t>
-  </si>
-  <si>
-    <t>mmu00120 Primary bile acid biosynthesis</t>
-  </si>
-  <si>
-    <t>mmu03022 Basal transcription factors</t>
-  </si>
-  <si>
-    <t>mmu00290 Valine, leucine and isoleucine biosynthesis</t>
-  </si>
-  <si>
-    <t>mmu00970 Aminoacyl-tRNA biosynthesis</t>
-  </si>
-  <si>
-    <t>mmu00410 beta-Alanine metabolism</t>
-  </si>
-  <si>
-    <t>mmu00770 Pantothenate and CoA biosynthesis</t>
-  </si>
-  <si>
-    <t>mmu04340 Hedgehog signaling pathway</t>
-  </si>
-  <si>
-    <t>mmu03050 Proteasome</t>
-  </si>
-  <si>
-    <t>mmu04710 Circadian rhythm - mammal</t>
-  </si>
-  <si>
-    <t>mmu00750 Vitamin B6 metabolism</t>
-  </si>
-  <si>
-    <t>mmu00760 Nicotinate and nicotinamide metabolism</t>
-  </si>
-  <si>
-    <t>mmu04742 Taste transduction</t>
-  </si>
-  <si>
-    <t>mmu04962 Vasopressin-regulated water reabsorption</t>
-  </si>
-  <si>
-    <t>mmu00020 Citrate cycle (TCA cycle)</t>
-  </si>
-  <si>
-    <t>mmu04964 Proximal tubule bicarbonate reclamation</t>
-  </si>
-  <si>
-    <t>mmu00730 Thiamine metabolism</t>
-  </si>
-  <si>
-    <t>mmu04140 Regulation of autophagy</t>
-  </si>
-  <si>
-    <t>mmu04150 mTOR signaling pathway</t>
-  </si>
-  <si>
-    <t>mmu03030 DNA replication</t>
-  </si>
-  <si>
-    <t>mmu03420 Nucleotide excision repair</t>
-  </si>
-  <si>
-    <t>mmu03430 Mismatch repair</t>
-  </si>
-  <si>
-    <t>mmu01040 Biosynthesis of unsaturated fatty acids</t>
-  </si>
-  <si>
-    <t>mmu00310 Lysine degradation</t>
-  </si>
-  <si>
-    <t>mmu00450 Selenocompound metabolism</t>
-  </si>
-  <si>
-    <t>mmu04960 Aldosterone-regulated sodium reabsorption</t>
-  </si>
-  <si>
-    <t>mmu00460 Cyanoamino acid metabolism</t>
-  </si>
-  <si>
-    <t>mmu00601 Glycosphingolipid biosynthesis - lacto and neolacto series</t>
-  </si>
-  <si>
-    <t>mmu00512 Mucin type O-Glycan biosynthesis</t>
-  </si>
-  <si>
-    <t>mmu00533 Glycosaminoglycan biosynthesis - keratan sulfate</t>
-  </si>
-  <si>
-    <t>mmu00531 Glycosaminoglycan degradation</t>
-  </si>
-  <si>
-    <t>mmu00340 Histidine metabolism</t>
-  </si>
-  <si>
-    <t>mmu04975 Fat digestion and absorption</t>
-  </si>
-  <si>
-    <t>mmu00511 Other glycan degradation</t>
-  </si>
-  <si>
-    <t>mmu00790 Folate biosynthesis</t>
-  </si>
-  <si>
-    <t>mmu00563 Glycosylphosphatidylinositol(GPI)-anchor biosynthesis</t>
-  </si>
-  <si>
-    <t>mmu00630 Glyoxylate and dicarboxylate metabolism</t>
-  </si>
-  <si>
-    <t>mmu00300 Lysine biosynthesis</t>
-  </si>
-  <si>
-    <t>mmu04966 Collecting duct acid secretion</t>
-  </si>
-  <si>
-    <t>mmu00780 Biotin metabolism</t>
-  </si>
-  <si>
-    <t>mmu00604 Glycosphingolipid biosynthesis - ganglio series</t>
-  </si>
-  <si>
-    <t>mmu04614 Renin-angiotensin system</t>
-  </si>
-  <si>
-    <t>mmu00592 alpha-Linolenic acid metabolism</t>
-  </si>
-  <si>
-    <t>mmu03440 Homologous recombination</t>
-  </si>
-  <si>
-    <t>mmu03410 Base excision repair</t>
-  </si>
-  <si>
-    <t>mmu00600 Sphingolipid metabolism</t>
-  </si>
-  <si>
-    <t>mmu00603 Glycosphingolipid biosynthesis - globo series</t>
-  </si>
-  <si>
-    <t>mmu04977 Vitamin digestion and absorption</t>
-  </si>
-  <si>
-    <t>mmu00534 Glycosaminoglycan biosynthesis - heparan sulfate</t>
-  </si>
-  <si>
-    <t>mmu00430 Taurine and hypotaurine metabolism</t>
-  </si>
-  <si>
-    <t>mmu04130 SNARE interactions in vesicular transport</t>
   </si>
   <si>
     <t>mmu00130 Ubiquinone and other terpenoid-quinone biosynthesis</t>
@@ -685,46 +685,46 @@
         <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>2.8334433763779085E-6</v>
+        <v>0.0021645548800009445</v>
       </c>
       <c r="C2" t="n">
-        <v>4.771222365560649</v>
+        <v>2.974182281735053</v>
       </c>
       <c r="D2" t="n">
-        <v>2.833443376377905E-6</v>
+        <v>0.0021645548800009475</v>
       </c>
       <c r="E2" t="n">
-        <v>2.1250825322834287E-4</v>
+        <v>0.04978476224002179</v>
       </c>
       <c r="F2" t="n">
-        <v>56.0</v>
+        <v>38.0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.8334433763779068E-6</v>
+        <v>0.002164554880000944</v>
       </c>
       <c r="H2" t="n">
-        <v>9.436939132823443E-4</v>
+        <v>0.242419146840848</v>
       </c>
       <c r="I2" t="n">
-        <v>-3.661442162663987</v>
+        <v>-0.706771790220182</v>
       </c>
       <c r="J2" t="n">
-        <v>9.436939132823437E-4</v>
+        <v>0.24241914684084806</v>
       </c>
       <c r="K2" t="n">
-        <v>0.07077704349617578</v>
+        <v>0.9978354451199991</v>
       </c>
       <c r="L2" t="n">
-        <v>13.0</v>
+        <v>17.0</v>
       </c>
       <c r="M2" t="n">
-        <v>9.436939132823444E-4</v>
+        <v>0.24241914684084803</v>
       </c>
       <c r="N2" t="n">
-        <v>4.771222365560649</v>
+        <v>2.974182281735053</v>
       </c>
       <c r="O2" t="n">
-        <v>4.771222365560649</v>
+        <v>2.974182281735053</v>
       </c>
     </row>
     <row r="3">
@@ -732,46 +732,46 @@
         <v>15</v>
       </c>
       <c r="B3" t="n">
-        <v>1.6991198245468595E-5</v>
+        <v>0.00559808091314273</v>
       </c>
       <c r="C3" t="n">
-        <v>4.399553665144085</v>
+        <v>2.6601620786840297</v>
       </c>
       <c r="D3" t="n">
-        <v>1.699119824546864E-5</v>
+        <v>0.005598080913142739</v>
       </c>
       <c r="E3" t="n">
-        <v>6.37169934205074E-4</v>
+        <v>0.06437793050114149</v>
       </c>
       <c r="F3" t="n">
-        <v>40.0</v>
+        <v>24.0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.699119824546858E-5</v>
+        <v>0.00559808091314273</v>
       </c>
       <c r="H3" t="n">
-        <v>0.042894625325027726</v>
+        <v>0.372429292731139</v>
       </c>
       <c r="I3" t="n">
-        <v>-1.8266032541875314</v>
+        <v>-0.32740323820712386</v>
       </c>
       <c r="J3" t="n">
-        <v>0.04289462532502775</v>
+        <v>0.372429292731139</v>
       </c>
       <c r="K3" t="n">
-        <v>0.9999971665566236</v>
+        <v>0.9978354451199991</v>
       </c>
       <c r="L3" t="n">
-        <v>12.0</v>
+        <v>24.0</v>
       </c>
       <c r="M3" t="n">
-        <v>0.042894625325027726</v>
+        <v>0.372429292731139</v>
       </c>
       <c r="N3" t="n">
-        <v>4.399553665144085</v>
+        <v>2.6601620786840297</v>
       </c>
       <c r="O3" t="n">
-        <v>4.399553665144085</v>
+        <v>2.6601620786840297</v>
       </c>
     </row>
     <row r="4">
@@ -779,46 +779,46 @@
         <v>16</v>
       </c>
       <c r="B4" t="n">
-        <v>9.929212139581359E-5</v>
+        <v>0.02036380669180709</v>
       </c>
       <c r="C4" t="n">
-        <v>3.850267432394692</v>
+        <v>2.1384494771989684</v>
       </c>
       <c r="D4" t="n">
-        <v>9.929212139581381E-5</v>
+        <v>0.020363806691807113</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0024823030348953452</v>
+        <v>0.15131563756800506</v>
       </c>
       <c r="F4" t="n">
-        <v>56.0</v>
+        <v>18.0</v>
       </c>
       <c r="G4" t="n">
-        <v>9.929212139581363E-5</v>
+        <v>0.02036380669180709</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0429974764146657</v>
+        <v>0.39121750229652286</v>
       </c>
       <c r="I4" t="n">
-        <v>-1.7630328441037073</v>
+        <v>-0.27819194446017453</v>
       </c>
       <c r="J4" t="n">
-        <v>0.042997476414665683</v>
+        <v>0.39121750229652286</v>
       </c>
       <c r="K4" t="n">
-        <v>0.9999971665566236</v>
+        <v>0.9978354451199991</v>
       </c>
       <c r="L4" t="n">
-        <v>24.0</v>
+        <v>20.0</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0429974764146657</v>
+        <v>0.39121750229652286</v>
       </c>
       <c r="N4" t="n">
-        <v>3.850267432394692</v>
+        <v>2.1384494771989684</v>
       </c>
       <c r="O4" t="n">
-        <v>3.850267432394692</v>
+        <v>2.1384494771989684</v>
       </c>
     </row>
     <row r="5">
@@ -826,46 +826,46 @@
         <v>17</v>
       </c>
       <c r="B5" t="n">
-        <v>4.272568302515251E-4</v>
+        <v>0.026315763055305228</v>
       </c>
       <c r="C5" t="n">
-        <v>3.581152684132977</v>
+        <v>1.9778524178510164</v>
       </c>
       <c r="D5" t="n">
-        <v>4.2725683025152507E-4</v>
+        <v>0.026315763055305228</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0073035380798492045</v>
+        <v>0.15131563756800506</v>
       </c>
       <c r="F5" t="n">
-        <v>23.0</v>
+        <v>35.0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.2725683025152507E-4</v>
+        <v>0.026315763055305228</v>
       </c>
       <c r="H5" t="n">
-        <v>0.056251429574039336</v>
+        <v>0.3946000510026756</v>
       </c>
       <c r="I5" t="n">
-        <v>-1.6143046804541665</v>
+        <v>-0.2710962820511405</v>
       </c>
       <c r="J5" t="n">
-        <v>0.05625142957403937</v>
+        <v>0.39460005100267564</v>
       </c>
       <c r="K5" t="n">
-        <v>0.9999971665566236</v>
+        <v>0.9978354451199991</v>
       </c>
       <c r="L5" t="n">
-        <v>29.0</v>
+        <v>12.0</v>
       </c>
       <c r="M5" t="n">
-        <v>0.05625142957403933</v>
+        <v>0.3946000510026756</v>
       </c>
       <c r="N5" t="n">
-        <v>3.581152684132977</v>
+        <v>1.9778524178510164</v>
       </c>
       <c r="O5" t="n">
-        <v>3.581152684132977</v>
+        <v>1.9778524178510164</v>
       </c>
     </row>
     <row r="6">
@@ -873,46 +873,46 @@
         <v>18</v>
       </c>
       <c r="B6" t="n">
-        <v>5.740744654688627E-4</v>
+        <v>0.037314082815582454</v>
       </c>
       <c r="C6" t="n">
-        <v>3.4020838920899727</v>
+        <v>1.8416368995799601</v>
       </c>
       <c r="D6" t="n">
-        <v>5.740744654688634E-4</v>
+        <v>0.03731408281558247</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0073035380798492045</v>
+        <v>0.16410080358371898</v>
       </c>
       <c r="F6" t="n">
-        <v>35.0</v>
+        <v>18.0</v>
       </c>
       <c r="G6" t="n">
-        <v>5.740744654688627E-4</v>
+        <v>0.03731408281558246</v>
       </c>
       <c r="H6" t="n">
-        <v>0.07557849535008587</v>
+        <v>0.48226176531027337</v>
       </c>
       <c r="I6" t="n">
-        <v>-1.4477282845871748</v>
+        <v>-0.044732943620548755</v>
       </c>
       <c r="J6" t="n">
-        <v>0.07557849535008589</v>
+        <v>0.48226176531027337</v>
       </c>
       <c r="K6" t="n">
-        <v>0.9999971665566236</v>
+        <v>0.9978354451199991</v>
       </c>
       <c r="L6" t="n">
-        <v>49.0</v>
+        <v>24.0</v>
       </c>
       <c r="M6" t="n">
-        <v>0.07557849535008587</v>
+        <v>0.48226176531027337</v>
       </c>
       <c r="N6" t="n">
-        <v>3.4020838920899727</v>
+        <v>1.8416368995799601</v>
       </c>
       <c r="O6" t="n">
-        <v>3.4020838920899727</v>
+        <v>1.8416368995799601</v>
       </c>
     </row>
     <row r="7">
@@ -920,46 +920,46 @@
         <v>19</v>
       </c>
       <c r="B7" t="n">
-        <v>5.842830463879365E-4</v>
+        <v>0.042808905282709295</v>
       </c>
       <c r="C7" t="n">
-        <v>3.4712980108371707</v>
+        <v>1.7841303003271565</v>
       </c>
       <c r="D7" t="n">
-        <v>5.842830463879364E-4</v>
+        <v>0.042808905282709295</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0073035380798492045</v>
+        <v>0.16410080358371898</v>
       </c>
       <c r="F7" t="n">
-        <v>25.0</v>
+        <v>22.0</v>
       </c>
       <c r="G7" t="n">
-        <v>5.842830463879366E-4</v>
+        <v>0.0428089052827093</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1286156165535092</v>
+        <v>0.5350522385037293</v>
       </c>
       <c r="I7" t="n">
-        <v>-1.1759971386865222</v>
+        <v>0.08954358024155014</v>
       </c>
       <c r="J7" t="n">
-        <v>0.12861561655350917</v>
+        <v>0.5350522385037293</v>
       </c>
       <c r="K7" t="n">
-        <v>0.9999971665566236</v>
+        <v>0.9978354451199991</v>
       </c>
       <c r="L7" t="n">
-        <v>11.0</v>
+        <v>10.0</v>
       </c>
       <c r="M7" t="n">
-        <v>0.1286156165535092</v>
+        <v>0.5350522385037293</v>
       </c>
       <c r="N7" t="n">
-        <v>3.4712980108371707</v>
+        <v>1.7841303003271565</v>
       </c>
       <c r="O7" t="n">
-        <v>3.4712980108371707</v>
+        <v>1.7841303003271565</v>
       </c>
     </row>
     <row r="8">
@@ -967,46 +967,46 @@
         <v>20</v>
       </c>
       <c r="B8" t="n">
-        <v>0.001196658141612077</v>
+        <v>0.05484425134342511</v>
       </c>
       <c r="C8" t="n">
-        <v>3.14128647746583</v>
+        <v>1.6702894897038305</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0011966581416120758</v>
+        <v>0.05484425134342511</v>
       </c>
       <c r="E8" t="n">
-        <v>0.012821337231557954</v>
+        <v>0.1802025401283968</v>
       </c>
       <c r="F8" t="n">
-        <v>41.0</v>
+        <v>19.0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0011966581416120775</v>
+        <v>0.05484425134342512</v>
       </c>
       <c r="H8" t="n">
-        <v>0.13105378744335375</v>
+        <v>0.6193716905939924</v>
       </c>
       <c r="I8" t="n">
-        <v>-1.1334208529818475</v>
+        <v>0.308502888989033</v>
       </c>
       <c r="J8" t="n">
-        <v>0.13105378744335375</v>
+        <v>0.6193716905939924</v>
       </c>
       <c r="K8" t="n">
-        <v>0.9999971665566236</v>
+        <v>0.9978354451199991</v>
       </c>
       <c r="L8" t="n">
-        <v>29.0</v>
+        <v>13.0</v>
       </c>
       <c r="M8" t="n">
-        <v>0.13105378744335375</v>
+        <v>0.6193716905939924</v>
       </c>
       <c r="N8" t="n">
-        <v>3.14128647746583</v>
+        <v>1.6702894897038305</v>
       </c>
       <c r="O8" t="n">
-        <v>3.14128647746583</v>
+        <v>1.6702894897038305</v>
       </c>
     </row>
     <row r="9">
@@ -1014,46 +1014,46 @@
         <v>21</v>
       </c>
       <c r="B9" t="n">
-        <v>0.001880323260300986</v>
+        <v>0.08816813414505281</v>
       </c>
       <c r="C9" t="n">
-        <v>3.027248598828736</v>
+        <v>1.3763647734065514</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0018803232603009827</v>
+        <v>0.08816813414505278</v>
       </c>
       <c r="E9" t="n">
-        <v>0.017628030565321712</v>
+        <v>0.24464731501973405</v>
       </c>
       <c r="F9" t="n">
-        <v>29.0</v>
+        <v>23.0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0018803232603009856</v>
+        <v>0.08816813414505283</v>
       </c>
       <c r="H9" t="n">
-        <v>0.15615856386542362</v>
+        <v>0.7324064666441827</v>
       </c>
       <c r="I9" t="n">
-        <v>-1.026810840399498</v>
+        <v>0.6318445889406872</v>
       </c>
       <c r="J9" t="n">
-        <v>0.15615856386542354</v>
+        <v>0.7324064666441827</v>
       </c>
       <c r="K9" t="n">
-        <v>0.9999971665566236</v>
+        <v>0.9978354451199991</v>
       </c>
       <c r="L9" t="n">
-        <v>18.0</v>
+        <v>12.0</v>
       </c>
       <c r="M9" t="n">
-        <v>0.15615856386542362</v>
+        <v>0.7324064666441827</v>
       </c>
       <c r="N9" t="n">
-        <v>3.027248598828736</v>
+        <v>1.3763647734065514</v>
       </c>
       <c r="O9" t="n">
-        <v>3.027248598828736</v>
+        <v>1.3763647734065514</v>
       </c>
     </row>
     <row r="10">
@@ -1061,46 +1061,46 @@
         <v>22</v>
       </c>
       <c r="B10" t="n">
-        <v>0.004515704224588971</v>
+        <v>0.0997876162878468</v>
       </c>
       <c r="C10" t="n">
-        <v>2.738313036333773</v>
+        <v>1.3104874140285687</v>
       </c>
       <c r="D10" t="n">
-        <v>0.004515704224588979</v>
+        <v>0.09978761628784678</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0376308685382415</v>
+        <v>0.24464731501973405</v>
       </c>
       <c r="F10" t="n">
-        <v>22.0</v>
+        <v>19.0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0045157042245889695</v>
+        <v>0.0997876162878468</v>
       </c>
       <c r="H10" t="n">
-        <v>0.15974747287546798</v>
+        <v>0.7484767000128747</v>
       </c>
       <c r="I10" t="n">
-        <v>-1.0103869320772592</v>
+        <v>0.680503072040296</v>
       </c>
       <c r="J10" t="n">
-        <v>0.15974747287546803</v>
+        <v>0.7484767000128747</v>
       </c>
       <c r="K10" t="n">
-        <v>0.9999971665566236</v>
+        <v>0.9978354451199991</v>
       </c>
       <c r="L10" t="n">
-        <v>18.0</v>
+        <v>17.0</v>
       </c>
       <c r="M10" t="n">
-        <v>0.15974747287546798</v>
+        <v>0.7484767000128747</v>
       </c>
       <c r="N10" t="n">
-        <v>2.738313036333773</v>
+        <v>1.3104874140285687</v>
       </c>
       <c r="O10" t="n">
-        <v>2.738313036333773</v>
+        <v>1.3104874140285687</v>
       </c>
     </row>
     <row r="11">
@@ -1108,46 +1108,46 @@
         <v>23</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0070097232517823006</v>
+        <v>0.10636839783466699</v>
       </c>
       <c r="C11" t="n">
-        <v>2.663388811515895</v>
+        <v>1.2801214812305886</v>
       </c>
       <c r="D11" t="n">
-        <v>0.007009723251782313</v>
+        <v>0.10636839783466699</v>
       </c>
       <c r="E11" t="n">
-        <v>0.052572924388367345</v>
+        <v>0.24464731501973405</v>
       </c>
       <c r="F11" t="n">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.007009723251782299</v>
+        <v>0.10636839783466698</v>
       </c>
       <c r="H11" t="n">
-        <v>0.19899523707106884</v>
+        <v>0.7678530028156347</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.8562084577473522</v>
+        <v>0.7384739204100852</v>
       </c>
       <c r="J11" t="n">
-        <v>0.19899523707106886</v>
+        <v>0.7678530028156347</v>
       </c>
       <c r="K11" t="n">
-        <v>0.9999971665566236</v>
+        <v>0.9978354451199991</v>
       </c>
       <c r="L11" t="n">
-        <v>20.0</v>
+        <v>23.0</v>
       </c>
       <c r="M11" t="n">
-        <v>0.19899523707106886</v>
+        <v>0.7678530028156347</v>
       </c>
       <c r="N11" t="n">
-        <v>2.663388811515895</v>
+        <v>1.2801214812305886</v>
       </c>
       <c r="O11" t="n">
-        <v>2.663388811515895</v>
+        <v>1.2801214812305886</v>
       </c>
     </row>
     <row r="12">
@@ -1155,46 +1155,46 @@
         <v>24</v>
       </c>
       <c r="B12" t="n">
-        <v>0.008709696340773341</v>
+        <v>0.15006216779187379</v>
       </c>
       <c r="C12" t="n">
-        <v>2.4387919150153294</v>
+        <v>1.0539159720547253</v>
       </c>
       <c r="D12" t="n">
-        <v>0.008709696340773346</v>
+        <v>0.15006216779187373</v>
       </c>
       <c r="E12" t="n">
-        <v>0.05938429323254554</v>
+        <v>0.31376635083755416</v>
       </c>
       <c r="F12" t="n">
-        <v>35.0</v>
+        <v>19.0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.008709696340773341</v>
+        <v>0.15006216779187379</v>
       </c>
       <c r="H12" t="n">
-        <v>0.22182225960968568</v>
+        <v>0.7800503458721973</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.7815739655210661</v>
+        <v>0.7811795185608702</v>
       </c>
       <c r="J12" t="n">
-        <v>0.22182225960968568</v>
+        <v>0.7800503458721972</v>
       </c>
       <c r="K12" t="n">
-        <v>0.9999971665566236</v>
+        <v>0.9978354451199991</v>
       </c>
       <c r="L12" t="n">
-        <v>13.0</v>
+        <v>21.0</v>
       </c>
       <c r="M12" t="n">
-        <v>0.22182225960968566</v>
+        <v>0.7800503458721973</v>
       </c>
       <c r="N12" t="n">
-        <v>2.4387919150153294</v>
+        <v>1.0539159720547253</v>
       </c>
       <c r="O12" t="n">
-        <v>2.4387919150153294</v>
+        <v>1.0539159720547253</v>
       </c>
     </row>
     <row r="13">
@@ -1202,46 +1202,46 @@
         <v>25</v>
       </c>
       <c r="B13" t="n">
-        <v>0.011672732139069397</v>
+        <v>0.17170905200785164</v>
       </c>
       <c r="C13" t="n">
-        <v>2.3323008803174647</v>
+        <v>0.9599193709364058</v>
       </c>
       <c r="D13" t="n">
-        <v>0.011672732139069419</v>
+        <v>0.17170905200785153</v>
       </c>
       <c r="E13" t="n">
-        <v>0.07295457586918387</v>
+        <v>0.3291090163483821</v>
       </c>
       <c r="F13" t="n">
-        <v>29.0</v>
+        <v>20.0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.011672732139069398</v>
+        <v>0.17170905200785164</v>
       </c>
       <c r="H13" t="n">
-        <v>0.23819172171484834</v>
+        <v>0.8282909479921483</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.7196756552804539</v>
+        <v>0.9599193709364058</v>
       </c>
       <c r="J13" t="n">
-        <v>0.23819172171484837</v>
+        <v>0.8282909479921483</v>
       </c>
       <c r="K13" t="n">
-        <v>0.9999971665566236</v>
+        <v>0.9978354451199991</v>
       </c>
       <c r="L13" t="n">
         <v>20.0</v>
       </c>
       <c r="M13" t="n">
-        <v>0.23819172171484837</v>
+        <v>0.8282909479921483</v>
       </c>
       <c r="N13" t="n">
-        <v>2.3323008803174647</v>
+        <v>0.9599193709364058</v>
       </c>
       <c r="O13" t="n">
-        <v>2.3323008803174647</v>
+        <v>0.9599193709364058</v>
       </c>
     </row>
     <row r="14">
@@ -1249,46 +1249,46 @@
         <v>26</v>
       </c>
       <c r="B14" t="n">
-        <v>0.021378141274964013</v>
+        <v>0.21994965412780265</v>
       </c>
       <c r="C14" t="n">
-        <v>2.0833282929605828</v>
+        <v>0.7811795185608702</v>
       </c>
       <c r="D14" t="n">
-        <v>0.02137814127496405</v>
+        <v>0.2199496541278027</v>
       </c>
       <c r="E14" t="n">
-        <v>0.11583319158030235</v>
+        <v>0.3813843525171715</v>
       </c>
       <c r="F14" t="n">
-        <v>26.0</v>
+        <v>21.0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02137814127496401</v>
+        <v>0.21994965412780265</v>
       </c>
       <c r="H14" t="n">
-        <v>0.2397228867217693</v>
+        <v>0.8499378322081262</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.713348145511928</v>
+        <v>1.0539159720547253</v>
       </c>
       <c r="J14" t="n">
-        <v>0.23972288672176917</v>
+        <v>0.8499378322081262</v>
       </c>
       <c r="K14" t="n">
-        <v>0.9999971665566236</v>
+        <v>0.9978354451199991</v>
       </c>
       <c r="L14" t="n">
-        <v>24.0</v>
+        <v>19.0</v>
       </c>
       <c r="M14" t="n">
-        <v>0.23972288672176928</v>
+        <v>0.8499378322081262</v>
       </c>
       <c r="N14" t="n">
-        <v>2.0833282929605828</v>
+        <v>0.7811795185608702</v>
       </c>
       <c r="O14" t="n">
-        <v>2.0833282929605828</v>
+        <v>0.7811795185608702</v>
       </c>
     </row>
     <row r="15">
@@ -1296,46 +1296,46 @@
         <v>27</v>
       </c>
       <c r="B15" t="n">
-        <v>0.02162219576165643</v>
+        <v>0.23214699718436524</v>
       </c>
       <c r="C15" t="n">
-        <v>2.0979048758747694</v>
+        <v>0.7384739204100852</v>
       </c>
       <c r="D15" t="n">
-        <v>0.02162219576165644</v>
+        <v>0.23214699718436527</v>
       </c>
       <c r="E15" t="n">
-        <v>0.11583319158030235</v>
+        <v>0.3813843525171715</v>
       </c>
       <c r="F15" t="n">
-        <v>19.0</v>
+        <v>23.0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.021622195761656426</v>
+        <v>0.2321469971843652</v>
       </c>
       <c r="H15" t="n">
-        <v>0.2956196041001026</v>
+        <v>0.893631602165333</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.5450529429653002</v>
+        <v>1.2801214812305886</v>
       </c>
       <c r="J15" t="n">
-        <v>0.2956196041001026</v>
+        <v>0.893631602165333</v>
       </c>
       <c r="K15" t="n">
-        <v>0.9999971665566236</v>
+        <v>0.9978354451199991</v>
       </c>
       <c r="L15" t="n">
-        <v>12.0</v>
+        <v>15.0</v>
       </c>
       <c r="M15" t="n">
-        <v>0.2956196041001026</v>
+        <v>0.893631602165333</v>
       </c>
       <c r="N15" t="n">
-        <v>2.0979048758747694</v>
+        <v>0.7384739204100852</v>
       </c>
       <c r="O15" t="n">
-        <v>2.0979048758747694</v>
+        <v>0.7384739204100852</v>
       </c>
     </row>
     <row r="16">
@@ -1343,46 +1343,46 @@
         <v>28</v>
       </c>
       <c r="B16" t="n">
-        <v>0.028432778877787432</v>
+        <v>0.25152329998712525</v>
       </c>
       <c r="C16" t="n">
-        <v>1.9495073598192059</v>
+        <v>0.680503072040296</v>
       </c>
       <c r="D16" t="n">
-        <v>0.02843277887778744</v>
+        <v>0.25152329998712525</v>
       </c>
       <c r="E16" t="n">
-        <v>0.13370024382084397</v>
+        <v>0.3846657041989873</v>
       </c>
       <c r="F16" t="n">
-        <v>27.0</v>
+        <v>17.0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.02843277887778744</v>
+        <v>0.25152329998712525</v>
       </c>
       <c r="H16" t="n">
-        <v>0.32214916085764084</v>
+        <v>0.9002123837121532</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.4652317305469343</v>
+        <v>1.3104874140285687</v>
       </c>
       <c r="J16" t="n">
-        <v>0.3221491608576409</v>
+        <v>0.9002123837121532</v>
       </c>
       <c r="K16" t="n">
-        <v>0.9999971665566236</v>
+        <v>0.9978354451199991</v>
       </c>
       <c r="L16" t="n">
-        <v>22.0</v>
+        <v>19.0</v>
       </c>
       <c r="M16" t="n">
-        <v>0.3221491608576409</v>
+        <v>0.9002123837121532</v>
       </c>
       <c r="N16" t="n">
-        <v>1.9495073598192059</v>
+        <v>0.680503072040296</v>
       </c>
       <c r="O16" t="n">
-        <v>1.9495073598192059</v>
+        <v>0.680503072040296</v>
       </c>
     </row>
     <row r="17">
@@ -1390,46 +1390,46 @@
         <v>29</v>
       </c>
       <c r="B17" t="n">
-        <v>0.029915734606989285</v>
+        <v>0.26759353335581726</v>
       </c>
       <c r="C17" t="n">
-        <v>1.908033070554448</v>
+        <v>0.6318445889406872</v>
       </c>
       <c r="D17" t="n">
-        <v>0.02991573460698928</v>
+        <v>0.26759353335581726</v>
       </c>
       <c r="E17" t="n">
-        <v>0.13370024382084397</v>
+        <v>0.3846657041989873</v>
       </c>
       <c r="F17" t="n">
-        <v>43.0</v>
+        <v>12.0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.029915734606989288</v>
+        <v>0.26759353335581726</v>
       </c>
       <c r="H17" t="n">
-        <v>0.32314360449938606</v>
+        <v>0.9118318658549471</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.4636064705261228</v>
+        <v>1.3763647734065514</v>
       </c>
       <c r="J17" t="n">
-        <v>0.32314360449938606</v>
+        <v>0.9118318658549471</v>
       </c>
       <c r="K17" t="n">
-        <v>0.9999971665566236</v>
+        <v>0.9978354451199991</v>
       </c>
       <c r="L17" t="n">
-        <v>17.0</v>
+        <v>23.0</v>
       </c>
       <c r="M17" t="n">
-        <v>0.32314360449938606</v>
+        <v>0.9118318658549471</v>
       </c>
       <c r="N17" t="n">
-        <v>1.908033070554448</v>
+        <v>0.6318445889406872</v>
       </c>
       <c r="O17" t="n">
-        <v>1.908033070554448</v>
+        <v>0.6318445889406872</v>
       </c>
     </row>
     <row r="18">
@@ -1437,46 +1437,46 @@
         <v>30</v>
       </c>
       <c r="B18" t="n">
-        <v>0.03041585715540295</v>
+        <v>0.38062830940600756</v>
       </c>
       <c r="C18" t="n">
-        <v>2.0334454463007203</v>
+        <v>0.308502888989033</v>
       </c>
       <c r="D18" t="n">
-        <v>0.03041585715540296</v>
+        <v>0.38062830940600756</v>
       </c>
       <c r="E18" t="n">
-        <v>0.13370024382084397</v>
+        <v>0.514967712725775</v>
       </c>
       <c r="F18" t="n">
         <v>13.0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.030415857155402952</v>
+        <v>0.38062830940600756</v>
       </c>
       <c r="H18" t="n">
-        <v>0.32396726647078333</v>
+        <v>0.9451557486565749</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.46188006731213244</v>
+        <v>1.6702894897038305</v>
       </c>
       <c r="J18" t="n">
-        <v>0.32396726647078344</v>
+        <v>0.9451557486565749</v>
       </c>
       <c r="K18" t="n">
-        <v>0.9999971665566236</v>
+        <v>0.9978354451199991</v>
       </c>
       <c r="L18" t="n">
-        <v>15.0</v>
+        <v>19.0</v>
       </c>
       <c r="M18" t="n">
-        <v>0.32396726647078333</v>
+        <v>0.9451557486565749</v>
       </c>
       <c r="N18" t="n">
-        <v>2.0334454463007203</v>
+        <v>0.308502888989033</v>
       </c>
       <c r="O18" t="n">
-        <v>2.0334454463007203</v>
+        <v>0.308502888989033</v>
       </c>
     </row>
     <row r="19">
@@ -1484,46 +1484,46 @@
         <v>31</v>
       </c>
       <c r="B19" t="n">
-        <v>0.03378422614137878</v>
+        <v>0.46494776149627076</v>
       </c>
       <c r="C19" t="n">
-        <v>1.902921612466633</v>
+        <v>0.08954358024155014</v>
       </c>
       <c r="D19" t="n">
-        <v>0.03378422614137879</v>
+        <v>0.46494776149627076</v>
       </c>
       <c r="E19" t="n">
-        <v>0.13370024382084397</v>
+        <v>0.594099917467457</v>
       </c>
       <c r="F19" t="n">
-        <v>18.0</v>
+        <v>10.0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.033784226141378784</v>
+        <v>0.46494776149627076</v>
       </c>
       <c r="H19" t="n">
-        <v>0.3325714798654749</v>
+        <v>0.9571910947172907</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.43577287685023397</v>
+        <v>1.7841303003271565</v>
       </c>
       <c r="J19" t="n">
-        <v>0.33257147986547486</v>
+        <v>0.9571910947172907</v>
       </c>
       <c r="K19" t="n">
-        <v>0.9999971665566236</v>
+        <v>0.9978354451199991</v>
       </c>
       <c r="L19" t="n">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="M19" t="n">
-        <v>0.33257147986547486</v>
+        <v>0.9571910947172907</v>
       </c>
       <c r="N19" t="n">
-        <v>1.902921612466633</v>
+        <v>0.08954358024155014</v>
       </c>
       <c r="O19" t="n">
-        <v>1.902921612466633</v>
+        <v>0.08954358024155014</v>
       </c>
     </row>
     <row r="20">
@@ -1531,46 +1531,46 @@
         <v>32</v>
       </c>
       <c r="B20" t="n">
-        <v>0.03387072843461379</v>
+        <v>0.5177382346897266</v>
       </c>
       <c r="C20" t="n">
-        <v>1.8532526699878462</v>
+        <v>-0.044732943620548755</v>
       </c>
       <c r="D20" t="n">
-        <v>0.033870728434613806</v>
+        <v>0.5177382346897266</v>
       </c>
       <c r="E20" t="n">
-        <v>0.13370024382084397</v>
+        <v>0.6267357577823006</v>
       </c>
       <c r="F20" t="n">
-        <v>39.0</v>
+        <v>24.0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0338707284346138</v>
+        <v>0.5177382346897266</v>
       </c>
       <c r="H20" t="n">
-        <v>0.381190039861578</v>
+        <v>0.9626859171844175</v>
       </c>
       <c r="I20" t="n">
-        <v>-0.3043380773008904</v>
+        <v>1.8416368995799601</v>
       </c>
       <c r="J20" t="n">
-        <v>0.381190039861578</v>
+        <v>0.9626859171844175</v>
       </c>
       <c r="K20" t="n">
-        <v>0.9999971665566236</v>
+        <v>0.9978354451199991</v>
       </c>
       <c r="L20" t="n">
-        <v>22.0</v>
+        <v>18.0</v>
       </c>
       <c r="M20" t="n">
-        <v>0.381190039861578</v>
+        <v>0.9626859171844175</v>
       </c>
       <c r="N20" t="n">
-        <v>1.8532526699878462</v>
+        <v>-0.044732943620548755</v>
       </c>
       <c r="O20" t="n">
-        <v>1.8532526699878462</v>
+        <v>-0.044732943620548755</v>
       </c>
     </row>
     <row r="21">
@@ -1578,46 +1578,46 @@
         <v>33</v>
       </c>
       <c r="B21" t="n">
-        <v>0.04169080547709689</v>
+        <v>0.6053999489973244</v>
       </c>
       <c r="C21" t="n">
-        <v>1.853316693636629</v>
+        <v>-0.2710962820511405</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0416908054770969</v>
+        <v>0.6053999489973244</v>
       </c>
       <c r="E21" t="n">
-        <v>0.15634052053911338</v>
+        <v>0.6560966485083547</v>
       </c>
       <c r="F21" t="n">
-        <v>13.0</v>
+        <v>12.0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04169080547709688</v>
+        <v>0.6053999489973244</v>
       </c>
       <c r="H21" t="n">
-        <v>0.40237763985984865</v>
+        <v>0.9736842369446947</v>
       </c>
       <c r="I21" t="n">
-        <v>-0.24921750931820985</v>
+        <v>1.9778524178510164</v>
       </c>
       <c r="J21" t="n">
-        <v>0.40237763985984865</v>
+        <v>0.9736842369446947</v>
       </c>
       <c r="K21" t="n">
-        <v>0.9999971665566236</v>
+        <v>0.9978354451199991</v>
       </c>
       <c r="L21" t="n">
-        <v>18.0</v>
+        <v>35.0</v>
       </c>
       <c r="M21" t="n">
-        <v>0.40237763985984865</v>
+        <v>0.9736842369446947</v>
       </c>
       <c r="N21" t="n">
-        <v>1.853316693636629</v>
+        <v>-0.2710962820511405</v>
       </c>
       <c r="O21" t="n">
-        <v>1.853316693636629</v>
+        <v>-0.2710962820511405</v>
       </c>
     </row>
     <row r="22">
@@ -1625,46 +1625,46 @@
         <v>34</v>
       </c>
       <c r="B22" t="n">
-        <v>0.056243555127652785</v>
+        <v>0.6087824977034771</v>
       </c>
       <c r="C22" t="n">
-        <v>1.6314455165487978</v>
+        <v>-0.27819194446017453</v>
       </c>
       <c r="D22" t="n">
-        <v>0.05624355512765281</v>
+        <v>0.6087824977034771</v>
       </c>
       <c r="E22" t="n">
-        <v>0.2008698397416172</v>
+        <v>0.6560966485083547</v>
       </c>
       <c r="F22" t="n">
         <v>20.0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.056243555127652785</v>
+        <v>0.6087824977034771</v>
       </c>
       <c r="H22" t="n">
-        <v>0.4173000639007685</v>
+        <v>0.979636193308193</v>
       </c>
       <c r="I22" t="n">
-        <v>-0.21129810510703778</v>
+        <v>2.1384494771989684</v>
       </c>
       <c r="J22" t="n">
-        <v>0.4173000639007685</v>
+        <v>0.979636193308193</v>
       </c>
       <c r="K22" t="n">
-        <v>0.9999971665566236</v>
+        <v>0.9978354451199991</v>
       </c>
       <c r="L22" t="n">
-        <v>12.0</v>
+        <v>18.0</v>
       </c>
       <c r="M22" t="n">
-        <v>0.4173000639007685</v>
+        <v>0.979636193308193</v>
       </c>
       <c r="N22" t="n">
-        <v>1.6314455165487978</v>
+        <v>-0.27819194446017453</v>
       </c>
       <c r="O22" t="n">
-        <v>1.6314455165487978</v>
+        <v>-0.27819194446017453</v>
       </c>
     </row>
     <row r="23">
@@ -1672,46 +1672,46 @@
         <v>35</v>
       </c>
       <c r="B23" t="n">
-        <v>0.06039823278627834</v>
+        <v>0.627570707268861</v>
       </c>
       <c r="C23" t="n">
-        <v>1.5881529707199629</v>
+        <v>-0.32740323820712386</v>
       </c>
       <c r="D23" t="n">
-        <v>0.06039823278627832</v>
+        <v>0.627570707268861</v>
       </c>
       <c r="E23" t="n">
-        <v>0.20590306631685792</v>
+        <v>0.6560966485083547</v>
       </c>
       <c r="F23" t="n">
-        <v>20.0</v>
+        <v>24.0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.06039823278627834</v>
+        <v>0.627570707268861</v>
       </c>
       <c r="H23" t="n">
-        <v>0.44019745132998567</v>
+        <v>0.9944019190868573</v>
       </c>
       <c r="I23" t="n">
-        <v>-0.15190165061330735</v>
+        <v>2.6601620786840297</v>
       </c>
       <c r="J23" t="n">
-        <v>0.44019745132998567</v>
+        <v>0.9944019190868573</v>
       </c>
       <c r="K23" t="n">
-        <v>0.9999971665566236</v>
+        <v>0.9978354451199991</v>
       </c>
       <c r="L23" t="n">
-        <v>15.0</v>
+        <v>24.0</v>
       </c>
       <c r="M23" t="n">
-        <v>0.44019745132998567</v>
+        <v>0.9944019190868573</v>
       </c>
       <c r="N23" t="n">
-        <v>1.5881529707199629</v>
+        <v>-0.32740323820712386</v>
       </c>
       <c r="O23" t="n">
-        <v>1.5881529707199629</v>
+        <v>-0.32740323820712386</v>
       </c>
     </row>
     <row r="24">
@@ -1719,2490 +1719,2490 @@
         <v>36</v>
       </c>
       <c r="B24" t="n">
-        <v>0.06369053924465683</v>
+        <v>0.7575808531591519</v>
       </c>
       <c r="C24" t="n">
-        <v>1.6362528118838473</v>
+        <v>-0.706771790220182</v>
       </c>
       <c r="D24" t="n">
-        <v>0.06369053924465685</v>
+        <v>0.7575808531591519</v>
       </c>
       <c r="E24" t="n">
-        <v>0.20768654101518538</v>
+        <v>0.7575808531591519</v>
       </c>
       <c r="F24" t="n">
-        <v>11.0</v>
+        <v>17.0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.06369053924465683</v>
+        <v>0.7575808531591519</v>
       </c>
       <c r="H24" t="n">
-        <v>0.44662979566769967</v>
+        <v>0.9978354451199991</v>
       </c>
       <c r="I24" t="n">
-        <v>-0.13615323944246488</v>
+        <v>2.974182281735053</v>
       </c>
       <c r="J24" t="n">
-        <v>0.44662979566769967</v>
+        <v>0.9978354451199991</v>
       </c>
       <c r="K24" t="n">
-        <v>0.9999971665566236</v>
+        <v>0.9978354451199991</v>
       </c>
       <c r="L24" t="n">
-        <v>10.0</v>
+        <v>38.0</v>
       </c>
       <c r="M24" t="n">
-        <v>0.44662979566769967</v>
+        <v>0.9978354451199991</v>
       </c>
       <c r="N24" t="n">
-        <v>1.6362528118838473</v>
+        <v>-0.706771790220182</v>
       </c>
       <c r="O24" t="n">
-        <v>1.6362528118838473</v>
+        <v>-0.706771790220182</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
         <v>37</v>
       </c>
-      <c r="B25" t="n">
-        <v>0.07093183713703165</v>
-      </c>
-      <c r="C25" t="n">
-        <v>1.5163256382803236</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0.0709318371370317</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0.22166199105322407</v>
+      <c r="B25" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C25" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D25" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E25" t="e">
+        <v>#N/A</v>
       </c>
       <c r="F25" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0.07093183713703166</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0.44674431309503165</v>
-      </c>
-      <c r="I25" t="n">
-        <v>-0.13522066599733867</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0.44674431309503165</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0.9999971665566236</v>
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H25" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I25" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J25" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K25" t="e">
+        <v>#N/A</v>
       </c>
       <c r="L25" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0.44674431309503165</v>
-      </c>
-      <c r="N25" t="n">
-        <v>1.5163256382803236</v>
-      </c>
-      <c r="O25" t="n">
-        <v>1.5163256382803236</v>
+        <v>0.0</v>
+      </c>
+      <c r="M25" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N25" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O25" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
         <v>38</v>
       </c>
-      <c r="B26" t="n">
-        <v>0.10728695831454924</v>
-      </c>
-      <c r="C26" t="n">
-        <v>1.2481643817437542</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0.10728695831454926</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0.3218608749436478</v>
+      <c r="B26" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C26" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D26" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E26" t="e">
+        <v>#N/A</v>
       </c>
       <c r="F26" t="n">
-        <v>57.0</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0.10728695831454925</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0.46832522045969116</v>
-      </c>
-      <c r="I26" t="n">
-        <v>-0.07992628720569393</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0.46832522045969116</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0.9999971665566236</v>
+        <v>6.0</v>
+      </c>
+      <c r="G26" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H26" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I26" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J26" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K26" t="e">
+        <v>#N/A</v>
       </c>
       <c r="L26" t="n">
-        <v>27.0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0.46832522045969116</v>
-      </c>
-      <c r="N26" t="n">
-        <v>1.2481643817437542</v>
-      </c>
-      <c r="O26" t="n">
-        <v>1.2481643817437542</v>
+        <v>6.0</v>
+      </c>
+      <c r="M26" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N26" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O26" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
         <v>39</v>
       </c>
-      <c r="B27" t="n">
-        <v>0.1436012794945379</v>
-      </c>
-      <c r="C27" t="n">
-        <v>1.077985423213834</v>
-      </c>
-      <c r="D27" t="n">
-        <v>0.1436012794945379</v>
-      </c>
-      <c r="E27" t="n">
-        <v>0.4142344600803978</v>
+      <c r="B27" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C27" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D27" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E27" t="e">
+        <v>#N/A</v>
       </c>
       <c r="F27" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="G27" t="n">
-        <v>0.1436012794945379</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0.4724503916715563</v>
-      </c>
-      <c r="I27" t="n">
-        <v>-0.06982530221861719</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0.4724503916715563</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0.9999971665566236</v>
+        <v>0.0</v>
+      </c>
+      <c r="G27" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H27" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I27" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J27" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K27" t="e">
+        <v>#N/A</v>
       </c>
       <c r="L27" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0.4724503916715563</v>
-      </c>
-      <c r="N27" t="n">
-        <v>1.077985423213834</v>
-      </c>
-      <c r="O27" t="n">
-        <v>1.077985423213834</v>
+        <v>0.0</v>
+      </c>
+      <c r="M27" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N27" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O27" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
         <v>40</v>
       </c>
-      <c r="B28" t="n">
-        <v>0.17196880404271525</v>
-      </c>
-      <c r="C28" t="n">
-        <v>0.9792376933019011</v>
-      </c>
-      <c r="D28" t="n">
-        <v>0.17196880404271528</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0.43432884123019366</v>
+      <c r="B28" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C28" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D28" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E28" t="e">
+        <v>#N/A</v>
       </c>
       <c r="F28" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0.17196880404271525</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0.47665863868611835</v>
-      </c>
-      <c r="I28" t="n">
-        <v>-0.059070182585346555</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0.47665863868611835</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0.9999971665566236</v>
+        <v>0.0</v>
+      </c>
+      <c r="G28" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H28" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I28" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J28" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K28" t="e">
+        <v>#N/A</v>
       </c>
       <c r="L28" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0.47665863868611835</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0.9792376933019011</v>
-      </c>
-      <c r="O28" t="n">
-        <v>0.9792376933019011</v>
+        <v>0.0</v>
+      </c>
+      <c r="M28" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N28" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O28" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
         <v>41</v>
       </c>
-      <c r="B29" t="n">
-        <v>0.17200329530767217</v>
-      </c>
-      <c r="C29" t="n">
-        <v>0.9562009571609199</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0.17200329530767228</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0.43432884123019366</v>
+      <c r="B29" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C29" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D29" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E29" t="e">
+        <v>#N/A</v>
       </c>
       <c r="F29" t="n">
-        <v>24.0</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0.17200329530767217</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0.5784367100205385</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0.19986169773664664</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0.5784367100205385</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0.9999971665566236</v>
+        <v>9.0</v>
+      </c>
+      <c r="G29" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H29" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I29" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J29" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K29" t="e">
+        <v>#N/A</v>
       </c>
       <c r="L29" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0.5784367100205385</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0.9562009571609199</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0.9562009571609199</v>
+        <v>9.0</v>
+      </c>
+      <c r="M29" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N29" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O29" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
         <v>42</v>
       </c>
-      <c r="B30" t="n">
-        <v>0.1733668670706468</v>
-      </c>
-      <c r="C30" t="n">
-        <v>0.9692188018919372</v>
-      </c>
-      <c r="D30" t="n">
-        <v>0.17336686707064689</v>
-      </c>
-      <c r="E30" t="n">
-        <v>0.43432884123019366</v>
+      <c r="B30" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C30" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D30" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E30" t="e">
+        <v>#N/A</v>
       </c>
       <c r="F30" t="n">
-        <v>17.0</v>
-      </c>
-      <c r="G30" t="n">
-        <v>0.1733668670706468</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0.5885764987934768</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0.22718150263107775</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0.5885764987934768</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0.9999971665566236</v>
+        <v>1.0</v>
+      </c>
+      <c r="G30" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H30" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I30" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J30" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K30" t="e">
+        <v>#N/A</v>
       </c>
       <c r="L30" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0.5885764987934768</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0.9692188018919372</v>
-      </c>
-      <c r="O30" t="n">
-        <v>0.9692188018919372</v>
+        <v>1.0</v>
+      </c>
+      <c r="M30" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N30" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O30" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
         <v>43</v>
       </c>
-      <c r="B31" t="n">
-        <v>0.1785073262599677</v>
-      </c>
-      <c r="C31" t="n">
-        <v>0.9354754696008464</v>
-      </c>
-      <c r="D31" t="n">
-        <v>0.1785073262599677</v>
-      </c>
-      <c r="E31" t="n">
-        <v>0.43432884123019366</v>
+      <c r="B31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E31" t="e">
+        <v>#N/A</v>
       </c>
       <c r="F31" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0.17850732625996768</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0.5903475513955482</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0.22889662717288958</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0.5903475513955482</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0.9999971665566236</v>
+        <v>1.0</v>
+      </c>
+      <c r="G31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K31" t="e">
+        <v>#N/A</v>
       </c>
       <c r="L31" t="n">
-        <v>67.0</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0.5903475513955482</v>
-      </c>
-      <c r="N31" t="n">
-        <v>0.9354754696008464</v>
-      </c>
-      <c r="O31" t="n">
-        <v>0.9354754696008464</v>
+        <v>1.0</v>
+      </c>
+      <c r="M31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O31" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
         <v>44</v>
       </c>
-      <c r="B32" t="n">
-        <v>0.1795225877084801</v>
-      </c>
-      <c r="C32" t="n">
-        <v>0.9497901653124673</v>
-      </c>
-      <c r="D32" t="n">
-        <v>0.17952258770848004</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0.43432884123019366</v>
+      <c r="B32" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C32" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D32" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E32" t="e">
+        <v>#N/A</v>
       </c>
       <c r="F32" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0.17952258770848006</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0.6017597182581793</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0.2608981520276447</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0.6017597182581793</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0.9999971665566236</v>
+        <v>4.0</v>
+      </c>
+      <c r="G32" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H32" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I32" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J32" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K32" t="e">
+        <v>#N/A</v>
       </c>
       <c r="L32" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0.6017597182581793</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0.9497901653124673</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0.9497901653124673</v>
+        <v>4.0</v>
+      </c>
+      <c r="M32" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N32" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O32" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
         <v>45</v>
       </c>
-      <c r="B33" t="n">
-        <v>0.19363791460803254</v>
-      </c>
-      <c r="C33" t="n">
-        <v>0.8750175197106947</v>
-      </c>
-      <c r="D33" t="n">
-        <v>0.19363791460803254</v>
-      </c>
-      <c r="E33" t="n">
-        <v>0.4467642415890419</v>
+      <c r="B33" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C33" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D33" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E33" t="e">
+        <v>#N/A</v>
       </c>
       <c r="F33" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="G33" t="n">
-        <v>0.19363791460803254</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0.6030470399951312</v>
-      </c>
-      <c r="I33" t="n">
-        <v>0.2644616135765607</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0.6030470399951312</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0.9999971665566236</v>
+        <v>2.0</v>
+      </c>
+      <c r="G33" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H33" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I33" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J33" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K33" t="e">
+        <v>#N/A</v>
       </c>
       <c r="L33" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0.6030470399951312</v>
-      </c>
-      <c r="N33" t="n">
-        <v>0.8750175197106947</v>
-      </c>
-      <c r="O33" t="n">
-        <v>0.8750175197106947</v>
+        <v>2.0</v>
+      </c>
+      <c r="M33" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N33" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O33" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
         <v>46</v>
       </c>
-      <c r="B34" t="n">
-        <v>0.2050497893938883</v>
-      </c>
-      <c r="C34" t="n">
-        <v>0.8274727197874359</v>
-      </c>
-      <c r="D34" t="n">
-        <v>0.20504978939388827</v>
-      </c>
-      <c r="E34" t="n">
-        <v>0.4467642415890419</v>
+      <c r="B34" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C34" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D34" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E34" t="e">
+        <v>#N/A</v>
       </c>
       <c r="F34" t="n">
-        <v>48.0</v>
-      </c>
-      <c r="G34" t="n">
-        <v>0.2050497893938883</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0.6250852597812345</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0.32337783940952614</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0.6250852597812345</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0.9999971665566236</v>
+        <v>7.0</v>
+      </c>
+      <c r="G34" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H34" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I34" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J34" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K34" t="e">
+        <v>#N/A</v>
       </c>
       <c r="L34" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0.6250852597812345</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0.8274727197874359</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0.8274727197874359</v>
+        <v>7.0</v>
+      </c>
+      <c r="M34" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N34" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O34" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
         <v>47</v>
       </c>
-      <c r="B35" t="n">
-        <v>0.20809470477434336</v>
-      </c>
-      <c r="C35" t="n">
-        <v>0.8159529013813918</v>
-      </c>
-      <c r="D35" t="n">
-        <v>0.20809470477434336</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0.4467642415890419</v>
+      <c r="B35" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C35" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D35" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E35" t="e">
+        <v>#N/A</v>
       </c>
       <c r="F35" t="n">
-        <v>60.0</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0.20809470477434333</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0.6251117754860085</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0.32296112272846106</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0.6251117754860085</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0.9999971665566236</v>
+        <v>0.0</v>
+      </c>
+      <c r="G35" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H35" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I35" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J35" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K35" t="e">
+        <v>#N/A</v>
       </c>
       <c r="L35" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0.6251117754860085</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0.8159529013813918</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0.8159529013813918</v>
+        <v>0.0</v>
+      </c>
+      <c r="M35" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N35" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O35" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
         <v>48</v>
       </c>
-      <c r="B36" t="n">
-        <v>0.21318452502076618</v>
-      </c>
-      <c r="C36" t="n">
-        <v>0.80330239404821</v>
-      </c>
-      <c r="D36" t="n">
-        <v>0.21318452502076624</v>
-      </c>
-      <c r="E36" t="n">
-        <v>0.4467642415890419</v>
+      <c r="B36" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C36" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D36" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E36" t="e">
+        <v>#N/A</v>
       </c>
       <c r="F36" t="n">
-        <v>24.0</v>
-      </c>
-      <c r="G36" t="n">
-        <v>0.21318452502076618</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0.6837396140702913</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0.4818782739486171</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0.6837396140702912</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0.9999971665566236</v>
+        <v>6.0</v>
+      </c>
+      <c r="G36" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H36" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I36" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J36" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K36" t="e">
+        <v>#N/A</v>
       </c>
       <c r="L36" t="n">
-        <v>25.0</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0.6837396140702913</v>
-      </c>
-      <c r="N36" t="n">
-        <v>0.80330239404821</v>
-      </c>
-      <c r="O36" t="n">
-        <v>0.80330239404821</v>
+        <v>6.0</v>
+      </c>
+      <c r="M36" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N36" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O36" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
         <v>49</v>
       </c>
-      <c r="B37" t="n">
-        <v>0.2144468359627401</v>
-      </c>
-      <c r="C37" t="n">
-        <v>0.7993924702807661</v>
-      </c>
-      <c r="D37" t="n">
-        <v>0.21444683596274008</v>
-      </c>
-      <c r="E37" t="n">
-        <v>0.4467642415890419</v>
+      <c r="B37" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C37" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D37" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E37" t="e">
+        <v>#N/A</v>
       </c>
       <c r="F37" t="n">
-        <v>23.0</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0.2144468359627401</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0.6888954978970564</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0.495201314597719</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0.6888954978970564</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0.9999971665566236</v>
+        <v>0.0</v>
+      </c>
+      <c r="G37" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H37" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I37" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J37" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K37" t="e">
+        <v>#N/A</v>
       </c>
       <c r="L37" t="n">
-        <v>32.0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0.6888954978970564</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0.7993924702807661</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0.7993924702807661</v>
+        <v>0.0</v>
+      </c>
+      <c r="M37" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N37" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O37" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
         <v>50</v>
       </c>
-      <c r="B38" t="n">
-        <v>0.24458733587689543</v>
-      </c>
-      <c r="C38" t="n">
-        <v>0.7026122565322117</v>
-      </c>
-      <c r="D38" t="n">
-        <v>0.24458733587689532</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0.49578514029100407</v>
+      <c r="B38" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C38" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D38" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E38" t="e">
+        <v>#N/A</v>
       </c>
       <c r="F38" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0.2445873358768954</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0.7305457626532275</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0.6195648260997421</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0.7305457626532275</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0.9999971665566236</v>
+        <v>9.0</v>
+      </c>
+      <c r="G38" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H38" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I38" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J38" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K38" t="e">
+        <v>#N/A</v>
       </c>
       <c r="L38" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0.7305457626532275</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0.7026122565322117</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0.7026122565322117</v>
+        <v>9.0</v>
+      </c>
+      <c r="M38" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N38" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O38" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
         <v>51</v>
       </c>
-      <c r="B39" t="n">
-        <v>0.2536101367717111</v>
-      </c>
-      <c r="C39" t="n">
-        <v>0.6766963858264858</v>
-      </c>
-      <c r="D39" t="n">
-        <v>0.2536101367717112</v>
-      </c>
-      <c r="E39" t="n">
-        <v>0.5005463225757457</v>
+      <c r="B39" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C39" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D39" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E39" t="e">
+        <v>#N/A</v>
       </c>
       <c r="F39" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="G39" t="n">
-        <v>0.2536101367717111</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0.7463898632282888</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0.6766963858264858</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0.7463898632282888</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0.9999971665566236</v>
+        <v>5.0</v>
+      </c>
+      <c r="G39" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H39" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I39" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J39" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K39" t="e">
+        <v>#N/A</v>
       </c>
       <c r="L39" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0.7463898632282888</v>
-      </c>
-      <c r="N39" t="n">
-        <v>0.6766963858264858</v>
-      </c>
-      <c r="O39" t="n">
-        <v>0.6766963858264858</v>
+        <v>5.0</v>
+      </c>
+      <c r="M39" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N39" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O39" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
         <v>52</v>
       </c>
-      <c r="B40" t="n">
-        <v>0.2694542373467725</v>
-      </c>
-      <c r="C40" t="n">
-        <v>0.6195648260997421</v>
-      </c>
-      <c r="D40" t="n">
-        <v>0.26945423734677243</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0.5181812256668701</v>
+      <c r="B40" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C40" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D40" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E40" t="e">
+        <v>#N/A</v>
       </c>
       <c r="F40" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0.2694542373467725</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0.7554126641231046</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0.7026122565322117</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0.7554126641231047</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0.9999971665566236</v>
+        <v>1.0</v>
+      </c>
+      <c r="G40" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H40" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I40" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J40" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K40" t="e">
+        <v>#N/A</v>
       </c>
       <c r="L40" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0.7554126641231046</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0.6195648260997421</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0.6195648260997421</v>
+        <v>1.0</v>
+      </c>
+      <c r="M40" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N40" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O40" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
         <v>53</v>
       </c>
-      <c r="B41" t="n">
-        <v>0.31110450210294355</v>
-      </c>
-      <c r="C41" t="n">
-        <v>0.495201314597719</v>
-      </c>
-      <c r="D41" t="n">
-        <v>0.3111045021029436</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0.578525096212882</v>
+      <c r="B41" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C41" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D41" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E41" t="e">
+        <v>#N/A</v>
       </c>
       <c r="F41" t="n">
-        <v>32.0</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0.3111045021029436</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0.7855531640372599</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0.7993924702807661</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0.7855531640372599</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0.9999971665566236</v>
+        <v>2.0</v>
+      </c>
+      <c r="G41" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H41" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I41" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J41" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K41" t="e">
+        <v>#N/A</v>
       </c>
       <c r="L41" t="n">
-        <v>23.0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0.7855531640372599</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0.495201314597719</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0.495201314597719</v>
+        <v>2.0</v>
+      </c>
+      <c r="M41" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N41" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O41" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
         <v>54</v>
       </c>
-      <c r="B42" t="n">
-        <v>0.31626038592970873</v>
-      </c>
-      <c r="C42" t="n">
-        <v>0.4818782739486171</v>
-      </c>
-      <c r="D42" t="n">
-        <v>0.3162603859297088</v>
-      </c>
-      <c r="E42" t="n">
-        <v>0.578525096212882</v>
+      <c r="B42" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C42" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D42" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E42" t="e">
+        <v>#N/A</v>
       </c>
       <c r="F42" t="n">
-        <v>25.0</v>
-      </c>
-      <c r="G42" t="n">
-        <v>0.31626038592970873</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0.7868154749792338</v>
-      </c>
-      <c r="I42" t="n">
-        <v>0.80330239404821</v>
-      </c>
-      <c r="J42" t="n">
-        <v>0.7868154749792339</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0.9999971665566236</v>
+        <v>2.0</v>
+      </c>
+      <c r="G42" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H42" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I42" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J42" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K42" t="e">
+        <v>#N/A</v>
       </c>
       <c r="L42" t="n">
-        <v>24.0</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0.7868154749792338</v>
-      </c>
-      <c r="N42" t="n">
-        <v>0.4818782739486171</v>
-      </c>
-      <c r="O42" t="n">
-        <v>0.4818782739486171</v>
+        <v>2.0</v>
+      </c>
+      <c r="M42" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N42" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O42" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
         <v>55</v>
       </c>
-      <c r="B43" t="n">
-        <v>0.37488822451399145</v>
-      </c>
-      <c r="C43" t="n">
-        <v>0.32296112272846106</v>
-      </c>
-      <c r="D43" t="n">
-        <v>0.37488822451399145</v>
-      </c>
-      <c r="E43" t="n">
-        <v>0.6539210585211026</v>
+      <c r="B43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E43" t="e">
+        <v>#N/A</v>
       </c>
       <c r="F43" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="G43" t="n">
-        <v>0.37488822451399145</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0.7919052952256567</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0.8159529013813918</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0.7919052952256567</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0.9999971665566236</v>
+        <v>5.0</v>
+      </c>
+      <c r="G43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K43" t="e">
+        <v>#N/A</v>
       </c>
       <c r="L43" t="n">
-        <v>60.0</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0.7919052952256567</v>
-      </c>
-      <c r="N43" t="n">
-        <v>0.32296112272846106</v>
-      </c>
-      <c r="O43" t="n">
-        <v>0.32296112272846106</v>
+        <v>5.0</v>
+      </c>
+      <c r="M43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O43" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
         <v>56</v>
       </c>
-      <c r="B44" t="n">
-        <v>0.3749147402187655</v>
-      </c>
-      <c r="C44" t="n">
-        <v>0.32337783940952614</v>
-      </c>
-      <c r="D44" t="n">
-        <v>0.3749147402187655</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0.6539210585211026</v>
+      <c r="B44" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C44" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D44" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E44" t="e">
+        <v>#N/A</v>
       </c>
       <c r="F44" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0.3749147402187655</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0.7949502106061117</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0.8274727197874359</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0.7949502106061117</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0.9999971665566236</v>
+        <v>1.0</v>
+      </c>
+      <c r="G44" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H44" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I44" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J44" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K44" t="e">
+        <v>#N/A</v>
       </c>
       <c r="L44" t="n">
-        <v>48.0</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0.7949502106061117</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0.32337783940952614</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0.32337783940952614</v>
+        <v>1.0</v>
+      </c>
+      <c r="M44" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N44" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O44" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
         <v>57</v>
       </c>
-      <c r="B45" t="n">
-        <v>0.3969529600048688</v>
-      </c>
-      <c r="C45" t="n">
-        <v>0.2644616135765607</v>
-      </c>
-      <c r="D45" t="n">
-        <v>0.3969529600048688</v>
-      </c>
-      <c r="E45" t="n">
-        <v>0.6565268636274305</v>
+      <c r="B45" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C45" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D45" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E45" t="e">
+        <v>#N/A</v>
       </c>
       <c r="F45" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="G45" t="n">
-        <v>0.3969529600048688</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0.8063620853919675</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0.8750175197106947</v>
-      </c>
-      <c r="J45" t="n">
-        <v>0.8063620853919675</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0.9999971665566236</v>
+        <v>2.0</v>
+      </c>
+      <c r="G45" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H45" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I45" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J45" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K45" t="e">
+        <v>#N/A</v>
       </c>
       <c r="L45" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0.8063620853919675</v>
-      </c>
-      <c r="N45" t="n">
-        <v>0.2644616135765607</v>
-      </c>
-      <c r="O45" t="n">
-        <v>0.2644616135765607</v>
+        <v>2.0</v>
+      </c>
+      <c r="M45" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N45" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O45" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
         <v>58</v>
       </c>
-      <c r="B46" t="n">
-        <v>0.39824028174182075</v>
-      </c>
-      <c r="C46" t="n">
-        <v>0.2608981520276447</v>
-      </c>
-      <c r="D46" t="n">
-        <v>0.39824028174182075</v>
-      </c>
-      <c r="E46" t="n">
-        <v>0.6565268636274305</v>
+      <c r="B46" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C46" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D46" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E46" t="e">
+        <v>#N/A</v>
       </c>
       <c r="F46" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="G46" t="n">
-        <v>0.39824028174182075</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0.8204774122915199</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0.9497901653124673</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0.8204774122915199</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0.9999971665566236</v>
+        <v>2.0</v>
+      </c>
+      <c r="G46" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H46" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I46" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J46" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K46" t="e">
+        <v>#N/A</v>
       </c>
       <c r="L46" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0.8204774122915199</v>
-      </c>
-      <c r="N46" t="n">
-        <v>0.2608981520276447</v>
-      </c>
-      <c r="O46" t="n">
-        <v>0.2608981520276447</v>
+        <v>2.0</v>
+      </c>
+      <c r="M46" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N46" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O46" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
         <v>59</v>
       </c>
-      <c r="B47" t="n">
-        <v>0.4096524486044518</v>
-      </c>
-      <c r="C47" t="n">
-        <v>0.22889662717288958</v>
-      </c>
-      <c r="D47" t="n">
-        <v>0.4096524486044518</v>
-      </c>
-      <c r="E47" t="n">
-        <v>0.6565268636274305</v>
+      <c r="B47" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C47" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D47" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E47" t="e">
+        <v>#N/A</v>
       </c>
       <c r="F47" t="n">
-        <v>67.0</v>
-      </c>
-      <c r="G47" t="n">
-        <v>0.4096524486044518</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0.8214926737400323</v>
-      </c>
-      <c r="I47" t="n">
-        <v>0.9354754696008464</v>
-      </c>
-      <c r="J47" t="n">
-        <v>0.8214926737400323</v>
-      </c>
-      <c r="K47" t="n">
-        <v>0.9999971665566236</v>
+        <v>7.0</v>
+      </c>
+      <c r="G47" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H47" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I47" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J47" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K47" t="e">
+        <v>#N/A</v>
       </c>
       <c r="L47" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="M47" t="n">
-        <v>0.8214926737400323</v>
-      </c>
-      <c r="N47" t="n">
-        <v>0.22889662717288958</v>
-      </c>
-      <c r="O47" t="n">
-        <v>0.22889662717288958</v>
+        <v>7.0</v>
+      </c>
+      <c r="M47" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N47" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O47" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
         <v>60</v>
       </c>
-      <c r="B48" t="n">
-        <v>0.41142350120652316</v>
-      </c>
-      <c r="C48" t="n">
-        <v>0.22718150263107775</v>
-      </c>
-      <c r="D48" t="n">
-        <v>0.41142350120652316</v>
-      </c>
-      <c r="E48" t="n">
-        <v>0.6565268636274305</v>
+      <c r="B48" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C48" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D48" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E48" t="e">
+        <v>#N/A</v>
       </c>
       <c r="F48" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="G48" t="n">
-        <v>0.41142350120652316</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0.8266331329293533</v>
-      </c>
-      <c r="I48" t="n">
-        <v>0.9692188018919372</v>
-      </c>
-      <c r="J48" t="n">
-        <v>0.8266331329293533</v>
-      </c>
-      <c r="K48" t="n">
-        <v>0.9999971665566236</v>
+        <v>0.0</v>
+      </c>
+      <c r="G48" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H48" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I48" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J48" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K48" t="e">
+        <v>#N/A</v>
       </c>
       <c r="L48" t="n">
-        <v>17.0</v>
-      </c>
-      <c r="M48" t="n">
-        <v>0.8266331329293533</v>
-      </c>
-      <c r="N48" t="n">
-        <v>0.22718150263107775</v>
-      </c>
-      <c r="O48" t="n">
-        <v>0.22718150263107775</v>
+        <v>0.0</v>
+      </c>
+      <c r="M48" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N48" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O48" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
         <v>61</v>
       </c>
-      <c r="B49" t="n">
-        <v>0.42156328997946146</v>
-      </c>
-      <c r="C49" t="n">
-        <v>0.19986169773664664</v>
-      </c>
-      <c r="D49" t="n">
-        <v>0.42156328997946146</v>
-      </c>
-      <c r="E49" t="n">
-        <v>0.6586926405929086</v>
+      <c r="B49" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C49" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D49" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E49" t="e">
+        <v>#N/A</v>
       </c>
       <c r="F49" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="G49" t="n">
-        <v>0.42156328997946146</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0.8279967046923278</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0.9562009571609199</v>
-      </c>
-      <c r="J49" t="n">
-        <v>0.8279967046923278</v>
-      </c>
-      <c r="K49" t="n">
-        <v>0.9999971665566236</v>
+        <v>2.0</v>
+      </c>
+      <c r="G49" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H49" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I49" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J49" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K49" t="e">
+        <v>#N/A</v>
       </c>
       <c r="L49" t="n">
-        <v>24.0</v>
-      </c>
-      <c r="M49" t="n">
-        <v>0.8279967046923278</v>
-      </c>
-      <c r="N49" t="n">
-        <v>0.19986169773664664</v>
-      </c>
-      <c r="O49" t="n">
-        <v>0.19986169773664664</v>
+        <v>2.0</v>
+      </c>
+      <c r="M49" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N49" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O49" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
         <v>62</v>
       </c>
-      <c r="B50" t="n">
-        <v>0.5233413613138816</v>
-      </c>
-      <c r="C50" t="n">
-        <v>-0.059070182585346555</v>
-      </c>
-      <c r="D50" t="n">
-        <v>0.5233413613138816</v>
-      </c>
-      <c r="E50" t="n">
-        <v>0.7775035398194643</v>
+      <c r="B50" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C50" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D50" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E50" t="e">
+        <v>#N/A</v>
       </c>
       <c r="F50" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="G50" t="n">
-        <v>0.5233413613138816</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0.8280311959572848</v>
-      </c>
-      <c r="I50" t="n">
-        <v>0.9792376933019011</v>
-      </c>
-      <c r="J50" t="n">
-        <v>0.8280311959572849</v>
-      </c>
-      <c r="K50" t="n">
-        <v>0.9999971665566236</v>
+        <v>2.0</v>
+      </c>
+      <c r="G50" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H50" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I50" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J50" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K50" t="e">
+        <v>#N/A</v>
       </c>
       <c r="L50" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="M50" t="n">
-        <v>0.8280311959572848</v>
-      </c>
-      <c r="N50" t="n">
-        <v>-0.059070182585346555</v>
-      </c>
-      <c r="O50" t="n">
-        <v>-0.059070182585346555</v>
+        <v>2.0</v>
+      </c>
+      <c r="M50" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N50" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O50" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
         <v>63</v>
       </c>
-      <c r="B51" t="n">
-        <v>0.5275496083284437</v>
-      </c>
-      <c r="C51" t="n">
-        <v>-0.06982530221861719</v>
-      </c>
-      <c r="D51" t="n">
-        <v>0.5275496083284437</v>
-      </c>
-      <c r="E51" t="n">
-        <v>0.7775035398194643</v>
+      <c r="B51" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C51" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D51" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E51" t="e">
+        <v>#N/A</v>
       </c>
       <c r="F51" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="G51" t="n">
-        <v>0.5275496083284437</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0.8563987205054621</v>
-      </c>
-      <c r="I51" t="n">
-        <v>1.077985423213834</v>
-      </c>
-      <c r="J51" t="n">
-        <v>0.8563987205054621</v>
-      </c>
-      <c r="K51" t="n">
-        <v>0.9999971665566236</v>
+        <v>1.0</v>
+      </c>
+      <c r="G51" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H51" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I51" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J51" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K51" t="e">
+        <v>#N/A</v>
       </c>
       <c r="L51" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="M51" t="n">
-        <v>0.8563987205054621</v>
-      </c>
-      <c r="N51" t="n">
-        <v>-0.06982530221861719</v>
-      </c>
-      <c r="O51" t="n">
-        <v>-0.06982530221861719</v>
+        <v>1.0</v>
+      </c>
+      <c r="M51" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N51" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O51" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
         <v>64</v>
       </c>
-      <c r="B52" t="n">
-        <v>0.5316747795403088</v>
-      </c>
-      <c r="C52" t="n">
-        <v>-0.07992628720569393</v>
-      </c>
-      <c r="D52" t="n">
-        <v>0.5316747795403088</v>
-      </c>
-      <c r="E52" t="n">
-        <v>0.7775035398194643</v>
+      <c r="B52" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C52" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D52" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E52" t="e">
+        <v>#N/A</v>
       </c>
       <c r="F52" t="n">
-        <v>27.0</v>
-      </c>
-      <c r="G52" t="n">
-        <v>0.5316747795403088</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0.8927130416854507</v>
-      </c>
-      <c r="I52" t="n">
-        <v>1.2481643817437542</v>
-      </c>
-      <c r="J52" t="n">
-        <v>0.8927130416854507</v>
-      </c>
-      <c r="K52" t="n">
-        <v>0.9999971665566236</v>
+        <v>3.0</v>
+      </c>
+      <c r="G52" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H52" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I52" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J52" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K52" t="e">
+        <v>#N/A</v>
       </c>
       <c r="L52" t="n">
-        <v>57.0</v>
-      </c>
-      <c r="M52" t="n">
-        <v>0.8927130416854507</v>
-      </c>
-      <c r="N52" t="n">
-        <v>-0.07992628720569393</v>
-      </c>
-      <c r="O52" t="n">
-        <v>-0.07992628720569393</v>
+        <v>3.0</v>
+      </c>
+      <c r="M52" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N52" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O52" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
         <v>65</v>
       </c>
-      <c r="B53" t="n">
-        <v>0.5532556869049683</v>
-      </c>
-      <c r="C53" t="n">
-        <v>-0.13522066599733867</v>
-      </c>
-      <c r="D53" t="n">
-        <v>0.5532556869049683</v>
-      </c>
-      <c r="E53" t="n">
-        <v>0.7775035398194643</v>
+      <c r="B53" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C53" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D53" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E53" t="e">
+        <v>#N/A</v>
       </c>
       <c r="F53" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="G53" t="n">
-        <v>0.5532556869049683</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0.9290681628629683</v>
-      </c>
-      <c r="I53" t="n">
-        <v>1.5163256382803236</v>
-      </c>
-      <c r="J53" t="n">
-        <v>0.9290681628629683</v>
-      </c>
-      <c r="K53" t="n">
-        <v>0.9999971665566236</v>
+        <v>7.0</v>
+      </c>
+      <c r="G53" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H53" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I53" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J53" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K53" t="e">
+        <v>#N/A</v>
       </c>
       <c r="L53" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="M53" t="n">
-        <v>0.9290681628629683</v>
-      </c>
-      <c r="N53" t="n">
-        <v>-0.13522066599733867</v>
-      </c>
-      <c r="O53" t="n">
-        <v>-0.13522066599733867</v>
+        <v>7.0</v>
+      </c>
+      <c r="M53" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N53" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O53" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
         <v>66</v>
       </c>
-      <c r="B54" t="n">
-        <v>0.5533702043323003</v>
-      </c>
-      <c r="C54" t="n">
-        <v>-0.13615323944246488</v>
-      </c>
-      <c r="D54" t="n">
-        <v>0.5533702043323003</v>
-      </c>
-      <c r="E54" t="n">
-        <v>0.7775035398194643</v>
+      <c r="B54" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C54" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D54" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E54" t="e">
+        <v>#N/A</v>
       </c>
       <c r="F54" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="G54" t="n">
-        <v>0.5533702043323003</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0.9363094607553432</v>
-      </c>
-      <c r="I54" t="n">
-        <v>1.6362528118838473</v>
-      </c>
-      <c r="J54" t="n">
-        <v>0.9363094607553432</v>
-      </c>
-      <c r="K54" t="n">
-        <v>0.9999971665566236</v>
+        <v>3.0</v>
+      </c>
+      <c r="G54" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H54" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I54" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J54" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K54" t="e">
+        <v>#N/A</v>
       </c>
       <c r="L54" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="M54" t="n">
-        <v>0.9363094607553432</v>
-      </c>
-      <c r="N54" t="n">
-        <v>-0.13615323944246488</v>
-      </c>
-      <c r="O54" t="n">
-        <v>-0.13615323944246488</v>
+        <v>3.0</v>
+      </c>
+      <c r="M54" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N54" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O54" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
         <v>67</v>
       </c>
-      <c r="B55" t="n">
-        <v>0.5598025486700143</v>
-      </c>
-      <c r="C55" t="n">
-        <v>-0.15190165061330735</v>
-      </c>
-      <c r="D55" t="n">
-        <v>0.5598025486700143</v>
-      </c>
-      <c r="E55" t="n">
-        <v>0.7775035398194643</v>
+      <c r="B55" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C55" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D55" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E55" t="e">
+        <v>#N/A</v>
       </c>
       <c r="F55" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="G55" t="n">
-        <v>0.5598025486700143</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0.9396017672137217</v>
-      </c>
-      <c r="I55" t="n">
-        <v>1.5881529707199629</v>
-      </c>
-      <c r="J55" t="n">
-        <v>0.9396017672137217</v>
-      </c>
-      <c r="K55" t="n">
-        <v>0.9999971665566236</v>
+        <v>7.0</v>
+      </c>
+      <c r="G55" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H55" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I55" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J55" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K55" t="e">
+        <v>#N/A</v>
       </c>
       <c r="L55" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="M55" t="n">
-        <v>0.9396017672137217</v>
-      </c>
-      <c r="N55" t="n">
-        <v>-0.15190165061330735</v>
-      </c>
-      <c r="O55" t="n">
-        <v>-0.15190165061330735</v>
+        <v>7.0</v>
+      </c>
+      <c r="M55" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N55" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O55" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
         <v>68</v>
       </c>
-      <c r="B56" t="n">
-        <v>0.5826999360992315</v>
-      </c>
-      <c r="C56" t="n">
-        <v>-0.21129810510703778</v>
-      </c>
-      <c r="D56" t="n">
-        <v>0.5826999360992315</v>
-      </c>
-      <c r="E56" t="n">
-        <v>0.7945908219534975</v>
+      <c r="B56" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C56" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D56" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E56" t="e">
+        <v>#N/A</v>
       </c>
       <c r="F56" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="G56" t="n">
-        <v>0.5826999360992315</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0.9437564448723472</v>
-      </c>
-      <c r="I56" t="n">
-        <v>1.6314455165487978</v>
-      </c>
-      <c r="J56" t="n">
-        <v>0.9437564448723472</v>
-      </c>
-      <c r="K56" t="n">
-        <v>0.9999971665566236</v>
+        <v>5.0</v>
+      </c>
+      <c r="G56" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H56" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I56" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J56" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K56" t="e">
+        <v>#N/A</v>
       </c>
       <c r="L56" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="M56" t="n">
-        <v>0.9437564448723472</v>
-      </c>
-      <c r="N56" t="n">
-        <v>-0.21129810510703778</v>
-      </c>
-      <c r="O56" t="n">
-        <v>-0.21129810510703778</v>
+        <v>5.0</v>
+      </c>
+      <c r="M56" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N56" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O56" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
         <v>69</v>
       </c>
-      <c r="B57" t="n">
-        <v>0.5976223601401514</v>
-      </c>
-      <c r="C57" t="n">
-        <v>-0.24921750931820985</v>
-      </c>
-      <c r="D57" t="n">
-        <v>0.5976223601401514</v>
-      </c>
-      <c r="E57" t="n">
-        <v>0.800387089473417</v>
+      <c r="B57" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C57" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D57" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E57" t="e">
+        <v>#N/A</v>
       </c>
       <c r="F57" t="n">
-        <v>18.0</v>
-      </c>
-      <c r="G57" t="n">
-        <v>0.5976223601401514</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0.9583091945229032</v>
-      </c>
-      <c r="I57" t="n">
-        <v>1.853316693636629</v>
-      </c>
-      <c r="J57" t="n">
-        <v>0.9583091945229032</v>
-      </c>
-      <c r="K57" t="n">
-        <v>0.9999971665566236</v>
+        <v>3.0</v>
+      </c>
+      <c r="G57" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H57" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I57" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J57" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K57" t="e">
+        <v>#N/A</v>
       </c>
       <c r="L57" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="M57" t="n">
-        <v>0.9583091945229032</v>
-      </c>
-      <c r="N57" t="n">
-        <v>-0.24921750931820985</v>
-      </c>
-      <c r="O57" t="n">
-        <v>-0.24921750931820985</v>
+        <v>3.0</v>
+      </c>
+      <c r="M57" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N57" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O57" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
         <v>70</v>
       </c>
-      <c r="B58" t="n">
-        <v>0.618809960138422</v>
-      </c>
-      <c r="C58" t="n">
-        <v>-0.3043380773008904</v>
-      </c>
-      <c r="D58" t="n">
-        <v>0.618809960138422</v>
-      </c>
-      <c r="E58" t="n">
-        <v>0.8142236317610817</v>
+      <c r="B58" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C58" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D58" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E58" t="e">
+        <v>#N/A</v>
       </c>
       <c r="F58" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="G58" t="n">
-        <v>0.618809960138422</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0.9661292715653862</v>
-      </c>
-      <c r="I58" t="n">
-        <v>1.8532526699878462</v>
-      </c>
-      <c r="J58" t="n">
-        <v>0.9661292715653862</v>
-      </c>
-      <c r="K58" t="n">
-        <v>0.9999971665566236</v>
+        <v>4.0</v>
+      </c>
+      <c r="G58" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H58" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I58" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J58" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K58" t="e">
+        <v>#N/A</v>
       </c>
       <c r="L58" t="n">
-        <v>39.0</v>
-      </c>
-      <c r="M58" t="n">
-        <v>0.9661292715653862</v>
-      </c>
-      <c r="N58" t="n">
-        <v>-0.3043380773008904</v>
-      </c>
-      <c r="O58" t="n">
-        <v>-0.3043380773008904</v>
+        <v>4.0</v>
+      </c>
+      <c r="M58" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N58" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O58" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
         <v>71</v>
       </c>
-      <c r="B59" t="n">
-        <v>0.6674285201345251</v>
-      </c>
-      <c r="C59" t="n">
-        <v>-0.43577287685023397</v>
-      </c>
-      <c r="D59" t="n">
-        <v>0.6674285201345251</v>
-      </c>
-      <c r="E59" t="n">
-        <v>0.8334231628799498</v>
+      <c r="B59" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C59" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D59" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E59" t="e">
+        <v>#N/A</v>
       </c>
       <c r="F59" t="n">
-        <v>23.0</v>
-      </c>
-      <c r="G59" t="n">
-        <v>0.6674285201345251</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0.9662157738586212</v>
-      </c>
-      <c r="I59" t="n">
-        <v>1.902921612466633</v>
-      </c>
-      <c r="J59" t="n">
-        <v>0.9662157738586212</v>
-      </c>
-      <c r="K59" t="n">
-        <v>0.9999971665566236</v>
+        <v>1.0</v>
+      </c>
+      <c r="G59" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H59" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I59" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J59" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K59" t="e">
+        <v>#N/A</v>
       </c>
       <c r="L59" t="n">
-        <v>18.0</v>
-      </c>
-      <c r="M59" t="n">
-        <v>0.9662157738586212</v>
-      </c>
-      <c r="N59" t="n">
-        <v>-0.43577287685023397</v>
-      </c>
-      <c r="O59" t="n">
-        <v>-0.43577287685023397</v>
+        <v>1.0</v>
+      </c>
+      <c r="M59" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N59" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O59" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
         <v>72</v>
       </c>
-      <c r="B60" t="n">
-        <v>0.6760327335292167</v>
-      </c>
-      <c r="C60" t="n">
-        <v>-0.46188006731213244</v>
-      </c>
-      <c r="D60" t="n">
-        <v>0.6760327335292166</v>
-      </c>
-      <c r="E60" t="n">
-        <v>0.8334231628799498</v>
+      <c r="B60" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C60" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D60" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E60" t="e">
+        <v>#N/A</v>
       </c>
       <c r="F60" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="G60" t="n">
-        <v>0.6760327335292167</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0.969584142844597</v>
-      </c>
-      <c r="I60" t="n">
-        <v>2.0334454463007203</v>
-      </c>
-      <c r="J60" t="n">
-        <v>0.969584142844597</v>
-      </c>
-      <c r="K60" t="n">
-        <v>0.9999971665566236</v>
+        <v>0.0</v>
+      </c>
+      <c r="G60" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H60" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I60" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J60" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K60" t="e">
+        <v>#N/A</v>
       </c>
       <c r="L60" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="M60" t="n">
-        <v>0.969584142844597</v>
-      </c>
-      <c r="N60" t="n">
-        <v>-0.46188006731213244</v>
-      </c>
-      <c r="O60" t="n">
-        <v>-0.46188006731213244</v>
+        <v>0.0</v>
+      </c>
+      <c r="M60" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N60" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O60" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
         <v>73</v>
       </c>
-      <c r="B61" t="n">
-        <v>0.6768563955006139</v>
-      </c>
-      <c r="C61" t="n">
-        <v>-0.4636064705261228</v>
-      </c>
-      <c r="D61" t="n">
-        <v>0.6768563955006139</v>
-      </c>
-      <c r="E61" t="n">
-        <v>0.8334231628799498</v>
+      <c r="B61" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C61" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D61" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E61" t="e">
+        <v>#N/A</v>
       </c>
       <c r="F61" t="n">
-        <v>17.0</v>
-      </c>
-      <c r="G61" t="n">
-        <v>0.6768563955006139</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0.9700842653930107</v>
-      </c>
-      <c r="I61" t="n">
-        <v>1.908033070554448</v>
-      </c>
-      <c r="J61" t="n">
-        <v>0.9700842653930107</v>
-      </c>
-      <c r="K61" t="n">
-        <v>0.9999971665566236</v>
+        <v>8.0</v>
+      </c>
+      <c r="G61" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H61" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I61" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J61" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K61" t="e">
+        <v>#N/A</v>
       </c>
       <c r="L61" t="n">
-        <v>43.0</v>
-      </c>
-      <c r="M61" t="n">
-        <v>0.9700842653930107</v>
-      </c>
-      <c r="N61" t="n">
-        <v>-0.4636064705261228</v>
-      </c>
-      <c r="O61" t="n">
-        <v>-0.4636064705261228</v>
+        <v>8.0</v>
+      </c>
+      <c r="M61" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N61" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O61" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
         <v>74</v>
       </c>
-      <c r="B62" t="n">
-        <v>0.6778508391423591</v>
-      </c>
-      <c r="C62" t="n">
-        <v>-0.4652317305469343</v>
-      </c>
-      <c r="D62" t="n">
-        <v>0.6778508391423591</v>
-      </c>
-      <c r="E62" t="n">
-        <v>0.8334231628799498</v>
+      <c r="B62" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C62" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D62" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E62" t="e">
+        <v>#N/A</v>
       </c>
       <c r="F62" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="G62" t="n">
-        <v>0.6778508391423591</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0.9715672211222126</v>
-      </c>
-      <c r="I62" t="n">
-        <v>1.9495073598192059</v>
-      </c>
-      <c r="J62" t="n">
-        <v>0.9715672211222126</v>
-      </c>
-      <c r="K62" t="n">
-        <v>0.9999971665566236</v>
+        <v>0.0</v>
+      </c>
+      <c r="G62" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H62" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I62" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J62" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K62" t="e">
+        <v>#N/A</v>
       </c>
       <c r="L62" t="n">
-        <v>27.0</v>
-      </c>
-      <c r="M62" t="n">
-        <v>0.9715672211222126</v>
-      </c>
-      <c r="N62" t="n">
-        <v>-0.4652317305469343</v>
-      </c>
-      <c r="O62" t="n">
-        <v>-0.4652317305469343</v>
+        <v>0.0</v>
+      </c>
+      <c r="M62" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N62" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O62" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
         <v>75</v>
       </c>
-      <c r="B63" t="n">
-        <v>0.7043803958998974</v>
-      </c>
-      <c r="C63" t="n">
-        <v>-0.5450529429653002</v>
-      </c>
-      <c r="D63" t="n">
-        <v>0.7043803958998974</v>
-      </c>
-      <c r="E63" t="n">
-        <v>0.8520730595563275</v>
+      <c r="B63" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C63" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D63" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E63" t="e">
+        <v>#N/A</v>
       </c>
       <c r="F63" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="G63" t="n">
-        <v>0.7043803958998974</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0.9783778042383435</v>
-      </c>
-      <c r="I63" t="n">
-        <v>2.0979048758747694</v>
-      </c>
-      <c r="J63" t="n">
-        <v>0.9783778042383435</v>
-      </c>
-      <c r="K63" t="n">
-        <v>0.9999971665566236</v>
+        <v>1.0</v>
+      </c>
+      <c r="G63" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H63" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I63" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J63" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K63" t="e">
+        <v>#N/A</v>
       </c>
       <c r="L63" t="n">
-        <v>19.0</v>
-      </c>
-      <c r="M63" t="n">
-        <v>0.9783778042383435</v>
-      </c>
-      <c r="N63" t="n">
-        <v>-0.5450529429653002</v>
-      </c>
-      <c r="O63" t="n">
-        <v>-0.5450529429653002</v>
+        <v>1.0</v>
+      </c>
+      <c r="M63" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N63" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O63" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
         <v>76</v>
       </c>
-      <c r="B64" t="n">
-        <v>0.7602771132782307</v>
-      </c>
-      <c r="C64" t="n">
-        <v>-0.713348145511928</v>
-      </c>
-      <c r="D64" t="n">
-        <v>0.7602771132782307</v>
-      </c>
-      <c r="E64" t="n">
-        <v>0.8927440761154121</v>
+      <c r="B64" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C64" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D64" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E64" t="e">
+        <v>#N/A</v>
       </c>
       <c r="F64" t="n">
-        <v>24.0</v>
-      </c>
-      <c r="G64" t="n">
-        <v>0.7602771132782307</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0.9786218587250359</v>
-      </c>
-      <c r="I64" t="n">
-        <v>2.0833282929605828</v>
-      </c>
-      <c r="J64" t="n">
-        <v>0.9786218587250359</v>
-      </c>
-      <c r="K64" t="n">
-        <v>0.9999971665566236</v>
+        <v>1.0</v>
+      </c>
+      <c r="G64" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H64" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I64" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J64" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K64" t="e">
+        <v>#N/A</v>
       </c>
       <c r="L64" t="n">
-        <v>26.0</v>
-      </c>
-      <c r="M64" t="n">
-        <v>0.9786218587250359</v>
-      </c>
-      <c r="N64" t="n">
-        <v>-0.713348145511928</v>
-      </c>
-      <c r="O64" t="n">
-        <v>-0.713348145511928</v>
+        <v>1.0</v>
+      </c>
+      <c r="M64" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N64" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O64" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
         <v>77</v>
       </c>
-      <c r="B65" t="n">
-        <v>0.7618082782851516</v>
-      </c>
-      <c r="C65" t="n">
-        <v>-0.7196756552804539</v>
-      </c>
-      <c r="D65" t="n">
-        <v>0.7618082782851516</v>
-      </c>
-      <c r="E65" t="n">
-        <v>0.8927440761154121</v>
+      <c r="B65" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C65" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D65" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E65" t="e">
+        <v>#N/A</v>
       </c>
       <c r="F65" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="G65" t="n">
-        <v>0.7618082782851516</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0.9883272678609306</v>
-      </c>
-      <c r="I65" t="n">
-        <v>2.3323008803174647</v>
-      </c>
-      <c r="J65" t="n">
-        <v>0.9883272678609306</v>
-      </c>
-      <c r="K65" t="n">
-        <v>0.9999971665566236</v>
+        <v>7.0</v>
+      </c>
+      <c r="G65" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H65" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I65" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J65" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K65" t="e">
+        <v>#N/A</v>
       </c>
       <c r="L65" t="n">
-        <v>29.0</v>
-      </c>
-      <c r="M65" t="n">
-        <v>0.9883272678609306</v>
-      </c>
-      <c r="N65" t="n">
-        <v>-0.7196756552804539</v>
-      </c>
-      <c r="O65" t="n">
-        <v>-0.7196756552804539</v>
+        <v>7.0</v>
+      </c>
+      <c r="M65" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N65" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O65" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
         <v>78</v>
       </c>
-      <c r="B66" t="n">
-        <v>0.7781777403903143</v>
-      </c>
-      <c r="C66" t="n">
-        <v>-0.7815739655210661</v>
-      </c>
-      <c r="D66" t="n">
-        <v>0.7781777403903143</v>
-      </c>
-      <c r="E66" t="n">
-        <v>0.8978973927580549</v>
+      <c r="B66" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C66" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D66" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E66" t="e">
+        <v>#N/A</v>
       </c>
       <c r="F66" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="G66" t="n">
-        <v>0.7781777403903143</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0.9912903036592267</v>
-      </c>
-      <c r="I66" t="n">
-        <v>2.4387919150153294</v>
-      </c>
-      <c r="J66" t="n">
-        <v>0.9912903036592267</v>
-      </c>
-      <c r="K66" t="n">
-        <v>0.9999971665566236</v>
+        <v>8.0</v>
+      </c>
+      <c r="G66" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H66" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I66" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J66" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K66" t="e">
+        <v>#N/A</v>
       </c>
       <c r="L66" t="n">
-        <v>35.0</v>
-      </c>
-      <c r="M66" t="n">
-        <v>0.9912903036592267</v>
-      </c>
-      <c r="N66" t="n">
-        <v>-0.7815739655210661</v>
-      </c>
-      <c r="O66" t="n">
-        <v>-0.7815739655210661</v>
+        <v>8.0</v>
+      </c>
+      <c r="M66" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N66" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O66" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
         <v>79</v>
       </c>
-      <c r="B67" t="n">
-        <v>0.8010047629289312</v>
-      </c>
-      <c r="C67" t="n">
-        <v>-0.8562084577473522</v>
-      </c>
-      <c r="D67" t="n">
-        <v>0.8010047629289312</v>
-      </c>
-      <c r="E67" t="n">
-        <v>0.9102326851465128</v>
+      <c r="B67" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C67" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D67" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E67" t="e">
+        <v>#N/A</v>
       </c>
       <c r="F67" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="G67" t="n">
-        <v>0.8010047629289312</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0.9929902767482177</v>
-      </c>
-      <c r="I67" t="n">
-        <v>2.663388811515895</v>
-      </c>
-      <c r="J67" t="n">
-        <v>0.9929902767482177</v>
-      </c>
-      <c r="K67" t="n">
-        <v>0.9999971665566236</v>
+        <v>6.0</v>
+      </c>
+      <c r="G67" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H67" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I67" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J67" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K67" t="e">
+        <v>#N/A</v>
       </c>
       <c r="L67" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="M67" t="n">
-        <v>0.9929902767482177</v>
-      </c>
-      <c r="N67" t="n">
-        <v>-0.8562084577473522</v>
-      </c>
-      <c r="O67" t="n">
-        <v>-0.8562084577473522</v>
+        <v>6.0</v>
+      </c>
+      <c r="M67" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N67" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O67" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
         <v>80</v>
       </c>
-      <c r="B68" t="n">
-        <v>0.840252527124532</v>
-      </c>
-      <c r="C68" t="n">
-        <v>-1.0103869320772592</v>
-      </c>
-      <c r="D68" t="n">
-        <v>0.840252527124532</v>
-      </c>
-      <c r="E68" t="n">
-        <v>0.9307074663249006</v>
+      <c r="B68" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C68" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D68" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E68" t="e">
+        <v>#N/A</v>
       </c>
       <c r="F68" t="n">
-        <v>18.0</v>
-      </c>
-      <c r="G68" t="n">
-        <v>0.840252527124532</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0.9954842957754111</v>
-      </c>
-      <c r="I68" t="n">
-        <v>2.738313036333773</v>
-      </c>
-      <c r="J68" t="n">
-        <v>0.9954842957754111</v>
-      </c>
-      <c r="K68" t="n">
-        <v>0.9999971665566236</v>
+        <v>7.0</v>
+      </c>
+      <c r="G68" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H68" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I68" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J68" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K68" t="e">
+        <v>#N/A</v>
       </c>
       <c r="L68" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="M68" t="n">
-        <v>0.9954842957754111</v>
-      </c>
-      <c r="N68" t="n">
-        <v>-1.0103869320772592</v>
-      </c>
-      <c r="O68" t="n">
-        <v>-1.0103869320772592</v>
+        <v>7.0</v>
+      </c>
+      <c r="M68" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N68" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O68" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
         <v>81</v>
       </c>
-      <c r="B69" t="n">
-        <v>0.8438414361345764</v>
-      </c>
-      <c r="C69" t="n">
-        <v>-1.026810840399498</v>
-      </c>
-      <c r="D69" t="n">
-        <v>0.8438414361345765</v>
-      </c>
-      <c r="E69" t="n">
-        <v>0.9307074663249006</v>
+      <c r="B69" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C69" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D69" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E69" t="e">
+        <v>#N/A</v>
       </c>
       <c r="F69" t="n">
-        <v>18.0</v>
-      </c>
-      <c r="G69" t="n">
-        <v>0.8438414361345764</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0.998119676739699</v>
-      </c>
-      <c r="I69" t="n">
-        <v>3.027248598828736</v>
-      </c>
-      <c r="J69" t="n">
-        <v>0.998119676739699</v>
-      </c>
-      <c r="K69" t="n">
-        <v>0.9999971665566236</v>
+        <v>9.0</v>
+      </c>
+      <c r="G69" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H69" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I69" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J69" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K69" t="e">
+        <v>#N/A</v>
       </c>
       <c r="L69" t="n">
-        <v>29.0</v>
-      </c>
-      <c r="M69" t="n">
-        <v>0.998119676739699</v>
-      </c>
-      <c r="N69" t="n">
-        <v>-1.026810840399498</v>
-      </c>
-      <c r="O69" t="n">
-        <v>-1.026810840399498</v>
+        <v>9.0</v>
+      </c>
+      <c r="M69" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N69" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O69" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
         <v>82</v>
       </c>
-      <c r="B70" t="n">
-        <v>0.8689462125566463</v>
-      </c>
-      <c r="C70" t="n">
-        <v>-1.1334208529818475</v>
-      </c>
-      <c r="D70" t="n">
-        <v>0.8689462125566463</v>
-      </c>
-      <c r="E70" t="n">
-        <v>0.9336261251212401</v>
+      <c r="B70" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C70" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D70" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E70" t="e">
+        <v>#N/A</v>
       </c>
       <c r="F70" t="n">
-        <v>29.0</v>
-      </c>
-      <c r="G70" t="n">
-        <v>0.8689462125566463</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0.9988033418583879</v>
-      </c>
-      <c r="I70" t="n">
-        <v>3.14128647746583</v>
-      </c>
-      <c r="J70" t="n">
-        <v>0.9988033418583879</v>
-      </c>
-      <c r="K70" t="n">
-        <v>0.9999971665566236</v>
+        <v>3.0</v>
+      </c>
+      <c r="G70" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H70" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I70" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J70" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K70" t="e">
+        <v>#N/A</v>
       </c>
       <c r="L70" t="n">
-        <v>41.0</v>
-      </c>
-      <c r="M70" t="n">
-        <v>0.9988033418583879</v>
-      </c>
-      <c r="N70" t="n">
-        <v>-1.1334208529818475</v>
-      </c>
-      <c r="O70" t="n">
-        <v>-1.1334208529818475</v>
+        <v>3.0</v>
+      </c>
+      <c r="M70" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N70" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O70" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
         <v>83</v>
       </c>
-      <c r="B71" t="n">
-        <v>0.8713843834464908</v>
-      </c>
-      <c r="C71" t="n">
-        <v>-1.1759971386865222</v>
-      </c>
-      <c r="D71" t="n">
-        <v>0.8713843834464908</v>
-      </c>
-      <c r="E71" t="n">
-        <v>0.9336261251212401</v>
+      <c r="B71" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C71" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D71" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E71" t="e">
+        <v>#N/A</v>
       </c>
       <c r="F71" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="G71" t="n">
-        <v>0.8713843834464908</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0.9994157169536121</v>
-      </c>
-      <c r="I71" t="n">
-        <v>3.4712980108371707</v>
-      </c>
-      <c r="J71" t="n">
-        <v>0.9994157169536121</v>
-      </c>
-      <c r="K71" t="n">
-        <v>0.9999971665566236</v>
+        <v>2.0</v>
+      </c>
+      <c r="G71" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H71" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I71" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J71" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K71" t="e">
+        <v>#N/A</v>
       </c>
       <c r="L71" t="n">
-        <v>25.0</v>
-      </c>
-      <c r="M71" t="n">
-        <v>0.9994157169536121</v>
-      </c>
-      <c r="N71" t="n">
-        <v>-1.1759971386865222</v>
-      </c>
-      <c r="O71" t="n">
-        <v>-1.1759971386865222</v>
+        <v>2.0</v>
+      </c>
+      <c r="M71" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N71" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O71" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
         <v>84</v>
       </c>
-      <c r="B72" t="n">
-        <v>0.9244215046499141</v>
-      </c>
-      <c r="C72" t="n">
-        <v>-1.4477282845871748</v>
-      </c>
-      <c r="D72" t="n">
-        <v>0.9244215046499141</v>
-      </c>
-      <c r="E72" t="n">
-        <v>0.970039231089499</v>
+      <c r="B72" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C72" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D72" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E72" t="e">
+        <v>#N/A</v>
       </c>
       <c r="F72" t="n">
-        <v>49.0</v>
-      </c>
-      <c r="G72" t="n">
-        <v>0.9244215046499141</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0.9994259255345311</v>
-      </c>
-      <c r="I72" t="n">
-        <v>3.4020838920899727</v>
-      </c>
-      <c r="J72" t="n">
-        <v>0.9994259255345311</v>
-      </c>
-      <c r="K72" t="n">
-        <v>0.9999971665566236</v>
+        <v>0.0</v>
+      </c>
+      <c r="G72" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H72" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I72" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J72" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K72" t="e">
+        <v>#N/A</v>
       </c>
       <c r="L72" t="n">
-        <v>35.0</v>
-      </c>
-      <c r="M72" t="n">
-        <v>0.9994259255345311</v>
-      </c>
-      <c r="N72" t="n">
-        <v>-1.4477282845871748</v>
-      </c>
-      <c r="O72" t="n">
-        <v>-1.4477282845871748</v>
+        <v>0.0</v>
+      </c>
+      <c r="M72" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N72" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O72" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
         <v>85</v>
       </c>
-      <c r="B73" t="n">
-        <v>0.9437485704259607</v>
-      </c>
-      <c r="C73" t="n">
-        <v>-1.6143046804541665</v>
-      </c>
-      <c r="D73" t="n">
-        <v>0.9437485704259607</v>
-      </c>
-      <c r="E73" t="n">
-        <v>0.970039231089499</v>
+      <c r="B73" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C73" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D73" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E73" t="e">
+        <v>#N/A</v>
       </c>
       <c r="F73" t="n">
-        <v>29.0</v>
-      </c>
-      <c r="G73" t="n">
-        <v>0.9437485704259607</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0.9995727431697485</v>
-      </c>
-      <c r="I73" t="n">
-        <v>3.581152684132977</v>
-      </c>
-      <c r="J73" t="n">
-        <v>0.9995727431697485</v>
-      </c>
-      <c r="K73" t="n">
-        <v>0.9999971665566236</v>
+        <v>2.0</v>
+      </c>
+      <c r="G73" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H73" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I73" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J73" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K73" t="e">
+        <v>#N/A</v>
       </c>
       <c r="L73" t="n">
-        <v>23.0</v>
-      </c>
-      <c r="M73" t="n">
-        <v>0.9995727431697485</v>
-      </c>
-      <c r="N73" t="n">
-        <v>-1.6143046804541665</v>
-      </c>
-      <c r="O73" t="n">
-        <v>-1.6143046804541665</v>
+        <v>2.0</v>
+      </c>
+      <c r="M73" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N73" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O73" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
         <v>86</v>
       </c>
-      <c r="B74" t="n">
-        <v>0.9570025235853343</v>
-      </c>
-      <c r="C74" t="n">
-        <v>-1.7630328441037073</v>
-      </c>
-      <c r="D74" t="n">
-        <v>0.9570025235853343</v>
-      </c>
-      <c r="E74" t="n">
-        <v>0.970039231089499</v>
+      <c r="B74" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C74" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D74" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E74" t="e">
+        <v>#N/A</v>
       </c>
       <c r="F74" t="n">
-        <v>24.0</v>
-      </c>
-      <c r="G74" t="n">
-        <v>0.9570025235853343</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0.9999007078786042</v>
-      </c>
-      <c r="I74" t="n">
-        <v>3.850267432394692</v>
-      </c>
-      <c r="J74" t="n">
-        <v>0.9999007078786042</v>
-      </c>
-      <c r="K74" t="n">
-        <v>0.9999971665566236</v>
+        <v>0.0</v>
+      </c>
+      <c r="G74" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H74" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I74" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J74" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K74" t="e">
+        <v>#N/A</v>
       </c>
       <c r="L74" t="n">
-        <v>56.0</v>
-      </c>
-      <c r="M74" t="n">
-        <v>0.9999007078786042</v>
-      </c>
-      <c r="N74" t="n">
-        <v>-1.7630328441037073</v>
-      </c>
-      <c r="O74" t="n">
-        <v>-1.7630328441037073</v>
+        <v>0.0</v>
+      </c>
+      <c r="M74" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N74" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O74" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
         <v>87</v>
       </c>
-      <c r="B75" t="n">
-        <v>0.9571053746749723</v>
-      </c>
-      <c r="C75" t="n">
-        <v>-1.8266032541875314</v>
-      </c>
-      <c r="D75" t="n">
-        <v>0.9571053746749723</v>
-      </c>
-      <c r="E75" t="n">
-        <v>0.970039231089499</v>
+      <c r="B75" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C75" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D75" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E75" t="e">
+        <v>#N/A</v>
       </c>
       <c r="F75" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="G75" t="n">
-        <v>0.9571053746749723</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0.9999830088017545</v>
-      </c>
-      <c r="I75" t="n">
-        <v>4.399553665144085</v>
-      </c>
-      <c r="J75" t="n">
-        <v>0.9999830088017545</v>
-      </c>
-      <c r="K75" t="n">
-        <v>0.9999971665566236</v>
+        <v>1.0</v>
+      </c>
+      <c r="G75" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H75" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I75" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J75" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K75" t="e">
+        <v>#N/A</v>
       </c>
       <c r="L75" t="n">
-        <v>40.0</v>
-      </c>
-      <c r="M75" t="n">
-        <v>0.9999830088017545</v>
-      </c>
-      <c r="N75" t="n">
-        <v>-1.8266032541875314</v>
-      </c>
-      <c r="O75" t="n">
-        <v>-1.8266032541875314</v>
+        <v>1.0</v>
+      </c>
+      <c r="M75" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N75" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O75" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
         <v>88</v>
       </c>
-      <c r="B76" t="n">
-        <v>0.9990563060867177</v>
-      </c>
-      <c r="C76" t="n">
-        <v>-3.661442162663987</v>
-      </c>
-      <c r="D76" t="n">
-        <v>0.9990563060867177</v>
-      </c>
-      <c r="E76" t="n">
-        <v>0.9990563060867177</v>
+      <c r="B76" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C76" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D76" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E76" t="e">
+        <v>#N/A</v>
       </c>
       <c r="F76" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="G76" t="n">
-        <v>0.9990563060867177</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0.9999971665566236</v>
-      </c>
-      <c r="I76" t="n">
-        <v>4.771222365560649</v>
-      </c>
-      <c r="J76" t="n">
-        <v>0.9999971665566236</v>
-      </c>
-      <c r="K76" t="n">
-        <v>0.9999971665566236</v>
+        <v>2.0</v>
+      </c>
+      <c r="G76" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H76" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I76" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J76" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K76" t="e">
+        <v>#N/A</v>
       </c>
       <c r="L76" t="n">
-        <v>56.0</v>
-      </c>
-      <c r="M76" t="n">
-        <v>0.9999971665566236</v>
-      </c>
-      <c r="N76" t="n">
-        <v>-3.661442162663987</v>
-      </c>
-      <c r="O76" t="n">
-        <v>-3.661442162663987</v>
+        <v>2.0</v>
+      </c>
+      <c r="M76" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N76" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O76" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="77">
@@ -4222,7 +4222,7 @@
         <v>#N/A</v>
       </c>
       <c r="F77" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="G77" t="e">
         <v>#N/A</v>
@@ -4240,7 +4240,7 @@
         <v>#N/A</v>
       </c>
       <c r="L77" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="M77" t="e">
         <v>#N/A</v>
@@ -4269,7 +4269,7 @@
         <v>#N/A</v>
       </c>
       <c r="F78" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c r="G78" t="e">
         <v>#N/A</v>
@@ -4287,7 +4287,7 @@
         <v>#N/A</v>
       </c>
       <c r="L78" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c r="M78" t="e">
         <v>#N/A</v>
@@ -4316,7 +4316,7 @@
         <v>#N/A</v>
       </c>
       <c r="F79" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="G79" t="e">
         <v>#N/A</v>
@@ -4334,7 +4334,7 @@
         <v>#N/A</v>
       </c>
       <c r="L79" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="M79" t="e">
         <v>#N/A</v>
@@ -4363,7 +4363,7 @@
         <v>#N/A</v>
       </c>
       <c r="F80" t="n">
-        <v>8.0</v>
+        <v>3.0</v>
       </c>
       <c r="G80" t="e">
         <v>#N/A</v>
@@ -4381,7 +4381,7 @@
         <v>#N/A</v>
       </c>
       <c r="L80" t="n">
-        <v>8.0</v>
+        <v>3.0</v>
       </c>
       <c r="M80" t="e">
         <v>#N/A</v>
@@ -4410,7 +4410,7 @@
         <v>#N/A</v>
       </c>
       <c r="F81" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="G81" t="e">
         <v>#N/A</v>
@@ -4428,7 +4428,7 @@
         <v>#N/A</v>
       </c>
       <c r="L81" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="M81" t="e">
         <v>#N/A</v>
@@ -4457,7 +4457,7 @@
         <v>#N/A</v>
       </c>
       <c r="F82" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="G82" t="e">
         <v>#N/A</v>
@@ -4475,7 +4475,7 @@
         <v>#N/A</v>
       </c>
       <c r="L82" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="M82" t="e">
         <v>#N/A</v>
@@ -4551,7 +4551,7 @@
         <v>#N/A</v>
       </c>
       <c r="F84" t="n">
-        <v>8.0</v>
+        <v>2.0</v>
       </c>
       <c r="G84" t="e">
         <v>#N/A</v>
@@ -4569,7 +4569,7 @@
         <v>#N/A</v>
       </c>
       <c r="L84" t="n">
-        <v>8.0</v>
+        <v>2.0</v>
       </c>
       <c r="M84" t="e">
         <v>#N/A</v>
@@ -4598,7 +4598,7 @@
         <v>#N/A</v>
       </c>
       <c r="F85" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c r="G85" t="e">
         <v>#N/A</v>
@@ -4616,7 +4616,7 @@
         <v>#N/A</v>
       </c>
       <c r="L85" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c r="M85" t="e">
         <v>#N/A</v>
@@ -4645,7 +4645,7 @@
         <v>#N/A</v>
       </c>
       <c r="F86" t="n">
-        <v>8.0</v>
+        <v>1.0</v>
       </c>
       <c r="G86" t="e">
         <v>#N/A</v>
@@ -4663,7 +4663,7 @@
         <v>#N/A</v>
       </c>
       <c r="L86" t="n">
-        <v>8.0</v>
+        <v>1.0</v>
       </c>
       <c r="M86" t="e">
         <v>#N/A</v>
@@ -4692,7 +4692,7 @@
         <v>#N/A</v>
       </c>
       <c r="F87" t="n">
-        <v>9.0</v>
+        <v>8.0</v>
       </c>
       <c r="G87" t="e">
         <v>#N/A</v>
@@ -4710,7 +4710,7 @@
         <v>#N/A</v>
       </c>
       <c r="L87" t="n">
-        <v>9.0</v>
+        <v>8.0</v>
       </c>
       <c r="M87" t="e">
         <v>#N/A</v>
@@ -4739,7 +4739,7 @@
         <v>#N/A</v>
       </c>
       <c r="F88" t="n">
-        <v>7.0</v>
+        <v>1.0</v>
       </c>
       <c r="G88" t="e">
         <v>#N/A</v>
@@ -4757,7 +4757,7 @@
         <v>#N/A</v>
       </c>
       <c r="L88" t="n">
-        <v>7.0</v>
+        <v>1.0</v>
       </c>
       <c r="M88" t="e">
         <v>#N/A</v>
@@ -4786,7 +4786,7 @@
         <v>#N/A</v>
       </c>
       <c r="F89" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G89" t="e">
         <v>#N/A</v>
@@ -4804,7 +4804,7 @@
         <v>#N/A</v>
       </c>
       <c r="L89" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="M89" t="e">
         <v>#N/A</v>
@@ -4833,7 +4833,7 @@
         <v>#N/A</v>
       </c>
       <c r="F90" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="G90" t="e">
         <v>#N/A</v>
@@ -4851,7 +4851,7 @@
         <v>#N/A</v>
       </c>
       <c r="L90" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="M90" t="e">
         <v>#N/A</v>
@@ -4880,7 +4880,7 @@
         <v>#N/A</v>
       </c>
       <c r="F91" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="G91" t="e">
         <v>#N/A</v>
@@ -4898,7 +4898,7 @@
         <v>#N/A</v>
       </c>
       <c r="L91" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="M91" t="e">
         <v>#N/A</v>
@@ -4927,7 +4927,7 @@
         <v>#N/A</v>
       </c>
       <c r="F92" t="n">
-        <v>7.0</v>
+        <v>2.0</v>
       </c>
       <c r="G92" t="e">
         <v>#N/A</v>
@@ -4945,7 +4945,7 @@
         <v>#N/A</v>
       </c>
       <c r="L92" t="n">
-        <v>7.0</v>
+        <v>2.0</v>
       </c>
       <c r="M92" t="e">
         <v>#N/A</v>
@@ -4974,7 +4974,7 @@
         <v>#N/A</v>
       </c>
       <c r="F93" t="n">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
       <c r="G93" t="e">
         <v>#N/A</v>
@@ -4992,7 +4992,7 @@
         <v>#N/A</v>
       </c>
       <c r="L93" t="n">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
       <c r="M93" t="e">
         <v>#N/A</v>
@@ -5021,7 +5021,7 @@
         <v>#N/A</v>
       </c>
       <c r="F94" t="n">
-        <v>8.0</v>
+        <v>3.0</v>
       </c>
       <c r="G94" t="e">
         <v>#N/A</v>
@@ -5039,7 +5039,7 @@
         <v>#N/A</v>
       </c>
       <c r="L94" t="n">
-        <v>8.0</v>
+        <v>3.0</v>
       </c>
       <c r="M94" t="e">
         <v>#N/A</v>
@@ -5068,7 +5068,7 @@
         <v>#N/A</v>
       </c>
       <c r="F95" t="n">
-        <v>7.0</v>
+        <v>0.0</v>
       </c>
       <c r="G95" t="e">
         <v>#N/A</v>
@@ -5086,7 +5086,7 @@
         <v>#N/A</v>
       </c>
       <c r="L95" t="n">
-        <v>7.0</v>
+        <v>0.0</v>
       </c>
       <c r="M95" t="e">
         <v>#N/A</v>
@@ -5115,7 +5115,7 @@
         <v>#N/A</v>
       </c>
       <c r="F96" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="G96" t="e">
         <v>#N/A</v>
@@ -5133,7 +5133,7 @@
         <v>#N/A</v>
       </c>
       <c r="L96" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="M96" t="e">
         <v>#N/A</v>
@@ -5162,7 +5162,7 @@
         <v>#N/A</v>
       </c>
       <c r="F97" t="n">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="G97" t="e">
         <v>#N/A</v>
@@ -5180,7 +5180,7 @@
         <v>#N/A</v>
       </c>
       <c r="L97" t="n">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="M97" t="e">
         <v>#N/A</v>
@@ -5209,7 +5209,7 @@
         <v>#N/A</v>
       </c>
       <c r="F98" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="G98" t="e">
         <v>#N/A</v>
@@ -5227,7 +5227,7 @@
         <v>#N/A</v>
       </c>
       <c r="L98" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="M98" t="e">
         <v>#N/A</v>
@@ -5256,7 +5256,7 @@
         <v>#N/A</v>
       </c>
       <c r="F99" t="n">
-        <v>9.0</v>
+        <v>0.0</v>
       </c>
       <c r="G99" t="e">
         <v>#N/A</v>
@@ -5274,7 +5274,7 @@
         <v>#N/A</v>
       </c>
       <c r="L99" t="n">
-        <v>9.0</v>
+        <v>0.0</v>
       </c>
       <c r="M99" t="e">
         <v>#N/A</v>
@@ -5303,7 +5303,7 @@
         <v>#N/A</v>
       </c>
       <c r="F100" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="G100" t="e">
         <v>#N/A</v>
@@ -5321,7 +5321,7 @@
         <v>#N/A</v>
       </c>
       <c r="L100" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="M100" t="e">
         <v>#N/A</v>
@@ -5350,7 +5350,7 @@
         <v>#N/A</v>
       </c>
       <c r="F101" t="n">
-        <v>7.0</v>
+        <v>1.0</v>
       </c>
       <c r="G101" t="e">
         <v>#N/A</v>
@@ -5368,7 +5368,7 @@
         <v>#N/A</v>
       </c>
       <c r="L101" t="n">
-        <v>7.0</v>
+        <v>1.0</v>
       </c>
       <c r="M101" t="e">
         <v>#N/A</v>
@@ -5397,7 +5397,7 @@
         <v>#N/A</v>
       </c>
       <c r="F102" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="G102" t="e">
         <v>#N/A</v>
@@ -5415,7 +5415,7 @@
         <v>#N/A</v>
       </c>
       <c r="L102" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="M102" t="e">
         <v>#N/A</v>
@@ -5444,7 +5444,7 @@
         <v>#N/A</v>
       </c>
       <c r="F103" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="G103" t="e">
         <v>#N/A</v>
@@ -5462,7 +5462,7 @@
         <v>#N/A</v>
       </c>
       <c r="L103" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="M103" t="e">
         <v>#N/A</v>
@@ -5491,7 +5491,7 @@
         <v>#N/A</v>
       </c>
       <c r="F104" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="G104" t="e">
         <v>#N/A</v>
@@ -5509,7 +5509,7 @@
         <v>#N/A</v>
       </c>
       <c r="L104" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="M104" t="e">
         <v>#N/A</v>
@@ -5538,7 +5538,7 @@
         <v>#N/A</v>
       </c>
       <c r="F105" t="n">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
       <c r="G105" t="e">
         <v>#N/A</v>
@@ -5556,7 +5556,7 @@
         <v>#N/A</v>
       </c>
       <c r="L105" t="n">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
       <c r="M105" t="e">
         <v>#N/A</v>
@@ -5585,7 +5585,7 @@
         <v>#N/A</v>
       </c>
       <c r="F106" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G106" t="e">
         <v>#N/A</v>
@@ -5603,7 +5603,7 @@
         <v>#N/A</v>
       </c>
       <c r="L106" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="M106" t="e">
         <v>#N/A</v>
@@ -5679,7 +5679,7 @@
         <v>#N/A</v>
       </c>
       <c r="F108" t="n">
-        <v>7.0</v>
+        <v>1.0</v>
       </c>
       <c r="G108" t="e">
         <v>#N/A</v>
@@ -5697,7 +5697,7 @@
         <v>#N/A</v>
       </c>
       <c r="L108" t="n">
-        <v>7.0</v>
+        <v>1.0</v>
       </c>
       <c r="M108" t="e">
         <v>#N/A</v>
@@ -5726,7 +5726,7 @@
         <v>#N/A</v>
       </c>
       <c r="F109" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="G109" t="e">
         <v>#N/A</v>
@@ -5744,7 +5744,7 @@
         <v>#N/A</v>
       </c>
       <c r="L109" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="M109" t="e">
         <v>#N/A</v>
@@ -5773,7 +5773,7 @@
         <v>#N/A</v>
       </c>
       <c r="F110" t="n">
-        <v>7.0</v>
+        <v>1.0</v>
       </c>
       <c r="G110" t="e">
         <v>#N/A</v>
@@ -5791,7 +5791,7 @@
         <v>#N/A</v>
       </c>
       <c r="L110" t="n">
-        <v>7.0</v>
+        <v>1.0</v>
       </c>
       <c r="M110" t="e">
         <v>#N/A</v>
@@ -5820,7 +5820,7 @@
         <v>#N/A</v>
       </c>
       <c r="F111" t="n">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
       <c r="G111" t="e">
         <v>#N/A</v>
@@ -5838,7 +5838,7 @@
         <v>#N/A</v>
       </c>
       <c r="L111" t="n">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
       <c r="M111" t="e">
         <v>#N/A</v>
@@ -5867,7 +5867,7 @@
         <v>#N/A</v>
       </c>
       <c r="F112" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="G112" t="e">
         <v>#N/A</v>
@@ -5885,7 +5885,7 @@
         <v>#N/A</v>
       </c>
       <c r="L112" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="M112" t="e">
         <v>#N/A</v>
@@ -5961,7 +5961,7 @@
         <v>#N/A</v>
       </c>
       <c r="F114" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="G114" t="e">
         <v>#N/A</v>
@@ -5979,7 +5979,7 @@
         <v>#N/A</v>
       </c>
       <c r="L114" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="M114" t="e">
         <v>#N/A</v>
@@ -6008,7 +6008,7 @@
         <v>#N/A</v>
       </c>
       <c r="F115" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="G115" t="e">
         <v>#N/A</v>
@@ -6026,7 +6026,7 @@
         <v>#N/A</v>
       </c>
       <c r="L115" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="M115" t="e">
         <v>#N/A</v>
@@ -6055,7 +6055,7 @@
         <v>#N/A</v>
       </c>
       <c r="F116" t="n">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="G116" t="e">
         <v>#N/A</v>
@@ -6073,7 +6073,7 @@
         <v>#N/A</v>
       </c>
       <c r="L116" t="n">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="M116" t="e">
         <v>#N/A</v>
@@ -6102,7 +6102,7 @@
         <v>#N/A</v>
       </c>
       <c r="F117" t="n">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
       <c r="G117" t="e">
         <v>#N/A</v>
@@ -6120,7 +6120,7 @@
         <v>#N/A</v>
       </c>
       <c r="L117" t="n">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
       <c r="M117" t="e">
         <v>#N/A</v>
@@ -6196,7 +6196,7 @@
         <v>#N/A</v>
       </c>
       <c r="F119" t="n">
-        <v>9.0</v>
+        <v>6.0</v>
       </c>
       <c r="G119" t="e">
         <v>#N/A</v>
@@ -6214,7 +6214,7 @@
         <v>#N/A</v>
       </c>
       <c r="L119" t="n">
-        <v>9.0</v>
+        <v>6.0</v>
       </c>
       <c r="M119" t="e">
         <v>#N/A</v>
@@ -6290,7 +6290,7 @@
         <v>#N/A</v>
       </c>
       <c r="F121" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="G121" t="e">
         <v>#N/A</v>
@@ -6308,7 +6308,7 @@
         <v>#N/A</v>
       </c>
       <c r="L121" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="M121" t="e">
         <v>#N/A</v>
@@ -6337,7 +6337,7 @@
         <v>#N/A</v>
       </c>
       <c r="F122" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="G122" t="e">
         <v>#N/A</v>
@@ -6355,7 +6355,7 @@
         <v>#N/A</v>
       </c>
       <c r="L122" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="M122" t="e">
         <v>#N/A</v>
@@ -6384,7 +6384,7 @@
         <v>#N/A</v>
       </c>
       <c r="F123" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="G123" t="e">
         <v>#N/A</v>
@@ -6402,7 +6402,7 @@
         <v>#N/A</v>
       </c>
       <c r="L123" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="M123" t="e">
         <v>#N/A</v>
@@ -6478,7 +6478,7 @@
         <v>#N/A</v>
       </c>
       <c r="F125" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="G125" t="e">
         <v>#N/A</v>
@@ -6496,7 +6496,7 @@
         <v>#N/A</v>
       </c>
       <c r="L125" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="M125" t="e">
         <v>#N/A</v>
@@ -6525,7 +6525,7 @@
         <v>#N/A</v>
       </c>
       <c r="F126" t="n">
-        <v>4.0</v>
+        <v>8.0</v>
       </c>
       <c r="G126" t="e">
         <v>#N/A</v>
@@ -6543,7 +6543,7 @@
         <v>#N/A</v>
       </c>
       <c r="L126" t="n">
-        <v>4.0</v>
+        <v>8.0</v>
       </c>
       <c r="M126" t="e">
         <v>#N/A</v>
@@ -6572,7 +6572,7 @@
         <v>#N/A</v>
       </c>
       <c r="F127" t="n">
-        <v>7.0</v>
+        <v>0.0</v>
       </c>
       <c r="G127" t="e">
         <v>#N/A</v>
@@ -6590,7 +6590,7 @@
         <v>#N/A</v>
       </c>
       <c r="L127" t="n">
-        <v>7.0</v>
+        <v>0.0</v>
       </c>
       <c r="M127" t="e">
         <v>#N/A</v>
@@ -6619,7 +6619,7 @@
         <v>#N/A</v>
       </c>
       <c r="F128" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="G128" t="e">
         <v>#N/A</v>
@@ -6637,7 +6637,7 @@
         <v>#N/A</v>
       </c>
       <c r="L128" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="M128" t="e">
         <v>#N/A</v>
@@ -6666,7 +6666,7 @@
         <v>#N/A</v>
       </c>
       <c r="F129" t="n">
-        <v>8.0</v>
+        <v>0.0</v>
       </c>
       <c r="G129" t="e">
         <v>#N/A</v>
@@ -6684,7 +6684,7 @@
         <v>#N/A</v>
       </c>
       <c r="L129" t="n">
-        <v>8.0</v>
+        <v>0.0</v>
       </c>
       <c r="M129" t="e">
         <v>#N/A</v>
@@ -6713,7 +6713,7 @@
         <v>#N/A</v>
       </c>
       <c r="F130" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="G130" t="e">
         <v>#N/A</v>
@@ -6731,7 +6731,7 @@
         <v>#N/A</v>
       </c>
       <c r="L130" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="M130" t="e">
         <v>#N/A</v>
@@ -6760,7 +6760,7 @@
         <v>#N/A</v>
       </c>
       <c r="F131" t="n">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
       <c r="G131" t="e">
         <v>#N/A</v>
@@ -6778,7 +6778,7 @@
         <v>#N/A</v>
       </c>
       <c r="L131" t="n">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
       <c r="M131" t="e">
         <v>#N/A</v>
@@ -6807,7 +6807,7 @@
         <v>#N/A</v>
       </c>
       <c r="F132" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="G132" t="e">
         <v>#N/A</v>
@@ -6825,7 +6825,7 @@
         <v>#N/A</v>
       </c>
       <c r="L132" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="M132" t="e">
         <v>#N/A</v>
@@ -6854,7 +6854,7 @@
         <v>#N/A</v>
       </c>
       <c r="F133" t="n">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
       <c r="G133" t="e">
         <v>#N/A</v>
@@ -6872,7 +6872,7 @@
         <v>#N/A</v>
       </c>
       <c r="L133" t="n">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
       <c r="M133" t="e">
         <v>#N/A</v>
@@ -6901,7 +6901,7 @@
         <v>#N/A</v>
       </c>
       <c r="F134" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="G134" t="e">
         <v>#N/A</v>
@@ -6919,7 +6919,7 @@
         <v>#N/A</v>
       </c>
       <c r="L134" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="M134" t="e">
         <v>#N/A</v>
@@ -6948,7 +6948,7 @@
         <v>#N/A</v>
       </c>
       <c r="F135" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="G135" t="e">
         <v>#N/A</v>
@@ -6966,7 +6966,7 @@
         <v>#N/A</v>
       </c>
       <c r="L135" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="M135" t="e">
         <v>#N/A</v>
@@ -6995,7 +6995,7 @@
         <v>#N/A</v>
       </c>
       <c r="F136" t="n">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c r="G136" t="e">
         <v>#N/A</v>
@@ -7013,7 +7013,7 @@
         <v>#N/A</v>
       </c>
       <c r="L136" t="n">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c r="M136" t="e">
         <v>#N/A</v>
@@ -7042,7 +7042,7 @@
         <v>#N/A</v>
       </c>
       <c r="F137" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="G137" t="e">
         <v>#N/A</v>
@@ -7060,7 +7060,7 @@
         <v>#N/A</v>
       </c>
       <c r="L137" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="M137" t="e">
         <v>#N/A</v>
@@ -7089,7 +7089,7 @@
         <v>#N/A</v>
       </c>
       <c r="F138" t="n">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
       <c r="G138" t="e">
         <v>#N/A</v>
@@ -7107,7 +7107,7 @@
         <v>#N/A</v>
       </c>
       <c r="L138" t="n">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
       <c r="M138" t="e">
         <v>#N/A</v>
@@ -7136,7 +7136,7 @@
         <v>#N/A</v>
       </c>
       <c r="F139" t="n">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
       <c r="G139" t="e">
         <v>#N/A</v>
@@ -7154,7 +7154,7 @@
         <v>#N/A</v>
       </c>
       <c r="L139" t="n">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
       <c r="M139" t="e">
         <v>#N/A</v>
@@ -7183,7 +7183,7 @@
         <v>#N/A</v>
       </c>
       <c r="F140" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="G140" t="e">
         <v>#N/A</v>
@@ -7201,7 +7201,7 @@
         <v>#N/A</v>
       </c>
       <c r="L140" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="M140" t="e">
         <v>#N/A</v>
@@ -7230,7 +7230,7 @@
         <v>#N/A</v>
       </c>
       <c r="F141" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="G141" t="e">
         <v>#N/A</v>
@@ -7248,7 +7248,7 @@
         <v>#N/A</v>
       </c>
       <c r="L141" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="M141" t="e">
         <v>#N/A</v>
@@ -7324,7 +7324,7 @@
         <v>#N/A</v>
       </c>
       <c r="F143" t="n">
-        <v>8.0</v>
+        <v>3.0</v>
       </c>
       <c r="G143" t="e">
         <v>#N/A</v>
@@ -7342,7 +7342,7 @@
         <v>#N/A</v>
       </c>
       <c r="L143" t="n">
-        <v>8.0</v>
+        <v>3.0</v>
       </c>
       <c r="M143" t="e">
         <v>#N/A</v>
@@ -7371,7 +7371,7 @@
         <v>#N/A</v>
       </c>
       <c r="F144" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="G144" t="e">
         <v>#N/A</v>
@@ -7389,7 +7389,7 @@
         <v>#N/A</v>
       </c>
       <c r="L144" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="M144" t="e">
         <v>#N/A</v>
@@ -7418,7 +7418,7 @@
         <v>#N/A</v>
       </c>
       <c r="F145" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="G145" t="e">
         <v>#N/A</v>
@@ -7436,7 +7436,7 @@
         <v>#N/A</v>
       </c>
       <c r="L145" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="M145" t="e">
         <v>#N/A</v>
@@ -7465,7 +7465,7 @@
         <v>#N/A</v>
       </c>
       <c r="F146" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
       <c r="G146" t="e">
         <v>#N/A</v>
@@ -7483,7 +7483,7 @@
         <v>#N/A</v>
       </c>
       <c r="L146" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
       <c r="M146" t="e">
         <v>#N/A</v>
@@ -7559,7 +7559,7 @@
         <v>#N/A</v>
       </c>
       <c r="F148" t="n">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
       <c r="G148" t="e">
         <v>#N/A</v>
@@ -7577,7 +7577,7 @@
         <v>#N/A</v>
       </c>
       <c r="L148" t="n">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
       <c r="M148" t="e">
         <v>#N/A</v>
@@ -7606,7 +7606,7 @@
         <v>#N/A</v>
       </c>
       <c r="F149" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="G149" t="e">
         <v>#N/A</v>
@@ -7624,7 +7624,7 @@
         <v>#N/A</v>
       </c>
       <c r="L149" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="M149" t="e">
         <v>#N/A</v>
@@ -7653,7 +7653,7 @@
         <v>#N/A</v>
       </c>
       <c r="F150" t="n">
-        <v>8.0</v>
+        <v>2.0</v>
       </c>
       <c r="G150" t="e">
         <v>#N/A</v>
@@ -7671,7 +7671,7 @@
         <v>#N/A</v>
       </c>
       <c r="L150" t="n">
-        <v>8.0</v>
+        <v>2.0</v>
       </c>
       <c r="M150" t="e">
         <v>#N/A</v>
@@ -7700,7 +7700,7 @@
         <v>#N/A</v>
       </c>
       <c r="F151" t="n">
-        <v>8.0</v>
+        <v>5.0</v>
       </c>
       <c r="G151" t="e">
         <v>#N/A</v>
@@ -7718,7 +7718,7 @@
         <v>#N/A</v>
       </c>
       <c r="L151" t="n">
-        <v>8.0</v>
+        <v>5.0</v>
       </c>
       <c r="M151" t="e">
         <v>#N/A</v>
@@ -7747,7 +7747,7 @@
         <v>#N/A</v>
       </c>
       <c r="F152" t="n">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
       <c r="G152" t="e">
         <v>#N/A</v>
@@ -7765,7 +7765,7 @@
         <v>#N/A</v>
       </c>
       <c r="L152" t="n">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
       <c r="M152" t="e">
         <v>#N/A</v>
@@ -7794,7 +7794,7 @@
         <v>#N/A</v>
       </c>
       <c r="F153" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="G153" t="e">
         <v>#N/A</v>
@@ -7812,7 +7812,7 @@
         <v>#N/A</v>
       </c>
       <c r="L153" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="M153" t="e">
         <v>#N/A</v>
@@ -7841,7 +7841,7 @@
         <v>#N/A</v>
       </c>
       <c r="F154" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="G154" t="e">
         <v>#N/A</v>
@@ -7859,7 +7859,7 @@
         <v>#N/A</v>
       </c>
       <c r="L154" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="M154" t="e">
         <v>#N/A</v>
@@ -7888,7 +7888,7 @@
         <v>#N/A</v>
       </c>
       <c r="F155" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="G155" t="e">
         <v>#N/A</v>
@@ -7906,7 +7906,7 @@
         <v>#N/A</v>
       </c>
       <c r="L155" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="M155" t="e">
         <v>#N/A</v>
@@ -7935,7 +7935,7 @@
         <v>#N/A</v>
       </c>
       <c r="F156" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G156" t="e">
         <v>#N/A</v>
@@ -7953,7 +7953,7 @@
         <v>#N/A</v>
       </c>
       <c r="L156" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="M156" t="e">
         <v>#N/A</v>
@@ -7982,7 +7982,7 @@
         <v>#N/A</v>
       </c>
       <c r="F157" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G157" t="e">
         <v>#N/A</v>
@@ -8000,7 +8000,7 @@
         <v>#N/A</v>
       </c>
       <c r="L157" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="M157" t="e">
         <v>#N/A</v>
@@ -8029,7 +8029,7 @@
         <v>#N/A</v>
       </c>
       <c r="F158" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="G158" t="e">
         <v>#N/A</v>
@@ -8047,7 +8047,7 @@
         <v>#N/A</v>
       </c>
       <c r="L158" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="M158" t="e">
         <v>#N/A</v>
@@ -8076,7 +8076,7 @@
         <v>#N/A</v>
       </c>
       <c r="F159" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G159" t="e">
         <v>#N/A</v>
@@ -8094,7 +8094,7 @@
         <v>#N/A</v>
       </c>
       <c r="L159" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="M159" t="e">
         <v>#N/A</v>
@@ -8170,7 +8170,7 @@
         <v>#N/A</v>
       </c>
       <c r="F161" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="G161" t="e">
         <v>#N/A</v>
@@ -8188,7 +8188,7 @@
         <v>#N/A</v>
       </c>
       <c r="L161" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="M161" t="e">
         <v>#N/A</v>
@@ -8217,7 +8217,7 @@
         <v>#N/A</v>
       </c>
       <c r="F162" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="G162" t="e">
         <v>#N/A</v>
@@ -8235,7 +8235,7 @@
         <v>#N/A</v>
       </c>
       <c r="L162" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="M162" t="e">
         <v>#N/A</v>
@@ -8264,7 +8264,7 @@
         <v>#N/A</v>
       </c>
       <c r="F163" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="G163" t="e">
         <v>#N/A</v>
@@ -8282,7 +8282,7 @@
         <v>#N/A</v>
       </c>
       <c r="L163" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="M163" t="e">
         <v>#N/A</v>
@@ -8311,7 +8311,7 @@
         <v>#N/A</v>
       </c>
       <c r="F164" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="G164" t="e">
         <v>#N/A</v>
@@ -8329,7 +8329,7 @@
         <v>#N/A</v>
       </c>
       <c r="L164" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="M164" t="e">
         <v>#N/A</v>
@@ -8358,7 +8358,7 @@
         <v>#N/A</v>
       </c>
       <c r="F165" t="n">
-        <v>9.0</v>
+        <v>1.0</v>
       </c>
       <c r="G165" t="e">
         <v>#N/A</v>
@@ -8376,7 +8376,7 @@
         <v>#N/A</v>
       </c>
       <c r="L165" t="n">
-        <v>9.0</v>
+        <v>1.0</v>
       </c>
       <c r="M165" t="e">
         <v>#N/A</v>
@@ -8405,7 +8405,7 @@
         <v>#N/A</v>
       </c>
       <c r="F166" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="G166" t="e">
         <v>#N/A</v>
@@ -8423,7 +8423,7 @@
         <v>#N/A</v>
       </c>
       <c r="L166" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="M166" t="e">
         <v>#N/A</v>
@@ -8452,7 +8452,7 @@
         <v>#N/A</v>
       </c>
       <c r="F167" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="G167" t="e">
         <v>#N/A</v>
@@ -8470,7 +8470,7 @@
         <v>#N/A</v>
       </c>
       <c r="L167" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="M167" t="e">
         <v>#N/A</v>
@@ -8499,7 +8499,7 @@
         <v>#N/A</v>
       </c>
       <c r="F168" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="G168" t="e">
         <v>#N/A</v>
@@ -8517,7 +8517,7 @@
         <v>#N/A</v>
       </c>
       <c r="L168" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="M168" t="e">
         <v>#N/A</v>
@@ -8546,7 +8546,7 @@
         <v>#N/A</v>
       </c>
       <c r="F169" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="G169" t="e">
         <v>#N/A</v>
@@ -8564,7 +8564,7 @@
         <v>#N/A</v>
       </c>
       <c r="L169" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="M169" t="e">
         <v>#N/A</v>
@@ -8593,7 +8593,7 @@
         <v>#N/A</v>
       </c>
       <c r="F170" t="n">
-        <v>4.0</v>
+        <v>9.0</v>
       </c>
       <c r="G170" t="e">
         <v>#N/A</v>
@@ -8611,7 +8611,7 @@
         <v>#N/A</v>
       </c>
       <c r="L170" t="n">
-        <v>4.0</v>
+        <v>9.0</v>
       </c>
       <c r="M170" t="e">
         <v>#N/A</v>
@@ -8687,7 +8687,7 @@
         <v>#N/A</v>
       </c>
       <c r="F172" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c r="G172" t="e">
         <v>#N/A</v>
@@ -8705,7 +8705,7 @@
         <v>#N/A</v>
       </c>
       <c r="L172" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c r="M172" t="e">
         <v>#N/A</v>
@@ -8734,7 +8734,7 @@
         <v>#N/A</v>
       </c>
       <c r="F173" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="G173" t="e">
         <v>#N/A</v>
@@ -8752,7 +8752,7 @@
         <v>#N/A</v>
       </c>
       <c r="L173" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="M173" t="e">
         <v>#N/A</v>
@@ -8781,7 +8781,7 @@
         <v>#N/A</v>
       </c>
       <c r="F174" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G174" t="e">
         <v>#N/A</v>
@@ -8799,7 +8799,7 @@
         <v>#N/A</v>
       </c>
       <c r="L174" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="M174" t="e">
         <v>#N/A</v>
@@ -8828,7 +8828,7 @@
         <v>#N/A</v>
       </c>
       <c r="F175" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="G175" t="e">
         <v>#N/A</v>
@@ -8846,7 +8846,7 @@
         <v>#N/A</v>
       </c>
       <c r="L175" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="M175" t="e">
         <v>#N/A</v>
@@ -8875,7 +8875,7 @@
         <v>#N/A</v>
       </c>
       <c r="F176" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G176" t="e">
         <v>#N/A</v>
@@ -8893,7 +8893,7 @@
         <v>#N/A</v>
       </c>
       <c r="L176" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="M176" t="e">
         <v>#N/A</v>
@@ -8922,7 +8922,7 @@
         <v>#N/A</v>
       </c>
       <c r="F177" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="G177" t="e">
         <v>#N/A</v>
@@ -8940,7 +8940,7 @@
         <v>#N/A</v>
       </c>
       <c r="L177" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="M177" t="e">
         <v>#N/A</v>
